--- a/Flare Notes.xlsx
+++ b/Flare Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC25B96-4268-3A41-9EA5-BBA68B53C593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92210B68-5DEA-CA47-AC0C-66892956A3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="77">
   <si>
     <t>o</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>https://alltransistors.com/pdfview.php?doc=irlb3034pbf.pdf&amp;dire=_international_rectifier</t>
+  </si>
+  <si>
+    <t>Boad space is 56 x 81</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,9 +1423,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5524,7 +5524,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI47" sqref="BI47"/>
+      <selection pane="bottomRight" activeCell="BL51" sqref="BL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6649,11 +6649,11 @@
       <c r="AK15" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="AL15" s="193" t="s">
+      <c r="AL15" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="AM15" s="193"/>
-      <c r="AN15" s="193"/>
+      <c r="AM15" s="192"/>
+      <c r="AN15" s="192"/>
       <c r="AO15" s="129" t="s">
         <v>0</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="J23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="191" t="s">
+      <c r="K23" s="190" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="85" t="s">
@@ -7463,7 +7463,7 @@
       <c r="J25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="191"/>
+      <c r="K25" s="190"/>
       <c r="L25" s="107" t="s">
         <v>51</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="X28" s="187"/>
       <c r="Y28" s="187"/>
       <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
+      <c r="AA28" s="188"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="123"/>
       <c r="AD28" s="123"/>
@@ -7809,7 +7809,7 @@
       <c r="J29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="192"/>
+      <c r="K29" s="191"/>
       <c r="L29" s="109" t="s">
         <v>25</v>
       </c>
@@ -7837,13 +7837,13 @@
       <c r="T29" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="U29" s="189"/>
-      <c r="V29" s="189"/>
-      <c r="W29" s="189"/>
-      <c r="X29" s="189"/>
-      <c r="Y29" s="189"/>
-      <c r="Z29" s="189"/>
-      <c r="AA29" s="189"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="119" t="s">
         <v>0</v>
@@ -7937,7 +7937,7 @@
       <c r="X30" s="187"/>
       <c r="Y30" s="187"/>
       <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
+      <c r="AA30" s="188"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="123"/>
       <c r="AD30" s="123"/>
@@ -8019,7 +8019,7 @@
       <c r="X31" s="187"/>
       <c r="Y31" s="187"/>
       <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
+      <c r="AA31" s="188"/>
       <c r="AB31" s="13"/>
       <c r="AC31" s="119" t="s">
         <v>0</v>
@@ -8113,7 +8113,7 @@
       <c r="X32" s="187"/>
       <c r="Y32" s="187"/>
       <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
+      <c r="AA32" s="188"/>
       <c r="AB32" s="13"/>
       <c r="AC32" s="123"/>
       <c r="AD32" s="123"/>
@@ -8699,13 +8699,13 @@
       <c r="T39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U39" s="190"/>
-      <c r="V39" s="190"/>
-      <c r="W39" s="190"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="190"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="190"/>
+      <c r="U39" s="189"/>
+      <c r="V39" s="189"/>
+      <c r="W39" s="189"/>
+      <c r="X39" s="189"/>
+      <c r="Y39" s="189"/>
+      <c r="Z39" s="189"/>
+      <c r="AA39" s="189"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="119" t="s">
         <v>0</v>
@@ -8877,13 +8877,13 @@
       <c r="T41" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="U41" s="190"/>
-      <c r="V41" s="190"/>
-      <c r="W41" s="190"/>
-      <c r="X41" s="190"/>
-      <c r="Y41" s="190"/>
-      <c r="Z41" s="190"/>
-      <c r="AA41" s="190"/>
+      <c r="U41" s="189"/>
+      <c r="V41" s="189"/>
+      <c r="W41" s="189"/>
+      <c r="X41" s="189"/>
+      <c r="Y41" s="189"/>
+      <c r="Z41" s="189"/>
+      <c r="AA41" s="189"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="119" t="s">
         <v>0</v>
@@ -9055,13 +9055,13 @@
       <c r="T43" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="190"/>
-      <c r="V43" s="190"/>
-      <c r="W43" s="190"/>
-      <c r="X43" s="190"/>
-      <c r="Y43" s="190"/>
-      <c r="Z43" s="190"/>
-      <c r="AA43" s="190"/>
+      <c r="U43" s="189"/>
+      <c r="V43" s="189"/>
+      <c r="W43" s="189"/>
+      <c r="X43" s="189"/>
+      <c r="Y43" s="189"/>
+      <c r="Z43" s="189"/>
+      <c r="AA43" s="189"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="119" t="s">
         <v>0</v>
@@ -9223,13 +9223,13 @@
       <c r="T45" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="U45" s="190"/>
-      <c r="V45" s="190"/>
-      <c r="W45" s="190"/>
-      <c r="X45" s="190"/>
-      <c r="Y45" s="190"/>
-      <c r="Z45" s="190"/>
-      <c r="AA45" s="190"/>
+      <c r="U45" s="189"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="189"/>
+      <c r="X45" s="189"/>
+      <c r="Y45" s="189"/>
+      <c r="Z45" s="189"/>
+      <c r="AA45" s="189"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="156" t="s">
         <v>58</v>
@@ -9390,13 +9390,13 @@
       <c r="T47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U47" s="190"/>
-      <c r="V47" s="190"/>
-      <c r="W47" s="190"/>
-      <c r="X47" s="190"/>
-      <c r="Y47" s="190"/>
-      <c r="Z47" s="190"/>
-      <c r="AA47" s="190"/>
+      <c r="U47" s="189"/>
+      <c r="V47" s="189"/>
+      <c r="W47" s="189"/>
+      <c r="X47" s="189"/>
+      <c r="Y47" s="189"/>
+      <c r="Z47" s="189"/>
+      <c r="AA47" s="189"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="119" t="s">
         <v>0</v>
@@ -9565,13 +9565,13 @@
       <c r="T49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U49" s="190"/>
-      <c r="V49" s="190"/>
-      <c r="W49" s="190"/>
-      <c r="X49" s="190"/>
-      <c r="Y49" s="190"/>
-      <c r="Z49" s="190"/>
-      <c r="AA49" s="190"/>
+      <c r="U49" s="189"/>
+      <c r="V49" s="189"/>
+      <c r="W49" s="189"/>
+      <c r="X49" s="189"/>
+      <c r="Y49" s="189"/>
+      <c r="Z49" s="189"/>
+      <c r="AA49" s="189"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="119" t="s">
         <v>0</v>
@@ -9827,6 +9827,9 @@
       <c r="AZ52" s="123"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="H53" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
@@ -13984,26 +13987,26 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="194" t="s">
+      <c r="Q21" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="194"/>
-      <c r="S21" s="194"/>
-      <c r="T21" s="194"/>
-      <c r="U21" s="194"/>
-      <c r="V21" s="194"/>
-      <c r="W21" s="194"/>
-      <c r="X21" s="194"/>
-      <c r="Y21" s="194"/>
-      <c r="Z21" s="194"/>
-      <c r="AF21" s="194" t="s">
+      <c r="R21" s="193"/>
+      <c r="S21" s="193"/>
+      <c r="T21" s="193"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="193"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="193"/>
+      <c r="Z21" s="193"/>
+      <c r="AF21" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="AG21" s="194"/>
-      <c r="AH21" s="194"/>
-      <c r="AI21" s="194"/>
-      <c r="AJ21" s="194"/>
-      <c r="AK21" s="194"/>
+      <c r="AG21" s="193"/>
+      <c r="AH21" s="193"/>
+      <c r="AI21" s="193"/>
+      <c r="AJ21" s="193"/>
+      <c r="AK21" s="193"/>
     </row>
     <row r="22" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -14720,14 +14723,14 @@
       <c r="Z37" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="194" t="s">
+      <c r="AE37" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="AF37" s="194"/>
-      <c r="AG37" s="194"/>
-      <c r="AH37" s="194"/>
-      <c r="AI37" s="194"/>
-      <c r="AJ37" s="194"/>
+      <c r="AF37" s="193"/>
+      <c r="AG37" s="193"/>
+      <c r="AH37" s="193"/>
+      <c r="AI37" s="193"/>
+      <c r="AJ37" s="193"/>
     </row>
     <row r="38" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>

--- a/Flare Notes.xlsx
+++ b/Flare Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499ACFB-0718-B448-80BD-A9ED7323C70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E165526-2A31-DB48-B19F-75DFEC65FFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="88">
   <si>
     <t>o</t>
   </si>
@@ -292,6 +292,12 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +418,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +926,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,21 +1479,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1535,9 +1532,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1554,6 +1548,66 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1561,7 +1615,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="414">
+  <dxfs count="413">
     <dxf>
       <font>
         <color rgb="FF808080"/>
@@ -3586,11 +3640,6 @@
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3684,13 +3733,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>97692</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>107462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>97692</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
@@ -3741,14 +3790,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>79741</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87678</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>79741</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87678</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>97449</xdr:rowOff>
     </xdr:to>
@@ -3765,7 +3814,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3215054" y="2131524"/>
+          <a:off x="3032491" y="2131524"/>
           <a:ext cx="0" cy="236050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3798,13 +3847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>93541</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>93541</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>101478</xdr:rowOff>
@@ -3855,13 +3904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95738</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95738</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>107461</xdr:rowOff>
@@ -3912,16 +3961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3962,16 +4011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>89753</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>97082</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>89753</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3986,8 +4035,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3034566" y="1446457"/>
-          <a:ext cx="0" cy="3458918"/>
+          <a:off x="2224941" y="754063"/>
+          <a:ext cx="0" cy="3730625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4019,16 +4068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>88166</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>88166</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4043,8 +4092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3223479" y="3294063"/>
-          <a:ext cx="0" cy="2079624"/>
+          <a:off x="3032979" y="3286126"/>
+          <a:ext cx="0" cy="1666874"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4076,72 +4125,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>116795</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100865</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>97367</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95255FA-6005-A643-8049-42C6C56592B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1708679" y="3545795"/>
-          <a:ext cx="1" cy="891268"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:headEnd type="oval"/>
-          <a:tailEnd type="oval"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>100865</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>100865</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>96836</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4157,8 +4149,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2855178" y="4667250"/>
-          <a:ext cx="0" cy="461961"/>
+          <a:off x="2855178" y="3754438"/>
+          <a:ext cx="0" cy="1168398"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4190,15 +4182,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>86578</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102453</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>86578</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102453</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>98422</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4214,8 +4206,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2269391" y="4445000"/>
-          <a:ext cx="0" cy="225422"/>
+          <a:off x="2094766" y="3778250"/>
+          <a:ext cx="0" cy="693735"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4247,15 +4239,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>96102</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>96102</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>115887</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4271,8 +4263,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2088415" y="4222751"/>
-          <a:ext cx="0" cy="695324"/>
+          <a:off x="2088415" y="4452938"/>
+          <a:ext cx="0" cy="488949"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4304,16 +4296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>97691</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>97691</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4328,8 +4320,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3614004" y="4438651"/>
-          <a:ext cx="0" cy="695323"/>
+          <a:off x="3804504" y="4238625"/>
+          <a:ext cx="0" cy="482599"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4361,15 +4353,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>97691</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>97691</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>109535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4418,15 +4410,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>99279</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>99279</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4475,16 +4467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>99279</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>99279</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>103186</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4499,8 +4491,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3806092" y="3770313"/>
-          <a:ext cx="0" cy="1135061"/>
+          <a:off x="3615592" y="3770313"/>
+          <a:ext cx="0" cy="698498"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4532,16 +4524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>92929</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100866</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>92929</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100866</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:rowOff>88898</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4556,8 +4548,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847242" y="1682750"/>
-          <a:ext cx="0" cy="2089148"/>
+          <a:off x="3236179" y="1666875"/>
+          <a:ext cx="0" cy="2097086"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4589,15 +4581,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>99279</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>99279</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>87310</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4646,13 +4638,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>100867</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>100867</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>96835</xdr:rowOff>
@@ -4670,8 +4662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4188680" y="1905000"/>
-          <a:ext cx="0" cy="1858960"/>
+          <a:off x="3998180" y="1905000"/>
+          <a:ext cx="0" cy="1866898"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4679,6 +4671,177 @@
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89754</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635D0E71-C608-7B4D-A195-D2D5D56E4061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3415567" y="984250"/>
+          <a:ext cx="0" cy="2327273"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97366</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97367</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887D159A-7DD0-884D-9813-09BAE043F7A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1518179" y="3561671"/>
+          <a:ext cx="1" cy="676955"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98953</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98953</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB5C189-E6EA-054A-87BB-B55F532770AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4186766" y="722312"/>
+          <a:ext cx="0" cy="2119313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:headEnd type="oval"/>
           <a:tailEnd type="oval"/>
@@ -7361,101 +7524,90 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BH52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV31" sqref="AV31"/>
+      <selection pane="bottomRight" activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.5" style="30"/>
-    <col min="4" max="4" width="3.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="2.5" style="30"/>
-    <col min="13" max="53" width="2.5" style="191"/>
-    <col min="54" max="16384" width="2.5" style="13"/>
+    <col min="2" max="9" width="2.5" style="30"/>
+    <col min="10" max="21" width="2.5" style="191"/>
+    <col min="22" max="22" width="3.1640625" style="191" bestFit="1" customWidth="1"/>
+    <col min="23" max="50" width="2.5" style="191"/>
+    <col min="51" max="16384" width="2.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
       <c r="G1" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S1" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1">
         <v>18</v>
       </c>
-      <c r="Y1" s="1">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>25</v>
-      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -7476,11 +7628,8 @@
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:63" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7490,9 +7639,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
@@ -7531,19 +7680,22 @@
       <c r="AV2" s="13"/>
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G3" s="14" t="s">
         <v>0</v>
       </c>
@@ -7556,163 +7708,135 @@
       <c r="J3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="89" t="s">
+      <c r="K3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="93" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="216" t="s">
+      <c r="R3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="197" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="216"/>
-      <c r="AP3" s="216"/>
-      <c r="AQ3" s="216"/>
-      <c r="AR3" s="216"/>
-      <c r="AS3" s="216"/>
-      <c r="AT3" s="216"/>
-      <c r="AU3" s="216"/>
-      <c r="AV3" s="216"/>
-      <c r="AW3" s="216"/>
-      <c r="AX3" s="216"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BK3" s="13" t="s">
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="230"/>
+      <c r="AO3" s="230"/>
+      <c r="AP3" s="230"/>
+      <c r="AQ3" s="230"/>
+      <c r="AR3" s="230"/>
+      <c r="AS3" s="230"/>
+      <c r="AT3" s="230"/>
+      <c r="AU3" s="230"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="BH3" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
       <c r="O4" s="78"/>
       <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="216"/>
-      <c r="AO4" s="216"/>
-      <c r="AP4" s="216"/>
-      <c r="AQ4" s="216"/>
-      <c r="AR4" s="216"/>
-      <c r="AS4" s="216"/>
-      <c r="AT4" s="216"/>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
-      <c r="AW4" s="216"/>
-      <c r="AX4" s="216"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="186"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="186"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="186"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="230"/>
+      <c r="AL4" s="230"/>
+      <c r="AM4" s="230"/>
+      <c r="AN4" s="230"/>
+      <c r="AO4" s="230"/>
+      <c r="AP4" s="230"/>
+      <c r="AQ4" s="230"/>
+      <c r="AR4" s="230"/>
+      <c r="AS4" s="230"/>
+      <c r="AT4" s="230"/>
+      <c r="AU4" s="230"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
     </row>
-    <row r="5" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G5" s="14" t="s">
         <v>0</v>
       </c>
@@ -7725,160 +7849,130 @@
       <c r="J5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="91" t="s">
+      <c r="K5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="79"/>
-      <c r="T5" s="95" t="s">
+      <c r="L5" s="79"/>
+      <c r="M5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="186"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="216"/>
-      <c r="AO5" s="216"/>
-      <c r="AP5" s="216"/>
-      <c r="AQ5" s="216"/>
-      <c r="AR5" s="216"/>
-      <c r="AS5" s="216"/>
-      <c r="AT5" s="216"/>
-      <c r="AU5" s="216"/>
-      <c r="AV5" s="216"/>
-      <c r="AW5" s="216"/>
-      <c r="AX5" s="216"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BK5" s="13" t="s">
+      <c r="R5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="58"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="186"/>
+      <c r="AA5" s="186"/>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="186"/>
+      <c r="AD5" s="186"/>
+      <c r="AE5" s="186"/>
+      <c r="AF5" s="186"/>
+      <c r="AG5" s="186"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="230"/>
+      <c r="AL5" s="230"/>
+      <c r="AM5" s="230"/>
+      <c r="AN5" s="230"/>
+      <c r="AO5" s="230"/>
+      <c r="AP5" s="230"/>
+      <c r="AQ5" s="230"/>
+      <c r="AR5" s="230"/>
+      <c r="AS5" s="230"/>
+      <c r="AT5" s="230"/>
+      <c r="AU5" s="230"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="BH5" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
       <c r="O6" s="78"/>
       <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="186"/>
+      <c r="Y6" s="186"/>
+      <c r="Z6" s="186"/>
+      <c r="AA6" s="186"/>
+      <c r="AB6" s="186"/>
+      <c r="AC6" s="186"/>
+      <c r="AD6" s="186"/>
+      <c r="AE6" s="186"/>
+      <c r="AF6" s="186"/>
+      <c r="AG6" s="186"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="186"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="216"/>
-      <c r="AO6" s="216"/>
-      <c r="AP6" s="216"/>
-      <c r="AQ6" s="216"/>
-      <c r="AR6" s="216"/>
-      <c r="AS6" s="216"/>
-      <c r="AT6" s="216"/>
-      <c r="AU6" s="216"/>
-      <c r="AV6" s="216"/>
-      <c r="AW6" s="216"/>
-      <c r="AX6" s="216"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="230"/>
+      <c r="AL6" s="230"/>
+      <c r="AM6" s="230"/>
+      <c r="AN6" s="230"/>
+      <c r="AO6" s="230"/>
+      <c r="AP6" s="230"/>
+      <c r="AQ6" s="230"/>
+      <c r="AR6" s="230"/>
+      <c r="AS6" s="230"/>
+      <c r="AT6" s="230"/>
+      <c r="AU6" s="230"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
     </row>
-    <row r="7" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="14" t="s">
         <v>0</v>
       </c>
@@ -7891,125 +7985,92 @@
       <c r="J7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="91" t="s">
+      <c r="K7" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="95" t="s">
+      <c r="L7" s="86"/>
+      <c r="M7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="202" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="186"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="216"/>
-      <c r="AO7" s="216"/>
-      <c r="AP7" s="216"/>
-      <c r="AQ7" s="216"/>
-      <c r="AR7" s="216"/>
-      <c r="AS7" s="216"/>
-      <c r="AT7" s="216"/>
-      <c r="AU7" s="216"/>
-      <c r="AV7" s="216"/>
-      <c r="AW7" s="216"/>
-      <c r="AX7" s="216"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BK7" s="13" t="s">
+      <c r="R7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="43"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="186"/>
+      <c r="Z7" s="186"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="186"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="230"/>
+      <c r="AL7" s="230"/>
+      <c r="AM7" s="230"/>
+      <c r="AN7" s="230"/>
+      <c r="AO7" s="230"/>
+      <c r="AP7" s="230"/>
+      <c r="AQ7" s="230"/>
+      <c r="AR7" s="230"/>
+      <c r="AS7" s="230"/>
+      <c r="AT7" s="230"/>
+      <c r="AU7" s="230"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="BH7" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
       <c r="O8" s="78"/>
       <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="186"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
       <c r="V8" s="186"/>
       <c r="W8" s="186"/>
       <c r="X8" s="186"/>
-      <c r="Y8" s="197"/>
+      <c r="Y8" s="186"/>
       <c r="Z8" s="186"/>
       <c r="AA8" s="186"/>
       <c r="AB8" s="186"/>
@@ -8018,483 +8079,395 @@
       <c r="AE8" s="186"/>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
-      <c r="AH8" s="186"/>
-      <c r="AI8" s="186"/>
-      <c r="AJ8" s="186"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="216"/>
-      <c r="AO8" s="216"/>
-      <c r="AP8" s="216"/>
-      <c r="AQ8" s="216"/>
-      <c r="AR8" s="216"/>
-      <c r="AS8" s="216"/>
-      <c r="AT8" s="216"/>
-      <c r="AU8" s="216"/>
-      <c r="AV8" s="216"/>
-      <c r="AW8" s="216"/>
-      <c r="AX8" s="216"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="230"/>
+      <c r="AL8" s="230"/>
+      <c r="AM8" s="230"/>
+      <c r="AN8" s="230"/>
+      <c r="AO8" s="230"/>
+      <c r="AP8" s="230"/>
+      <c r="AQ8" s="230"/>
+      <c r="AR8" s="230"/>
+      <c r="AS8" s="230"/>
+      <c r="AT8" s="230"/>
+      <c r="AU8" s="230"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>0</v>
+      <c r="D9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="88" t="s">
+        <v>57</v>
       </c>
       <c r="I9" s="14"/>
-      <c r="J9" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="91" t="s">
+      <c r="J9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="95" t="s">
+      <c r="L9" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="186"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="216"/>
-      <c r="AO9" s="216"/>
-      <c r="AP9" s="216"/>
-      <c r="AQ9" s="216"/>
-      <c r="AR9" s="216"/>
-      <c r="AS9" s="216"/>
-      <c r="AT9" s="216"/>
-      <c r="AU9" s="216"/>
-      <c r="AV9" s="216"/>
-      <c r="AW9" s="216"/>
-      <c r="AX9" s="216"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
+      <c r="R9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="47"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="186"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="230"/>
+      <c r="AL9" s="230"/>
+      <c r="AM9" s="230"/>
+      <c r="AN9" s="230"/>
+      <c r="AO9" s="230"/>
+      <c r="AP9" s="230"/>
+      <c r="AQ9" s="230"/>
+      <c r="AR9" s="230"/>
+      <c r="AS9" s="230"/>
+      <c r="AT9" s="230"/>
+      <c r="AU9" s="230"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
     </row>
-    <row r="10" spans="1:63" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="90"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="78"/>
       <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="186"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="216"/>
-      <c r="AO10" s="216"/>
-      <c r="AP10" s="216"/>
-      <c r="AQ10" s="216"/>
-      <c r="AR10" s="216"/>
-      <c r="AS10" s="216"/>
-      <c r="AT10" s="216"/>
-      <c r="AU10" s="216"/>
-      <c r="AV10" s="216"/>
-      <c r="AW10" s="216"/>
-      <c r="AX10" s="216"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="230"/>
+      <c r="AL10" s="230"/>
+      <c r="AM10" s="230"/>
+      <c r="AN10" s="230"/>
+      <c r="AO10" s="230"/>
+      <c r="AP10" s="230"/>
+      <c r="AQ10" s="230"/>
+      <c r="AR10" s="230"/>
+      <c r="AS10" s="230"/>
+      <c r="AT10" s="230"/>
+      <c r="AU10" s="230"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
     </row>
-    <row r="11" spans="1:63" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>5</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="101" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="98" t="s">
+      <c r="J11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="98" t="s">
         <v>30</v>
       </c>
+      <c r="L11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="86" t="s">
+        <v>0</v>
+      </c>
       <c r="O11" s="86" t="s">
         <v>0</v>
       </c>
       <c r="P11" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="83" t="s">
+      <c r="Q11" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="U11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="187"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="216"/>
-      <c r="AO11" s="216"/>
-      <c r="AP11" s="216"/>
-      <c r="AQ11" s="216"/>
-      <c r="AR11" s="216"/>
-      <c r="AS11" s="216"/>
-      <c r="AT11" s="216"/>
-      <c r="AU11" s="216"/>
-      <c r="AV11" s="216"/>
-      <c r="AW11" s="216"/>
-      <c r="AX11" s="216"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
+      <c r="R11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="230"/>
+      <c r="AL11" s="230"/>
+      <c r="AM11" s="230"/>
+      <c r="AN11" s="230"/>
+      <c r="AO11" s="230"/>
+      <c r="AP11" s="230"/>
+      <c r="AQ11" s="230"/>
+      <c r="AR11" s="230"/>
+      <c r="AS11" s="230"/>
+      <c r="AT11" s="230"/>
+      <c r="AU11" s="230"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
     </row>
-    <row r="12" spans="1:63" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="78"/>
       <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="186"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="186"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="186"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="216"/>
-      <c r="AO12" s="216"/>
-      <c r="AP12" s="216"/>
-      <c r="AQ12" s="216"/>
-      <c r="AR12" s="216"/>
-      <c r="AS12" s="216"/>
-      <c r="AT12" s="216"/>
-      <c r="AU12" s="216"/>
-      <c r="AV12" s="216"/>
-      <c r="AW12" s="216"/>
-      <c r="AX12" s="216"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="230"/>
+      <c r="AL12" s="230"/>
+      <c r="AM12" s="230"/>
+      <c r="AN12" s="230"/>
+      <c r="AO12" s="230"/>
+      <c r="AP12" s="230"/>
+      <c r="AQ12" s="230"/>
+      <c r="AR12" s="230"/>
+      <c r="AS12" s="230"/>
+      <c r="AT12" s="230"/>
+      <c r="AU12" s="230"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="G13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>0</v>
+      <c r="H13" s="84"/>
+      <c r="I13" s="83" t="s">
+        <v>53</v>
       </c>
       <c r="J13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="83" t="s">
-        <v>53</v>
+      <c r="K13" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="79" t="s">
+        <v>0</v>
       </c>
       <c r="M13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="81" t="s">
-        <v>31</v>
+      <c r="N13" s="79" t="s">
+        <v>0</v>
       </c>
       <c r="O13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="96" t="s">
+      <c r="P13" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="186"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="216"/>
-      <c r="AO13" s="216"/>
-      <c r="AP13" s="216"/>
-      <c r="AQ13" s="216"/>
-      <c r="AR13" s="216"/>
-      <c r="AS13" s="216"/>
-      <c r="AT13" s="216"/>
-      <c r="AU13" s="216"/>
-      <c r="AV13" s="216"/>
-      <c r="AW13" s="216"/>
-      <c r="AX13" s="216"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
+      <c r="R13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="186"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="186"/>
+      <c r="AE13" s="186"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="186"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="230"/>
+      <c r="AL13" s="230"/>
+      <c r="AM13" s="230"/>
+      <c r="AN13" s="230"/>
+      <c r="AO13" s="230"/>
+      <c r="AP13" s="230"/>
+      <c r="AQ13" s="230"/>
+      <c r="AR13" s="230"/>
+      <c r="AS13" s="230"/>
+      <c r="AT13" s="230"/>
+      <c r="AU13" s="230"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
     </row>
-    <row r="14" spans="1:63" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="78"/>
       <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
       <c r="U14" s="186"/>
       <c r="V14" s="186"/>
       <c r="W14" s="186"/>
@@ -8508,181 +8481,151 @@
       <c r="AE14" s="186"/>
       <c r="AF14" s="186"/>
       <c r="AG14" s="186"/>
-      <c r="AH14" s="186"/>
-      <c r="AI14" s="186"/>
-      <c r="AJ14" s="186"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="216"/>
-      <c r="AO14" s="216"/>
-      <c r="AP14" s="216"/>
-      <c r="AQ14" s="216"/>
-      <c r="AR14" s="216"/>
-      <c r="AS14" s="216"/>
-      <c r="AT14" s="216"/>
-      <c r="AU14" s="216"/>
-      <c r="AV14" s="216"/>
-      <c r="AW14" s="216"/>
-      <c r="AX14" s="216"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="230"/>
+      <c r="AL14" s="230"/>
+      <c r="AM14" s="230"/>
+      <c r="AN14" s="230"/>
+      <c r="AO14" s="230"/>
+      <c r="AP14" s="230"/>
+      <c r="AQ14" s="230"/>
+      <c r="AR14" s="230"/>
+      <c r="AS14" s="230"/>
+      <c r="AT14" s="230"/>
+      <c r="AU14" s="230"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>0</v>
+      <c r="H15" s="42"/>
+      <c r="I15" s="212" t="s">
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="81" t="s">
+      <c r="K15" s="81" t="s">
         <v>32</v>
       </c>
+      <c r="L15" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="86" t="s">
+        <v>0</v>
+      </c>
       <c r="O15" s="86" t="s">
         <v>0</v>
       </c>
       <c r="P15" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="96" t="s">
+      <c r="Q15" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="186"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
+      <c r="R15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="186"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
       <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
+      <c r="AO15" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="AP15" s="30"/>
       <c r="AQ15" s="30"/>
-      <c r="AR15" s="30" t="s">
-        <v>76</v>
-      </c>
+      <c r="AR15" s="30"/>
       <c r="AS15" s="30"/>
       <c r="AT15" s="30"/>
       <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
     </row>
-    <row r="16" spans="1:63" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="78"/>
       <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="186"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="186"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="186"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="186"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
       <c r="AN16" s="30"/>
       <c r="AO16" s="30"/>
       <c r="AP16" s="30"/>
@@ -8691,111 +8634,84 @@
       <c r="AS16" s="30"/>
       <c r="AT16" s="30"/>
       <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
         <v>8</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="85" t="s">
+      <c r="H17" s="189"/>
+      <c r="I17" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="100" t="s">
+      <c r="J17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15" t="s">
+      <c r="L17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="96" t="s">
+      <c r="Q17" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="186"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
+      <c r="R17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="186"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="186"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
       <c r="AN17" s="30"/>
       <c r="AO17" s="30"/>
       <c r="AP17" s="30"/>
@@ -8804,52 +8720,49 @@
       <c r="AS17" s="30"/>
       <c r="AT17" s="30"/>
       <c r="AU17" s="30"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
     </row>
-    <row r="18" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="102"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="78"/>
       <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="186"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="186"/>
+      <c r="AB18" s="186"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="186"/>
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
-      <c r="AJ18" s="186"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
@@ -8858,148 +8771,120 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
         <v>9</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="189"/>
-      <c r="L19" s="106" t="s">
+      <c r="H19" s="189"/>
+      <c r="I19" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="100" t="s">
+      <c r="K19" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="95" t="s">
+      <c r="L19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="186"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
+      <c r="R19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="186"/>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="186"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
+      <c r="AS19" s="193" t="s">
+        <v>78</v>
+      </c>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
     </row>
-    <row r="20" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
       <c r="O20" s="78"/>
       <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
       <c r="U20" s="186"/>
       <c r="V20" s="186"/>
       <c r="W20" s="186"/>
@@ -9013,12 +8898,12 @@
       <c r="AE20" s="186"/>
       <c r="AF20" s="186"/>
       <c r="AG20" s="186"/>
-      <c r="AH20" s="186"/>
-      <c r="AI20" s="186"/>
-      <c r="AJ20" s="186"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
       <c r="AO20" s="30"/>
       <c r="AP20" s="30"/>
@@ -9027,338 +8912,281 @@
       <c r="AS20" s="30"/>
       <c r="AT20" s="30"/>
       <c r="AU20" s="30"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="30">
         <v>10</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="106" t="s">
+      <c r="H21" s="42"/>
+      <c r="I21" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="98" t="s">
+      <c r="J21" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" s="83" t="s">
+      <c r="L21" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="U21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="187"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="194">
+      <c r="R21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="187"/>
+      <c r="Y21" s="187"/>
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="187"/>
+      <c r="AB21" s="187"/>
+      <c r="AC21" s="187"/>
+      <c r="AD21" s="187"/>
+      <c r="AE21" s="187"/>
+      <c r="AF21" s="187"/>
+      <c r="AG21" s="187"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="231">
         <f>8.1*5</f>
         <v>40.5</v>
       </c>
-      <c r="AO21" s="194"/>
-      <c r="AP21" s="214" t="s">
+      <c r="AL21" s="231"/>
+      <c r="AM21" s="209" t="s">
         <v>83</v>
       </c>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
       <c r="AQ21" s="30"/>
       <c r="AR21" s="30"/>
       <c r="AS21" s="30"/>
       <c r="AT21" s="30"/>
       <c r="AU21" s="30"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
     </row>
-    <row r="22" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="78"/>
       <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
       <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="186"/>
-      <c r="AH22" s="186"/>
-      <c r="AI22" s="186"/>
-      <c r="AJ22" s="187"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="187"/>
+      <c r="AB22" s="187"/>
+      <c r="AC22" s="187"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="187"/>
+      <c r="AF22" s="187"/>
+      <c r="AG22" s="187"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="30"/>
+      <c r="AM22" s="209"/>
       <c r="AN22" s="30"/>
-      <c r="AP22" s="214"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
       <c r="AQ22" s="30"/>
       <c r="AR22" s="30"/>
       <c r="AS22" s="30"/>
       <c r="AT22" s="30"/>
       <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="30">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>0</v>
+      <c r="H23" s="190"/>
+      <c r="I23" s="108" t="s">
+        <v>25</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="190"/>
-      <c r="L23" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="81" t="s">
+      <c r="K23" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15" t="s">
+      <c r="L23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="T23" s="96" t="s">
+      <c r="P23" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="U23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="187"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="194">
+      <c r="R23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="187"/>
+      <c r="AF23" s="187"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="231">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="AO23" s="194"/>
-      <c r="AP23" s="214" t="s">
+      <c r="AL23" s="231"/>
+      <c r="AM23" s="209" t="s">
         <v>84</v>
       </c>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
       <c r="AQ23" s="30"/>
       <c r="AR23" s="30"/>
       <c r="AS23" s="30"/>
       <c r="AT23" s="30"/>
       <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
     </row>
-    <row r="24" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="105"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="187"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="187"/>
+      <c r="AB24" s="187"/>
+      <c r="AC24" s="187"/>
+      <c r="AD24" s="187"/>
+      <c r="AE24" s="187"/>
+      <c r="AF24" s="187"/>
+      <c r="AG24" s="187"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
       <c r="AO24" s="30"/>
       <c r="AP24" s="30"/>
@@ -9367,108 +9195,79 @@
       <c r="AS24" s="30"/>
       <c r="AT24" s="30"/>
       <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
     </row>
-    <row r="25" spans="1:55" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>12</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="107" t="s">
+      <c r="H25" s="46"/>
+      <c r="I25" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="M25" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="99" t="s">
+      <c r="J25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="95" t="s">
+      <c r="L25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="225"/>
+      <c r="Q25" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="187"/>
+      <c r="R25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AE25" s="187"/>
+      <c r="AF25" s="187"/>
+      <c r="AG25" s="187"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
       <c r="AK25" s="13"/>
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
@@ -9483,46 +9282,43 @@
       <c r="AV25" s="13"/>
       <c r="AW25" s="13"/>
       <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
     </row>
-    <row r="26" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
       <c r="O26" s="78"/>
       <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="187"/>
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="187"/>
+      <c r="AB26" s="187"/>
+      <c r="AC26" s="187"/>
+      <c r="AD26" s="187"/>
+      <c r="AE26" s="187"/>
+      <c r="AF26" s="187"/>
+      <c r="AG26" s="187"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
-      <c r="AJ26" s="187"/>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="13"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="13"/>
@@ -9537,19 +9333,22 @@
       <c r="AV26" s="13"/>
       <c r="AW26" s="13"/>
       <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="13"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="30">
         <v>13</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G27" s="14" t="s">
         <v>0</v>
       </c>
@@ -9562,80 +9361,48 @@
       <c r="J27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="91" t="s">
+      <c r="K27" s="91" t="s">
         <v>7</v>
       </c>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="O27" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" s="79"/>
-      <c r="T27" s="95" t="s">
+      <c r="P27" s="79"/>
+      <c r="Q27" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="186"/>
+      <c r="R27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="227" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" s="14"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="186"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
       <c r="AM27" s="6"/>
@@ -9650,31 +9417,28 @@
       <c r="AV27" s="6"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
-      <c r="BA27" s="6"/>
-      <c r="BC27" s="4"/>
+      <c r="AZ27" s="4"/>
     </row>
-    <row r="28" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
       <c r="O28" s="78"/>
       <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
       <c r="X28" s="186"/>
       <c r="Y28" s="186"/>
       <c r="Z28" s="186"/>
@@ -9685,9 +9449,9 @@
       <c r="AE28" s="186"/>
       <c r="AF28" s="186"/>
       <c r="AG28" s="186"/>
-      <c r="AH28" s="186"/>
-      <c r="AI28" s="186"/>
-      <c r="AJ28" s="186"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
@@ -9702,106 +9466,77 @@
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BC28" s="4"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>14</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="92" t="s">
+      <c r="H29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="79"/>
-      <c r="T29" s="83" t="s">
+      <c r="L29" s="82"/>
+      <c r="M29" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="186"/>
+      <c r="R29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="58"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="186"/>
+      <c r="AC29" s="186"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="186"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="186"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
@@ -9816,31 +9551,28 @@
       <c r="AV29" s="5"/>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
     </row>
-    <row r="30" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="78"/>
       <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="186"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="94"/>
       <c r="V30" s="186"/>
       <c r="W30" s="186"/>
       <c r="X30" s="186"/>
@@ -9853,9 +9585,9 @@
       <c r="AE30" s="186"/>
       <c r="AF30" s="186"/>
       <c r="AG30" s="186"/>
-      <c r="AH30" s="186"/>
-      <c r="AI30" s="186"/>
-      <c r="AJ30" s="186"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
@@ -9870,23 +9602,26 @@
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
-      <c r="AY30" s="4"/>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
     </row>
-    <row r="31" spans="1:55" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>15</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="s">
+      <c r="D31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="23" t="s">
@@ -9895,78 +9630,48 @@
       <c r="J31" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="213" t="s">
+      <c r="K31" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="80"/>
-      <c r="T31" s="97" t="s">
+      <c r="L31" s="223"/>
+      <c r="M31" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="223"/>
+      <c r="Q31" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="U31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="186"/>
+      <c r="R31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="47"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="186"/>
+      <c r="AB31" s="186"/>
+      <c r="AC31" s="186"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="186"/>
+      <c r="AF31" s="186"/>
+      <c r="AG31" s="186"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
@@ -9981,17 +9686,25 @@
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
     </row>
-    <row r="32" spans="1:55" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="M32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="V32" s="219"/>
+      <c r="W32" s="219"/>
+      <c r="X32" s="219"/>
+      <c r="Y32" s="219"/>
+      <c r="Z32" s="219"/>
+      <c r="AA32" s="219"/>
+      <c r="AB32" s="219"/>
+      <c r="AC32" s="219"/>
+      <c r="AD32" s="219"/>
+      <c r="AE32" s="219"/>
+      <c r="AF32" s="219"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
       <c r="AK32" s="10"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="10"/>
@@ -10006,107 +9719,81 @@
       <c r="AV32" s="10"/>
       <c r="AW32" s="10"/>
       <c r="AX32" s="10"/>
-      <c r="AY32" s="10"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="10"/>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A33" s="30">
         <v>16</v>
       </c>
       <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="C33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" s="14" t="s">
+      <c r="H33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="26" t="s">
         <v>0</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="14" t="s">
+      <c r="M33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="26" t="s">
         <v>0</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="T33" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="U33" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="V33" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="W33" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="188"/>
+      <c r="Q33" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V33" s="188"/>
+      <c r="W33" s="188"/>
+      <c r="X33" s="188"/>
+      <c r="Y33" s="188"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="188"/>
+      <c r="AB33" s="188"/>
+      <c r="AC33" s="188"/>
+      <c r="AD33" s="188"/>
+      <c r="AE33" s="188"/>
+      <c r="AF33" s="188"/>
+      <c r="AG33" s="188"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
@@ -10121,11 +9808,8 @@
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
     </row>
-    <row r="34" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:50" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -10145,22 +9829,21 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
       <c r="V34" s="27"/>
       <c r="W34" s="27"/>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="27"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
@@ -10175,26 +9858,29 @@
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
-      <c r="AY34" s="4"/>
-      <c r="AZ34" s="4"/>
-      <c r="BA34" s="4"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A35" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="C35" s="197" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J35" s="26" t="s">
@@ -10230,52 +9916,21 @@
       <c r="T35" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="U35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="V35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="W35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="188"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="188"/>
+      <c r="AA35" s="188"/>
+      <c r="AB35" s="188"/>
+      <c r="AC35" s="188"/>
+      <c r="AD35" s="188"/>
+      <c r="AE35" s="188"/>
+      <c r="AF35" s="188"/>
+      <c r="AG35" s="188"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
@@ -10290,11 +9945,12 @@
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
     </row>
-    <row r="36" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:50" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -10309,19 +9965,18 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -10339,26 +9994,34 @@
       <c r="AV36" s="13"/>
       <c r="AW36" s="13"/>
       <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
-      <c r="AZ36" s="13"/>
-      <c r="BA36" s="13"/>
     </row>
-    <row r="37" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:50" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
-        <v>19</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="G37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="228" t="s">
+        <v>85</v>
       </c>
       <c r="K37" s="26" t="s">
         <v>0</v>
@@ -10369,8 +10032,8 @@
       <c r="M37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="26" t="s">
-        <v>0</v>
+      <c r="N37" s="228" t="s">
+        <v>18</v>
       </c>
       <c r="O37" s="26" t="s">
         <v>0</v>
@@ -10378,64 +10041,33 @@
       <c r="P37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q37" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="26" t="s">
+      <c r="Q37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="197" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="14" t="s">
         <v>0</v>
       </c>
       <c r="T37" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="188"/>
+      <c r="V37" s="188"/>
+      <c r="W37" s="188"/>
+      <c r="X37" s="188"/>
+      <c r="Y37" s="188"/>
+      <c r="Z37" s="188"/>
+      <c r="AA37" s="188"/>
+      <c r="AB37" s="188"/>
+      <c r="AC37" s="188"/>
+      <c r="AD37" s="188"/>
+      <c r="AE37" s="188"/>
+      <c r="AF37" s="188"/>
+      <c r="AG37" s="188"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
       <c r="AM37" s="13"/>
@@ -10450,17 +10082,16 @@
       <c r="AV37" s="13"/>
       <c r="AW37" s="13"/>
       <c r="AX37" s="13"/>
-      <c r="AY37" s="13"/>
-      <c r="AZ37" s="13"/>
-      <c r="BA37" s="13"/>
     </row>
-    <row r="38" spans="1:53" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
+    <row r="38" spans="1:50" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
@@ -10470,7 +10101,6 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
       <c r="V38" s="36"/>
       <c r="W38" s="36"/>
       <c r="X38" s="36"/>
@@ -10483,9 +10113,9 @@
       <c r="AE38" s="36"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
       <c r="AK38" s="13"/>
       <c r="AL38" s="13"/>
       <c r="AM38" s="13"/>
@@ -10500,102 +10130,80 @@
       <c r="AV38" s="13"/>
       <c r="AW38" s="13"/>
       <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="13"/>
     </row>
-    <row r="39" spans="1:53" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
-        <v>20</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="216" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="26" t="s">
         <v>0</v>
       </c>
       <c r="L39" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M39" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="26" t="s">
+      <c r="M39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="180" t="s">
         <v>0</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="P39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="14" t="s">
+      <c r="P39" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="26" t="s">
         <v>0</v>
       </c>
       <c r="T39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="188"/>
+      <c r="V39" s="188"/>
+      <c r="W39" s="188"/>
+      <c r="X39" s="188"/>
+      <c r="Y39" s="188"/>
+      <c r="Z39" s="188"/>
+      <c r="AA39" s="188"/>
+      <c r="AB39" s="188"/>
+      <c r="AC39" s="188"/>
+      <c r="AD39" s="188"/>
+      <c r="AE39" s="188"/>
+      <c r="AF39" s="188"/>
+      <c r="AG39" s="188"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
       <c r="AK39" s="13"/>
       <c r="AL39" s="13"/>
       <c r="AM39" s="13"/>
@@ -10610,25 +10218,26 @@
       <c r="AV39" s="13"/>
       <c r="AW39" s="13"/>
       <c r="AX39" s="13"/>
-      <c r="AY39" s="13"/>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="13"/>
     </row>
-    <row r="40" spans="1:53" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
+    <row r="40" spans="1:50" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="44"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="152"/>
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
       <c r="V40" s="36"/>
       <c r="W40" s="36"/>
       <c r="X40" s="36"/>
@@ -10641,9 +10250,9 @@
       <c r="AE40" s="36"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
       <c r="AK40" s="13"/>
       <c r="AL40" s="13"/>
       <c r="AM40" s="13"/>
@@ -10658,36 +10267,45 @@
       <c r="AV40" s="13"/>
       <c r="AW40" s="13"/>
       <c r="AX40" s="13"/>
-      <c r="AY40" s="13"/>
-      <c r="AZ40" s="13"/>
-      <c r="BA40" s="13"/>
     </row>
-    <row r="41" spans="1:53" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
-        <v>21</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="222" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="176" t="s">
         <v>0</v>
       </c>
       <c r="K41" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L41" s="26" t="s">
+      <c r="L41" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="180" t="s">
+      <c r="N41" s="176" t="s">
         <v>0</v>
       </c>
       <c r="O41" s="26" t="s">
@@ -10699,7 +10317,7 @@
       <c r="Q41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="R41" s="180" t="s">
+      <c r="R41" s="176" t="s">
         <v>0</v>
       </c>
       <c r="S41" s="26" t="s">
@@ -10708,210 +10326,153 @@
       <c r="T41" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="U41" s="15" t="s">
+      <c r="V41" s="218"/>
+      <c r="W41" s="218"/>
+      <c r="X41" s="218"/>
+      <c r="Y41" s="218"/>
+      <c r="Z41" s="218"/>
+      <c r="AA41" s="218"/>
+      <c r="AB41" s="218"/>
+      <c r="AC41" s="218"/>
+      <c r="AD41" s="218"/>
+      <c r="AE41" s="218"/>
+      <c r="AF41" s="218"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="30"/>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+    </row>
+    <row r="42" spans="1:50" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="34"/>
+      <c r="D42" s="214"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="V42" s="218"/>
+      <c r="W42" s="218"/>
+      <c r="X42" s="218"/>
+      <c r="Y42" s="218"/>
+      <c r="Z42" s="218"/>
+      <c r="AA42" s="218"/>
+      <c r="AB42" s="218"/>
+      <c r="AC42" s="218"/>
+      <c r="AD42" s="218"/>
+      <c r="AE42" s="218"/>
+      <c r="AF42" s="218"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="30"/>
+    </row>
+    <row r="43" spans="1:50" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="30">
+        <v>21</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="V41" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="W41" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="188"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-      <c r="AM41" s="13"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="13"/>
-      <c r="AP41" s="13"/>
-      <c r="AQ41" s="13"/>
-      <c r="AR41" s="13"/>
-      <c r="AS41" s="13"/>
-      <c r="AT41" s="13"/>
-      <c r="AU41" s="13"/>
-      <c r="AV41" s="13"/>
-      <c r="AW41" s="13"/>
-      <c r="AX41" s="13"/>
-      <c r="AY41" s="13"/>
-      <c r="AZ41" s="13"/>
-      <c r="BA41" s="13"/>
-    </row>
-    <row r="42" spans="1:53" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G42" s="44"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="152"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="152"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="152"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="13"/>
-      <c r="AP42" s="13"/>
-      <c r="AQ42" s="13"/>
-      <c r="AR42" s="13"/>
-      <c r="AS42" s="13"/>
-      <c r="AT42" s="13"/>
-      <c r="AU42" s="13"/>
-      <c r="AV42" s="13"/>
-      <c r="AW42" s="13"/>
-      <c r="AX42" s="13"/>
-      <c r="AY42" s="13"/>
-      <c r="AZ42" s="13"/>
-      <c r="BA42" s="13"/>
-    </row>
-    <row r="43" spans="1:53" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
-        <v>22</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="222" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N43" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R43" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="26" t="s">
+      <c r="J43" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="14" t="s">
         <v>0</v>
       </c>
       <c r="T43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V43" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="V43" s="218"/>
+      <c r="W43" s="218"/>
+      <c r="X43" s="218"/>
+      <c r="Y43" s="218"/>
+      <c r="Z43" s="218"/>
+      <c r="AA43" s="218"/>
+      <c r="AB43" s="218"/>
+      <c r="AC43" s="218"/>
+      <c r="AD43" s="218"/>
+      <c r="AE43" s="218"/>
+      <c r="AF43" s="218"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
       <c r="AJ43" s="30"/>
       <c r="AK43" s="30"/>
       <c r="AL43" s="30"/>
@@ -10927,33 +10488,39 @@
       <c r="AV43" s="30"/>
       <c r="AW43" s="30"/>
       <c r="AX43" s="30"/>
-      <c r="AY43" s="30"/>
-      <c r="AZ43" s="30"/>
-      <c r="BA43" s="30"/>
     </row>
-    <row r="44" spans="1:53" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="34"/>
-      <c r="H44" s="220"/>
+    <row r="44" spans="1:50" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="30"/>
       <c r="M44" s="30"/>
-      <c r="N44" s="152"/>
+      <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
-      <c r="R44" s="152"/>
+      <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
-      <c r="V44" s="152"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
+      <c r="V44" s="218"/>
+      <c r="W44" s="218"/>
+      <c r="X44" s="218"/>
+      <c r="Y44" s="218"/>
+      <c r="Z44" s="218"/>
+      <c r="AA44" s="218"/>
+      <c r="AB44" s="218"/>
+      <c r="AC44" s="218"/>
+      <c r="AD44" s="218"/>
+      <c r="AE44" s="218"/>
+      <c r="AF44" s="218"/>
       <c r="AG44" s="30"/>
       <c r="AH44" s="30"/>
       <c r="AI44" s="30"/>
@@ -10972,104 +10539,34 @@
       <c r="AV44" s="30"/>
       <c r="AW44" s="30"/>
       <c r="AX44" s="30"/>
-      <c r="AY44" s="30"/>
-      <c r="AZ44" s="30"/>
-      <c r="BA44" s="30"/>
     </row>
-    <row r="45" spans="1:53" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
-        <v>23</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="222" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N45" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="T45" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="U45" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="V45" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="W45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="14" t="s">
-        <v>0</v>
-      </c>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="210"/>
+      <c r="P45" s="210"/>
+      <c r="Q45" s="210"/>
+      <c r="R45" s="210"/>
+      <c r="S45" s="210"/>
+      <c r="T45" s="210"/>
+      <c r="U45" s="210"/>
+      <c r="V45" s="210"/>
+      <c r="W45" s="210"/>
+      <c r="X45" s="210"/>
+      <c r="Y45" s="210"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
       <c r="AJ45" s="30"/>
       <c r="AK45" s="30"/>
       <c r="AL45" s="30"/>
@@ -11085,36 +10582,27 @@
       <c r="AV45" s="30"/>
       <c r="AW45" s="30"/>
       <c r="AX45" s="30"/>
-      <c r="AY45" s="30"/>
-      <c r="AZ45" s="30"/>
-      <c r="BA45" s="30"/>
     </row>
-    <row r="46" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="215"/>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="210"/>
+      <c r="O46" s="210"/>
+      <c r="P46" s="210"/>
+      <c r="Q46" s="210"/>
+      <c r="R46" s="210"/>
+      <c r="S46" s="210"/>
+      <c r="T46" s="210"/>
+      <c r="U46" s="210"/>
+      <c r="V46" s="210"/>
+      <c r="W46" s="210"/>
+      <c r="X46" s="210"/>
+      <c r="Y46" s="210"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
       <c r="AC46" s="30"/>
       <c r="AD46" s="30"/>
       <c r="AE46" s="30"/>
@@ -11137,1302 +10625,154 @@
       <c r="AV46" s="30"/>
       <c r="AW46" s="30"/>
       <c r="AX46" s="30"/>
-      <c r="AY46" s="30"/>
-      <c r="AZ46" s="30"/>
-      <c r="BA46" s="30"/>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A47" s="30">
-        <v>24</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="202" t="s">
-        <v>85</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="202" t="s">
-        <v>18</v>
-      </c>
-      <c r="S47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V47" s="202" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30"/>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30"/>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="N47" s="210"/>
+      <c r="O47" s="210"/>
+      <c r="P47" s="210"/>
+      <c r="Q47" s="210"/>
+      <c r="R47" s="210"/>
+      <c r="S47" s="210"/>
+      <c r="T47" s="210"/>
+      <c r="U47" s="210"/>
+      <c r="V47" s="210"/>
+      <c r="W47" s="210"/>
+      <c r="X47" s="210"/>
+      <c r="Y47" s="210"/>
     </row>
-    <row r="48" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="215"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="N48" s="210"/>
+      <c r="O48" s="210"/>
+      <c r="P48" s="210"/>
+      <c r="Q48" s="210"/>
+      <c r="R48" s="210"/>
+      <c r="S48" s="210"/>
+      <c r="T48" s="210"/>
+      <c r="U48" s="210"/>
+      <c r="V48" s="210"/>
+      <c r="W48" s="210"/>
+      <c r="X48" s="210"/>
+      <c r="Y48" s="210"/>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A49" s="30">
-        <v>25</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
+    <row r="49" spans="14:25" x14ac:dyDescent="0.15">
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="210"/>
+      <c r="R49" s="210"/>
+      <c r="S49" s="210"/>
+      <c r="T49" s="210"/>
+      <c r="U49" s="210"/>
+      <c r="V49" s="210"/>
+      <c r="W49" s="210"/>
+      <c r="X49" s="210"/>
+      <c r="Y49" s="210"/>
     </row>
-    <row r="50" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
-      <c r="AF50" s="36"/>
-      <c r="AG50" s="36"/>
-      <c r="AH50" s="36"/>
-      <c r="AI50" s="36"/>
-      <c r="AJ50" s="30"/>
-      <c r="AK50" s="30"/>
-      <c r="AL50" s="30"/>
-      <c r="AM50" s="30"/>
-      <c r="AN50" s="30"/>
-      <c r="AO50" s="30"/>
-      <c r="AP50" s="30"/>
-      <c r="AQ50" s="30"/>
-      <c r="AR50" s="30"/>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="30"/>
-      <c r="AU50" s="30"/>
-      <c r="AV50" s="30"/>
-      <c r="AW50" s="30"/>
-      <c r="AX50" s="30"/>
-      <c r="AY50" s="30"/>
-      <c r="AZ50" s="30"/>
-      <c r="BA50" s="30"/>
+    <row r="50" spans="14:25" x14ac:dyDescent="0.15">
+      <c r="N50" s="210"/>
+      <c r="O50" s="210"/>
+      <c r="P50" s="210"/>
+      <c r="Q50" s="210"/>
+      <c r="R50" s="210"/>
+      <c r="S50" s="210"/>
+      <c r="T50" s="210"/>
+      <c r="U50" s="210"/>
+      <c r="V50" s="210"/>
+      <c r="W50" s="210"/>
+      <c r="X50" s="210"/>
+      <c r="Y50" s="210"/>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A51" s="30">
-        <v>26</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30"/>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30"/>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="30"/>
-      <c r="AU51" s="30"/>
-      <c r="AV51" s="30"/>
-      <c r="AW51" s="30"/>
-      <c r="AX51" s="30"/>
-      <c r="AY51" s="30"/>
-      <c r="AZ51" s="30"/>
-      <c r="BA51" s="30"/>
+    <row r="51" spans="14:25" x14ac:dyDescent="0.15">
+      <c r="N51" s="210"/>
+      <c r="O51" s="210"/>
+      <c r="P51" s="210"/>
+      <c r="Q51" s="210"/>
+      <c r="R51" s="210"/>
+      <c r="S51" s="210"/>
+      <c r="T51" s="210"/>
+      <c r="U51" s="210"/>
+      <c r="V51" s="210"/>
+      <c r="W51" s="210"/>
+      <c r="X51" s="210"/>
+      <c r="Y51" s="210"/>
     </row>
-    <row r="52" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="30"/>
-      <c r="AE52" s="30"/>
-      <c r="AF52" s="30"/>
-      <c r="AG52" s="30"/>
-      <c r="AH52" s="30"/>
-      <c r="AI52" s="30"/>
-      <c r="AJ52" s="30"/>
-      <c r="AK52" s="30"/>
-      <c r="AL52" s="30"/>
-      <c r="AM52" s="30"/>
-      <c r="AN52" s="30"/>
-      <c r="AO52" s="30"/>
-      <c r="AP52" s="30"/>
-      <c r="AQ52" s="30"/>
-      <c r="AR52" s="30"/>
-      <c r="AS52" s="30"/>
-      <c r="AT52" s="30"/>
-      <c r="AU52" s="30"/>
-      <c r="AV52" s="30"/>
-      <c r="AW52" s="30"/>
-      <c r="AX52" s="30"/>
-      <c r="AY52" s="30"/>
-      <c r="AZ52" s="30"/>
-      <c r="BA52" s="30"/>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A53" s="30">
-        <v>27</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="30"/>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="30"/>
-      <c r="AQ53" s="30"/>
-      <c r="AR53" s="30"/>
-      <c r="AS53" s="30"/>
-      <c r="AT53" s="30"/>
-      <c r="AU53" s="30"/>
-      <c r="AV53" s="30"/>
-      <c r="AW53" s="30"/>
-      <c r="AX53" s="30"/>
-      <c r="AY53" s="30"/>
-      <c r="AZ53" s="30"/>
-      <c r="BA53" s="30"/>
-    </row>
-    <row r="54" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="215"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AG54" s="30"/>
-      <c r="AH54" s="30"/>
-      <c r="AI54" s="30"/>
-      <c r="AJ54" s="30"/>
-      <c r="AK54" s="30"/>
-      <c r="AL54" s="30"/>
-      <c r="AM54" s="30"/>
-      <c r="AN54" s="30"/>
-      <c r="AO54" s="30"/>
-      <c r="AP54" s="30"/>
-      <c r="AQ54" s="30"/>
-      <c r="AR54" s="30"/>
-      <c r="AS54" s="30"/>
-      <c r="AT54" s="30"/>
-      <c r="AU54" s="30"/>
-      <c r="AV54" s="30"/>
-      <c r="AW54" s="30"/>
-      <c r="AX54" s="30"/>
-      <c r="AY54" s="30"/>
-      <c r="AZ54" s="30"/>
-      <c r="BA54" s="30"/>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A55" s="30">
-        <v>28</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
-      <c r="AR55" s="30"/>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-      <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
-      <c r="AZ55" s="30"/>
-      <c r="BA55" s="30"/>
-    </row>
-    <row r="56" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="215"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="30"/>
-      <c r="AK56" s="30"/>
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30"/>
-      <c r="AS56" s="30"/>
-      <c r="AT56" s="30"/>
-      <c r="AU56" s="30"/>
-      <c r="AV56" s="30"/>
-      <c r="AW56" s="30"/>
-      <c r="AX56" s="30"/>
-      <c r="AY56" s="30"/>
-      <c r="AZ56" s="30"/>
-      <c r="BA56" s="30"/>
-    </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A57" s="30">
-        <v>29</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30"/>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="30"/>
-      <c r="AU57" s="30"/>
-      <c r="AV57" s="30"/>
-      <c r="AW57" s="30"/>
-      <c r="AX57" s="30"/>
-      <c r="AY57" s="30"/>
-      <c r="AZ57" s="30"/>
-      <c r="BA57" s="30"/>
-    </row>
-    <row r="58" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="215"/>
-      <c r="R58" s="215"/>
-      <c r="S58" s="215"/>
-      <c r="T58" s="215"/>
-      <c r="U58" s="215"/>
-      <c r="V58" s="215"/>
-      <c r="W58" s="215"/>
-      <c r="X58" s="215"/>
-      <c r="Y58" s="215"/>
-      <c r="Z58" s="215"/>
-      <c r="AA58" s="215"/>
-      <c r="AB58" s="215"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="30"/>
-      <c r="AI58" s="30"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="30"/>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="30"/>
-      <c r="AT58" s="30"/>
-      <c r="AU58" s="30"/>
-      <c r="AV58" s="30"/>
-      <c r="AW58" s="30"/>
-      <c r="AX58" s="30"/>
-      <c r="AY58" s="30"/>
-      <c r="AZ58" s="30"/>
-      <c r="BA58" s="30"/>
-    </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A59" s="30">
-        <v>30</v>
-      </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="215"/>
-      <c r="R59" s="215"/>
-      <c r="S59" s="215"/>
-      <c r="T59" s="215"/>
-      <c r="U59" s="215"/>
-      <c r="V59" s="215"/>
-      <c r="W59" s="215"/>
-      <c r="X59" s="215"/>
-      <c r="Y59" s="215"/>
-      <c r="Z59" s="215"/>
-      <c r="AA59" s="215"/>
-      <c r="AB59" s="215"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
-      <c r="AE59" s="30"/>
-      <c r="AF59" s="30"/>
-      <c r="AG59" s="30"/>
-      <c r="AH59" s="30"/>
-      <c r="AI59" s="30"/>
-      <c r="AJ59" s="30"/>
-      <c r="AK59" s="30"/>
-      <c r="AL59" s="30"/>
-      <c r="AM59" s="30"/>
-      <c r="AN59" s="30"/>
-      <c r="AO59" s="30"/>
-      <c r="AP59" s="30"/>
-      <c r="AQ59" s="30"/>
-      <c r="AR59" s="30"/>
-      <c r="AS59" s="30"/>
-      <c r="AT59" s="30"/>
-      <c r="AU59" s="30"/>
-      <c r="AV59" s="30"/>
-      <c r="AW59" s="30"/>
-      <c r="AX59" s="30"/>
-      <c r="AY59" s="30"/>
-      <c r="AZ59" s="30"/>
-      <c r="BA59" s="30"/>
-    </row>
-    <row r="60" spans="1:53" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="215"/>
-      <c r="R60" s="215"/>
-      <c r="S60" s="215"/>
-      <c r="T60" s="215"/>
-      <c r="U60" s="215"/>
-      <c r="V60" s="215"/>
-      <c r="W60" s="215"/>
-      <c r="X60" s="215"/>
-      <c r="Y60" s="215"/>
-      <c r="Z60" s="215"/>
-      <c r="AA60" s="215"/>
-      <c r="AB60" s="215"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="30"/>
-      <c r="AE60" s="30"/>
-      <c r="AF60" s="30"/>
-      <c r="AG60" s="30"/>
-      <c r="AH60" s="30"/>
-      <c r="AI60" s="30"/>
-      <c r="AJ60" s="30"/>
-      <c r="AK60" s="30"/>
-      <c r="AL60" s="30"/>
-      <c r="AM60" s="30"/>
-      <c r="AN60" s="30"/>
-      <c r="AO60" s="30"/>
-      <c r="AP60" s="30"/>
-      <c r="AQ60" s="30"/>
-      <c r="AR60" s="30"/>
-      <c r="AS60" s="30"/>
-      <c r="AT60" s="30"/>
-      <c r="AU60" s="30"/>
-      <c r="AV60" s="30"/>
-      <c r="AW60" s="30"/>
-      <c r="AX60" s="30"/>
-      <c r="AY60" s="30"/>
-      <c r="AZ60" s="30"/>
-      <c r="BA60" s="30"/>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="215"/>
-      <c r="R61" s="215"/>
-      <c r="S61" s="215"/>
-      <c r="T61" s="215"/>
-      <c r="U61" s="215"/>
-      <c r="V61" s="215"/>
-      <c r="W61" s="215"/>
-      <c r="X61" s="215"/>
-      <c r="Y61" s="215"/>
-      <c r="Z61" s="215"/>
-      <c r="AA61" s="215"/>
-      <c r="AB61" s="215"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
-      <c r="AE61" s="30"/>
-      <c r="AF61" s="30"/>
-      <c r="AG61" s="30"/>
-      <c r="AH61" s="30"/>
-      <c r="AI61" s="30"/>
-      <c r="AJ61" s="30"/>
-      <c r="AK61" s="30"/>
-      <c r="AL61" s="30"/>
-      <c r="AM61" s="30"/>
-      <c r="AN61" s="30"/>
-      <c r="AO61" s="30"/>
-      <c r="AP61" s="30"/>
-      <c r="AQ61" s="30"/>
-      <c r="AR61" s="30"/>
-      <c r="AS61" s="30"/>
-      <c r="AT61" s="30"/>
-      <c r="AU61" s="30"/>
-      <c r="AV61" s="30"/>
-      <c r="AW61" s="30"/>
-      <c r="AX61" s="30"/>
-      <c r="AY61" s="30"/>
-      <c r="AZ61" s="30"/>
-      <c r="BA61" s="30"/>
-    </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="215"/>
-      <c r="R62" s="215"/>
-      <c r="S62" s="215"/>
-      <c r="T62" s="215"/>
-      <c r="U62" s="215"/>
-      <c r="V62" s="215"/>
-      <c r="W62" s="215"/>
-      <c r="X62" s="215"/>
-      <c r="Y62" s="215"/>
-      <c r="Z62" s="215"/>
-      <c r="AA62" s="215"/>
-      <c r="AB62" s="215"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
-      <c r="AE62" s="30"/>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="30"/>
-      <c r="AI62" s="30"/>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="30"/>
-      <c r="AM62" s="30"/>
-      <c r="AN62" s="30"/>
-      <c r="AO62" s="30"/>
-      <c r="AP62" s="30"/>
-      <c r="AQ62" s="30"/>
-      <c r="AR62" s="30"/>
-      <c r="AS62" s="30"/>
-      <c r="AT62" s="30"/>
-      <c r="AU62" s="30"/>
-      <c r="AV62" s="30"/>
-      <c r="AW62" s="30"/>
-      <c r="AX62" s="30"/>
-      <c r="AY62" s="30"/>
-      <c r="AZ62" s="30"/>
-      <c r="BA62" s="30"/>
-    </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="Q63" s="215"/>
-      <c r="R63" s="215"/>
-      <c r="S63" s="215"/>
-      <c r="T63" s="215"/>
-      <c r="U63" s="215"/>
-      <c r="V63" s="215"/>
-      <c r="W63" s="215"/>
-      <c r="X63" s="215"/>
-      <c r="Y63" s="215"/>
-      <c r="Z63" s="215"/>
-      <c r="AA63" s="215"/>
-      <c r="AB63" s="215"/>
-    </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="Q64" s="215"/>
-      <c r="R64" s="215"/>
-      <c r="S64" s="215"/>
-      <c r="T64" s="215"/>
-      <c r="U64" s="215"/>
-      <c r="V64" s="215"/>
-      <c r="W64" s="215"/>
-      <c r="X64" s="215"/>
-      <c r="Y64" s="215"/>
-      <c r="Z64" s="215"/>
-      <c r="AA64" s="215"/>
-      <c r="AB64" s="215"/>
-    </row>
-    <row r="65" spans="17:28" x14ac:dyDescent="0.15">
-      <c r="Q65" s="215"/>
-      <c r="R65" s="215"/>
-      <c r="S65" s="215"/>
-      <c r="T65" s="215"/>
-      <c r="U65" s="215"/>
-      <c r="V65" s="215"/>
-      <c r="W65" s="215"/>
-      <c r="X65" s="215"/>
-      <c r="Y65" s="215"/>
-      <c r="Z65" s="215"/>
-      <c r="AA65" s="215"/>
-      <c r="AB65" s="215"/>
-    </row>
-    <row r="66" spans="17:28" x14ac:dyDescent="0.15">
-      <c r="Q66" s="215"/>
-      <c r="R66" s="215"/>
-      <c r="S66" s="215"/>
-      <c r="T66" s="215"/>
-      <c r="U66" s="215"/>
-      <c r="V66" s="215"/>
-      <c r="W66" s="215"/>
-      <c r="X66" s="215"/>
-      <c r="Y66" s="215"/>
-      <c r="Z66" s="215"/>
-      <c r="AA66" s="215"/>
-      <c r="AB66" s="215"/>
-    </row>
-    <row r="67" spans="17:28" x14ac:dyDescent="0.15">
-      <c r="Q67" s="215"/>
-      <c r="R67" s="215"/>
-      <c r="S67" s="215"/>
-      <c r="T67" s="215"/>
-      <c r="U67" s="215"/>
-      <c r="V67" s="215"/>
-      <c r="W67" s="215"/>
-      <c r="X67" s="215"/>
-      <c r="Y67" s="215"/>
-      <c r="Z67" s="215"/>
-      <c r="AA67" s="215"/>
-      <c r="AB67" s="215"/>
-    </row>
-    <row r="68" spans="17:28" x14ac:dyDescent="0.15">
-      <c r="Q68" s="215"/>
-      <c r="R68" s="215"/>
-      <c r="S68" s="215"/>
-      <c r="T68" s="215"/>
-      <c r="U68" s="215"/>
-      <c r="V68" s="215"/>
-      <c r="W68" s="215"/>
-      <c r="X68" s="215"/>
-      <c r="Y68" s="215"/>
-      <c r="Z68" s="215"/>
-      <c r="AA68" s="215"/>
-      <c r="AB68" s="215"/>
+    <row r="52" spans="14:25" x14ac:dyDescent="0.15">
+      <c r="N52" s="210"/>
+      <c r="O52" s="210"/>
+      <c r="P52" s="210"/>
+      <c r="Q52" s="210"/>
+      <c r="R52" s="210"/>
+      <c r="S52" s="210"/>
+      <c r="T52" s="210"/>
+      <c r="U52" s="210"/>
+      <c r="V52" s="210"/>
+      <c r="W52" s="210"/>
+      <c r="X52" s="210"/>
+      <c r="Y52" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AN3:AX14"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AK3:AU14"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK23:AL23"/>
   </mergeCells>
-  <conditionalFormatting sqref="N41:N45">
-    <cfRule type="cellIs" dxfId="413" priority="9" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42:N45">
-    <cfRule type="cellIs" dxfId="412" priority="12" operator="equal">
+  <conditionalFormatting sqref="J39:J43">
+    <cfRule type="cellIs" dxfId="412" priority="9" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:J43">
+    <cfRule type="cellIs" dxfId="411" priority="12" operator="equal">
       <formula>"o"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="411" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="410" priority="10" operator="equal">
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="410" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="409" priority="10" operator="equal">
       <formula>"o"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:R45">
-    <cfRule type="cellIs" dxfId="409" priority="5" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42:R45">
-    <cfRule type="cellIs" dxfId="408" priority="8" operator="equal">
+  <conditionalFormatting sqref="N39:N43">
+    <cfRule type="cellIs" dxfId="408" priority="5" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40:N43">
+    <cfRule type="cellIs" dxfId="407" priority="8" operator="equal">
       <formula>"o"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41">
-    <cfRule type="cellIs" dxfId="407" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R41">
-    <cfRule type="cellIs" dxfId="406" priority="6" operator="equal">
+  <conditionalFormatting sqref="N39">
+    <cfRule type="cellIs" dxfId="406" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="cellIs" dxfId="405" priority="6" operator="equal">
       <formula>"o"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41:V45">
-    <cfRule type="cellIs" dxfId="405" priority="1" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V42:V45">
-    <cfRule type="cellIs" dxfId="404" priority="4" operator="equal">
+  <conditionalFormatting sqref="R39:R43">
+    <cfRule type="cellIs" dxfId="404" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40:R43">
+    <cfRule type="cellIs" dxfId="403" priority="4" operator="equal">
       <formula>"o"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41">
-    <cfRule type="cellIs" dxfId="403" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V41">
-    <cfRule type="cellIs" dxfId="402" priority="2" operator="equal">
+  <conditionalFormatting sqref="R39">
+    <cfRule type="cellIs" dxfId="402" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R39">
+    <cfRule type="cellIs" dxfId="401" priority="2" operator="equal">
       <formula>"o"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13545,13 +11885,13 @@
       <c r="X13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="200" t="s">
+      <c r="Y13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="Z13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA13" s="202" t="s">
+      <c r="AA13" s="197" t="s">
         <v>80</v>
       </c>
       <c r="AB13" s="14" t="s">
@@ -13680,7 +12020,7 @@
       <c r="V14" s="186"/>
       <c r="W14" s="186"/>
       <c r="X14" s="186"/>
-      <c r="Y14" s="197"/>
+      <c r="Y14" s="192"/>
       <c r="Z14" s="186"/>
       <c r="AA14" s="186"/>
       <c r="AB14" s="186"/>
@@ -13836,11 +12176,11 @@
       <c r="AT15" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="AU15" s="192" t="s">
+      <c r="AU15" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="AV15" s="192"/>
-      <c r="AW15" s="192"/>
+      <c r="AV15" s="232"/>
+      <c r="AW15" s="232"/>
       <c r="AX15" s="128" t="s">
         <v>0</v>
       </c>
@@ -13996,7 +12336,7 @@
       <c r="X17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Y17" s="201" t="s">
+      <c r="Y17" s="196" t="s">
         <v>0</v>
       </c>
       <c r="Z17" s="14" t="s">
@@ -16197,7 +14537,7 @@
       <c r="M37" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="213" t="s">
+      <c r="N37" s="208" t="s">
         <v>43</v>
       </c>
       <c r="O37" s="80"/>
@@ -16229,7 +14569,7 @@
       <c r="Y37" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Z37" s="199" t="s">
+      <c r="Z37" s="194" t="s">
         <v>77</v>
       </c>
       <c r="AA37" s="186"/>
@@ -16427,13 +14767,13 @@
       <c r="Z39" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AA39" s="209" t="s">
+      <c r="AA39" s="204" t="s">
         <v>0</v>
       </c>
       <c r="AB39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AC39" s="208" t="s">
+      <c r="AC39" s="203" t="s">
         <v>81</v>
       </c>
       <c r="AD39" s="14"/>
@@ -16546,7 +14886,7 @@
       <c r="X40" s="36"/>
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
-      <c r="AA40" s="203"/>
+      <c r="AA40" s="198"/>
       <c r="AB40" s="36"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
@@ -16651,13 +14991,13 @@
       <c r="Z41" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AA41" s="210" t="s">
+      <c r="AA41" s="205" t="s">
         <v>0</v>
       </c>
       <c r="AB41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AC41" s="205" t="s">
+      <c r="AC41" s="200" t="s">
         <v>72</v>
       </c>
       <c r="AD41" s="14"/>
@@ -16772,7 +15112,7 @@
       <c r="Z42" s="27"/>
       <c r="AA42" s="56"/>
       <c r="AB42" s="27"/>
-      <c r="AC42" s="206"/>
+      <c r="AC42" s="201"/>
       <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
       <c r="AF42" s="27"/>
@@ -16875,13 +15215,13 @@
       <c r="Z43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA43" s="210" t="s">
+      <c r="AA43" s="205" t="s">
         <v>0</v>
       </c>
       <c r="AB43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AC43" s="205" t="s">
+      <c r="AC43" s="200" t="s">
         <v>69</v>
       </c>
       <c r="AD43" s="14"/>
@@ -16988,9 +15328,9 @@
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
-      <c r="AA44" s="204"/>
+      <c r="AA44" s="199"/>
       <c r="AB44" s="13"/>
-      <c r="AC44" s="207"/>
+      <c r="AC44" s="202"/>
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
@@ -17089,13 +15429,13 @@
       <c r="Z45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA45" s="211" t="s">
+      <c r="AA45" s="206" t="s">
         <v>0</v>
       </c>
       <c r="AB45" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AC45" s="212" t="s">
+      <c r="AC45" s="207" t="s">
         <v>67</v>
       </c>
       <c r="AD45" s="26"/>
@@ -17941,20 +16281,20 @@
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="195" t="s">
+      <c r="Q54" s="233" t="s">
         <v>79</v>
       </c>
-      <c r="R54" s="196"/>
-      <c r="S54" s="196"/>
-      <c r="T54" s="196"/>
-      <c r="U54" s="196"/>
-      <c r="V54" s="196"/>
-      <c r="W54" s="196"/>
-      <c r="X54" s="196"/>
-      <c r="Y54" s="196"/>
-      <c r="Z54" s="196"/>
-      <c r="AA54" s="196"/>
-      <c r="AB54" s="196"/>
+      <c r="R54" s="234"/>
+      <c r="S54" s="234"/>
+      <c r="T54" s="234"/>
+      <c r="U54" s="234"/>
+      <c r="V54" s="234"/>
+      <c r="W54" s="234"/>
+      <c r="X54" s="234"/>
+      <c r="Y54" s="234"/>
+      <c r="Z54" s="234"/>
+      <c r="AA54" s="234"/>
+      <c r="AB54" s="234"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
@@ -17994,18 +16334,18 @@
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="196"/>
-      <c r="R55" s="196"/>
-      <c r="S55" s="196"/>
-      <c r="T55" s="196"/>
-      <c r="U55" s="196"/>
-      <c r="V55" s="196"/>
-      <c r="W55" s="196"/>
-      <c r="X55" s="196"/>
-      <c r="Y55" s="196"/>
-      <c r="Z55" s="196"/>
-      <c r="AA55" s="196"/>
-      <c r="AB55" s="196"/>
+      <c r="Q55" s="234"/>
+      <c r="R55" s="234"/>
+      <c r="S55" s="234"/>
+      <c r="T55" s="234"/>
+      <c r="U55" s="234"/>
+      <c r="V55" s="234"/>
+      <c r="W55" s="234"/>
+      <c r="X55" s="234"/>
+      <c r="Y55" s="234"/>
+      <c r="Z55" s="234"/>
+      <c r="AA55" s="234"/>
+      <c r="AB55" s="234"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
@@ -18105,18 +16445,18 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="196"/>
-      <c r="R56" s="196"/>
-      <c r="S56" s="196"/>
-      <c r="T56" s="196"/>
-      <c r="U56" s="196"/>
-      <c r="V56" s="196"/>
-      <c r="W56" s="196"/>
-      <c r="X56" s="196"/>
-      <c r="Y56" s="196"/>
-      <c r="Z56" s="196"/>
-      <c r="AA56" s="196"/>
-      <c r="AB56" s="196"/>
+      <c r="Q56" s="234"/>
+      <c r="R56" s="234"/>
+      <c r="S56" s="234"/>
+      <c r="T56" s="234"/>
+      <c r="U56" s="234"/>
+      <c r="V56" s="234"/>
+      <c r="W56" s="234"/>
+      <c r="X56" s="234"/>
+      <c r="Y56" s="234"/>
+      <c r="Z56" s="234"/>
+      <c r="AA56" s="234"/>
+      <c r="AB56" s="234"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -18165,25 +16505,25 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="198" t="s">
+      <c r="L57" s="193" t="s">
         <v>78</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="196"/>
-      <c r="R57" s="196"/>
-      <c r="S57" s="196"/>
-      <c r="T57" s="196"/>
-      <c r="U57" s="196"/>
-      <c r="V57" s="196"/>
-      <c r="W57" s="196"/>
-      <c r="X57" s="196"/>
-      <c r="Y57" s="196"/>
-      <c r="Z57" s="196"/>
-      <c r="AA57" s="196"/>
-      <c r="AB57" s="196"/>
+      <c r="Q57" s="234"/>
+      <c r="R57" s="234"/>
+      <c r="S57" s="234"/>
+      <c r="T57" s="234"/>
+      <c r="U57" s="234"/>
+      <c r="V57" s="234"/>
+      <c r="W57" s="234"/>
+      <c r="X57" s="234"/>
+      <c r="Y57" s="234"/>
+      <c r="Z57" s="234"/>
+      <c r="AA57" s="234"/>
+      <c r="AB57" s="234"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -18271,18 +16611,18 @@
       <c r="N58" s="30"/>
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="196"/>
-      <c r="S58" s="196"/>
-      <c r="T58" s="196"/>
-      <c r="U58" s="196"/>
-      <c r="V58" s="196"/>
-      <c r="W58" s="196"/>
-      <c r="X58" s="196"/>
-      <c r="Y58" s="196"/>
-      <c r="Z58" s="196"/>
-      <c r="AA58" s="196"/>
-      <c r="AB58" s="196"/>
+      <c r="Q58" s="234"/>
+      <c r="R58" s="234"/>
+      <c r="S58" s="234"/>
+      <c r="T58" s="234"/>
+      <c r="U58" s="234"/>
+      <c r="V58" s="234"/>
+      <c r="W58" s="234"/>
+      <c r="X58" s="234"/>
+      <c r="Y58" s="234"/>
+      <c r="Z58" s="234"/>
+      <c r="AA58" s="234"/>
+      <c r="AB58" s="234"/>
       <c r="AC58" s="30"/>
       <c r="AD58" s="30"/>
       <c r="AE58" s="30"/>
@@ -18322,25 +16662,25 @@
         <f>8.1*5</f>
         <v>40.5</v>
       </c>
-      <c r="E59" s="214" t="s">
+      <c r="E59" s="209" t="s">
         <v>83</v>
       </c>
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="196"/>
-      <c r="R59" s="196"/>
-      <c r="S59" s="196"/>
-      <c r="T59" s="196"/>
-      <c r="U59" s="196"/>
-      <c r="V59" s="196"/>
-      <c r="W59" s="196"/>
-      <c r="X59" s="196"/>
-      <c r="Y59" s="196"/>
-      <c r="Z59" s="196"/>
-      <c r="AA59" s="196"/>
-      <c r="AB59" s="196"/>
+      <c r="Q59" s="234"/>
+      <c r="R59" s="234"/>
+      <c r="S59" s="234"/>
+      <c r="T59" s="234"/>
+      <c r="U59" s="234"/>
+      <c r="V59" s="234"/>
+      <c r="W59" s="234"/>
+      <c r="X59" s="234"/>
+      <c r="Y59" s="234"/>
+      <c r="Z59" s="234"/>
+      <c r="AA59" s="234"/>
+      <c r="AB59" s="234"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="30"/>
       <c r="AE59" s="30"/>
@@ -18424,23 +16764,23 @@
       </c>
     </row>
     <row r="60" spans="1:61" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="214"/>
+      <c r="E60" s="209"/>
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="196"/>
-      <c r="S60" s="196"/>
-      <c r="T60" s="196"/>
-      <c r="U60" s="196"/>
-      <c r="V60" s="196"/>
-      <c r="W60" s="196"/>
-      <c r="X60" s="196"/>
-      <c r="Y60" s="196"/>
-      <c r="Z60" s="196"/>
-      <c r="AA60" s="196"/>
-      <c r="AB60" s="196"/>
+      <c r="Q60" s="234"/>
+      <c r="R60" s="234"/>
+      <c r="S60" s="234"/>
+      <c r="T60" s="234"/>
+      <c r="U60" s="234"/>
+      <c r="V60" s="234"/>
+      <c r="W60" s="234"/>
+      <c r="X60" s="234"/>
+      <c r="Y60" s="234"/>
+      <c r="Z60" s="234"/>
+      <c r="AA60" s="234"/>
+      <c r="AB60" s="234"/>
       <c r="AC60" s="30"/>
       <c r="AD60" s="30"/>
       <c r="AE60" s="30"/>
@@ -18480,25 +16820,25 @@
         <f>5.6*5</f>
         <v>28</v>
       </c>
-      <c r="E61" s="214" t="s">
+      <c r="E61" s="209" t="s">
         <v>84</v>
       </c>
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
-      <c r="Q61" s="196"/>
-      <c r="R61" s="196"/>
-      <c r="S61" s="196"/>
-      <c r="T61" s="196"/>
-      <c r="U61" s="196"/>
-      <c r="V61" s="196"/>
-      <c r="W61" s="196"/>
-      <c r="X61" s="196"/>
-      <c r="Y61" s="196"/>
-      <c r="Z61" s="196"/>
-      <c r="AA61" s="196"/>
-      <c r="AB61" s="196"/>
+      <c r="Q61" s="234"/>
+      <c r="R61" s="234"/>
+      <c r="S61" s="234"/>
+      <c r="T61" s="234"/>
+      <c r="U61" s="234"/>
+      <c r="V61" s="234"/>
+      <c r="W61" s="234"/>
+      <c r="X61" s="234"/>
+      <c r="Y61" s="234"/>
+      <c r="Z61" s="234"/>
+      <c r="AA61" s="234"/>
+      <c r="AB61" s="234"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="30"/>
       <c r="AE61" s="30"/>
@@ -18586,18 +16926,18 @@
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
       <c r="P62" s="30"/>
-      <c r="Q62" s="196"/>
-      <c r="R62" s="196"/>
-      <c r="S62" s="196"/>
-      <c r="T62" s="196"/>
-      <c r="U62" s="196"/>
-      <c r="V62" s="196"/>
-      <c r="W62" s="196"/>
-      <c r="X62" s="196"/>
-      <c r="Y62" s="196"/>
-      <c r="Z62" s="196"/>
-      <c r="AA62" s="196"/>
-      <c r="AB62" s="196"/>
+      <c r="Q62" s="234"/>
+      <c r="R62" s="234"/>
+      <c r="S62" s="234"/>
+      <c r="T62" s="234"/>
+      <c r="U62" s="234"/>
+      <c r="V62" s="234"/>
+      <c r="W62" s="234"/>
+      <c r="X62" s="234"/>
+      <c r="Y62" s="234"/>
+      <c r="Z62" s="234"/>
+      <c r="AA62" s="234"/>
+      <c r="AB62" s="234"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30"/>
@@ -18637,18 +16977,18 @@
       <c r="N63" s="30"/>
       <c r="O63" s="30"/>
       <c r="P63" s="30"/>
-      <c r="Q63" s="196"/>
-      <c r="R63" s="196"/>
-      <c r="S63" s="196"/>
-      <c r="T63" s="196"/>
-      <c r="U63" s="196"/>
-      <c r="V63" s="196"/>
-      <c r="W63" s="196"/>
-      <c r="X63" s="196"/>
-      <c r="Y63" s="196"/>
-      <c r="Z63" s="196"/>
-      <c r="AA63" s="196"/>
-      <c r="AB63" s="196"/>
+      <c r="Q63" s="234"/>
+      <c r="R63" s="234"/>
+      <c r="S63" s="234"/>
+      <c r="T63" s="234"/>
+      <c r="U63" s="234"/>
+      <c r="V63" s="234"/>
+      <c r="W63" s="234"/>
+      <c r="X63" s="234"/>
+      <c r="Y63" s="234"/>
+      <c r="Z63" s="234"/>
+      <c r="AA63" s="234"/>
+      <c r="AB63" s="234"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="30"/>
       <c r="AE63" s="30"/>
@@ -18736,18 +17076,18 @@
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
-      <c r="Q64" s="196"/>
-      <c r="R64" s="196"/>
-      <c r="S64" s="196"/>
-      <c r="T64" s="196"/>
-      <c r="U64" s="196"/>
-      <c r="V64" s="196"/>
-      <c r="W64" s="196"/>
-      <c r="X64" s="196"/>
-      <c r="Y64" s="196"/>
-      <c r="Z64" s="196"/>
-      <c r="AA64" s="196"/>
-      <c r="AB64" s="196"/>
+      <c r="Q64" s="234"/>
+      <c r="R64" s="234"/>
+      <c r="S64" s="234"/>
+      <c r="T64" s="234"/>
+      <c r="U64" s="234"/>
+      <c r="V64" s="234"/>
+      <c r="W64" s="234"/>
+      <c r="X64" s="234"/>
+      <c r="Y64" s="234"/>
+      <c r="Z64" s="234"/>
+      <c r="AA64" s="234"/>
+      <c r="AB64" s="234"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
@@ -18787,18 +17127,18 @@
       <c r="N65" s="30"/>
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
-      <c r="Q65" s="196"/>
-      <c r="R65" s="196"/>
-      <c r="S65" s="196"/>
-      <c r="T65" s="196"/>
-      <c r="U65" s="196"/>
-      <c r="V65" s="196"/>
-      <c r="W65" s="196"/>
-      <c r="X65" s="196"/>
-      <c r="Y65" s="196"/>
-      <c r="Z65" s="196"/>
-      <c r="AA65" s="196"/>
-      <c r="AB65" s="196"/>
+      <c r="Q65" s="234"/>
+      <c r="R65" s="234"/>
+      <c r="S65" s="234"/>
+      <c r="T65" s="234"/>
+      <c r="U65" s="234"/>
+      <c r="V65" s="234"/>
+      <c r="W65" s="234"/>
+      <c r="X65" s="234"/>
+      <c r="Y65" s="234"/>
+      <c r="Z65" s="234"/>
+      <c r="AA65" s="234"/>
+      <c r="AB65" s="234"/>
       <c r="AC65" s="30"/>
       <c r="AD65" s="30"/>
       <c r="AE65" s="30"/>
@@ -18884,18 +17224,18 @@
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
-      <c r="Q66" s="196"/>
-      <c r="R66" s="196"/>
-      <c r="S66" s="196"/>
-      <c r="T66" s="196"/>
-      <c r="U66" s="196"/>
-      <c r="V66" s="196"/>
-      <c r="W66" s="196"/>
-      <c r="X66" s="196"/>
-      <c r="Y66" s="196"/>
-      <c r="Z66" s="196"/>
-      <c r="AA66" s="196"/>
-      <c r="AB66" s="196"/>
+      <c r="Q66" s="234"/>
+      <c r="R66" s="234"/>
+      <c r="S66" s="234"/>
+      <c r="T66" s="234"/>
+      <c r="U66" s="234"/>
+      <c r="V66" s="234"/>
+      <c r="W66" s="234"/>
+      <c r="X66" s="234"/>
+      <c r="Y66" s="234"/>
+      <c r="Z66" s="234"/>
+      <c r="AA66" s="234"/>
+      <c r="AB66" s="234"/>
       <c r="AC66" s="30"/>
       <c r="AD66" s="30"/>
       <c r="AE66" s="30"/>
@@ -18935,18 +17275,18 @@
       <c r="N67" s="30"/>
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="196"/>
-      <c r="R67" s="196"/>
-      <c r="S67" s="196"/>
-      <c r="T67" s="196"/>
-      <c r="U67" s="196"/>
-      <c r="V67" s="196"/>
-      <c r="W67" s="196"/>
-      <c r="X67" s="196"/>
-      <c r="Y67" s="196"/>
-      <c r="Z67" s="196"/>
-      <c r="AA67" s="196"/>
-      <c r="AB67" s="196"/>
+      <c r="Q67" s="234"/>
+      <c r="R67" s="234"/>
+      <c r="S67" s="234"/>
+      <c r="T67" s="234"/>
+      <c r="U67" s="234"/>
+      <c r="V67" s="234"/>
+      <c r="W67" s="234"/>
+      <c r="X67" s="234"/>
+      <c r="Y67" s="234"/>
+      <c r="Z67" s="234"/>
+      <c r="AA67" s="234"/>
+      <c r="AB67" s="234"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
@@ -19034,18 +17374,18 @@
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
-      <c r="Q68" s="196"/>
-      <c r="R68" s="196"/>
-      <c r="S68" s="196"/>
-      <c r="T68" s="196"/>
-      <c r="U68" s="196"/>
-      <c r="V68" s="196"/>
-      <c r="W68" s="196"/>
-      <c r="X68" s="196"/>
-      <c r="Y68" s="196"/>
-      <c r="Z68" s="196"/>
-      <c r="AA68" s="196"/>
-      <c r="AB68" s="196"/>
+      <c r="Q68" s="234"/>
+      <c r="R68" s="234"/>
+      <c r="S68" s="234"/>
+      <c r="T68" s="234"/>
+      <c r="U68" s="234"/>
+      <c r="V68" s="234"/>
+      <c r="W68" s="234"/>
+      <c r="X68" s="234"/>
+      <c r="Y68" s="234"/>
+      <c r="Z68" s="234"/>
+      <c r="AA68" s="234"/>
+      <c r="AB68" s="234"/>
       <c r="AC68" s="30"/>
       <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
@@ -19085,18 +17425,18 @@
       <c r="N69" s="30"/>
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="196"/>
-      <c r="R69" s="196"/>
-      <c r="S69" s="196"/>
-      <c r="T69" s="196"/>
-      <c r="U69" s="196"/>
-      <c r="V69" s="196"/>
-      <c r="W69" s="196"/>
-      <c r="X69" s="196"/>
-      <c r="Y69" s="196"/>
-      <c r="Z69" s="196"/>
-      <c r="AA69" s="196"/>
-      <c r="AB69" s="196"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="234"/>
+      <c r="W69" s="234"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="234"/>
+      <c r="Z69" s="234"/>
+      <c r="AA69" s="234"/>
+      <c r="AB69" s="234"/>
       <c r="AC69" s="30"/>
       <c r="AD69" s="30"/>
       <c r="AE69" s="30"/>
@@ -19184,18 +17524,18 @@
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="196"/>
-      <c r="R70" s="196"/>
-      <c r="S70" s="196"/>
-      <c r="T70" s="196"/>
-      <c r="U70" s="196"/>
-      <c r="V70" s="196"/>
-      <c r="W70" s="196"/>
-      <c r="X70" s="196"/>
-      <c r="Y70" s="196"/>
-      <c r="Z70" s="196"/>
-      <c r="AA70" s="196"/>
-      <c r="AB70" s="196"/>
+      <c r="Q70" s="234"/>
+      <c r="R70" s="234"/>
+      <c r="S70" s="234"/>
+      <c r="T70" s="234"/>
+      <c r="U70" s="234"/>
+      <c r="V70" s="234"/>
+      <c r="W70" s="234"/>
+      <c r="X70" s="234"/>
+      <c r="Y70" s="234"/>
+      <c r="Z70" s="234"/>
+      <c r="AA70" s="234"/>
+      <c r="AB70" s="234"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="30"/>
       <c r="AE70" s="30"/>
@@ -19231,18 +17571,18 @@
       <c r="BI70" s="122"/>
     </row>
     <row r="71" spans="13:61" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="Q71" s="196"/>
-      <c r="R71" s="196"/>
-      <c r="S71" s="196"/>
-      <c r="T71" s="196"/>
-      <c r="U71" s="196"/>
-      <c r="V71" s="196"/>
-      <c r="W71" s="196"/>
-      <c r="X71" s="196"/>
-      <c r="Y71" s="196"/>
-      <c r="Z71" s="196"/>
-      <c r="AA71" s="196"/>
-      <c r="AB71" s="196"/>
+      <c r="Q71" s="234"/>
+      <c r="R71" s="234"/>
+      <c r="S71" s="234"/>
+      <c r="T71" s="234"/>
+      <c r="U71" s="234"/>
+      <c r="V71" s="234"/>
+      <c r="W71" s="234"/>
+      <c r="X71" s="234"/>
+      <c r="Y71" s="234"/>
+      <c r="Z71" s="234"/>
+      <c r="AA71" s="234"/>
+      <c r="AB71" s="234"/>
       <c r="AL71" s="118" t="s">
         <v>0</v>
       </c>
@@ -19317,18 +17657,18 @@
       </c>
     </row>
     <row r="72" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q72" s="196"/>
-      <c r="R72" s="196"/>
-      <c r="S72" s="196"/>
-      <c r="T72" s="196"/>
-      <c r="U72" s="196"/>
-      <c r="V72" s="196"/>
-      <c r="W72" s="196"/>
-      <c r="X72" s="196"/>
-      <c r="Y72" s="196"/>
-      <c r="Z72" s="196"/>
-      <c r="AA72" s="196"/>
-      <c r="AB72" s="196"/>
+      <c r="Q72" s="234"/>
+      <c r="R72" s="234"/>
+      <c r="S72" s="234"/>
+      <c r="T72" s="234"/>
+      <c r="U72" s="234"/>
+      <c r="V72" s="234"/>
+      <c r="W72" s="234"/>
+      <c r="X72" s="234"/>
+      <c r="Y72" s="234"/>
+      <c r="Z72" s="234"/>
+      <c r="AA72" s="234"/>
+      <c r="AB72" s="234"/>
       <c r="AL72" s="122"/>
       <c r="AM72" s="122"/>
       <c r="AN72" s="122"/>
@@ -19355,18 +17695,18 @@
       <c r="BI72" s="122"/>
     </row>
     <row r="73" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q73" s="196"/>
-      <c r="R73" s="196"/>
-      <c r="S73" s="196"/>
-      <c r="T73" s="196"/>
-      <c r="U73" s="196"/>
-      <c r="V73" s="196"/>
-      <c r="W73" s="196"/>
-      <c r="X73" s="196"/>
-      <c r="Y73" s="196"/>
-      <c r="Z73" s="196"/>
-      <c r="AA73" s="196"/>
-      <c r="AB73" s="196"/>
+      <c r="Q73" s="234"/>
+      <c r="R73" s="234"/>
+      <c r="S73" s="234"/>
+      <c r="T73" s="234"/>
+      <c r="U73" s="234"/>
+      <c r="V73" s="234"/>
+      <c r="W73" s="234"/>
+      <c r="X73" s="234"/>
+      <c r="Y73" s="234"/>
+      <c r="Z73" s="234"/>
+      <c r="AA73" s="234"/>
+      <c r="AB73" s="234"/>
       <c r="AL73" s="118" t="s">
         <v>0</v>
       </c>
@@ -19441,18 +17781,18 @@
       </c>
     </row>
     <row r="74" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q74" s="196"/>
-      <c r="R74" s="196"/>
-      <c r="S74" s="196"/>
-      <c r="T74" s="196"/>
-      <c r="U74" s="196"/>
-      <c r="V74" s="196"/>
-      <c r="W74" s="196"/>
-      <c r="X74" s="196"/>
-      <c r="Y74" s="196"/>
-      <c r="Z74" s="196"/>
-      <c r="AA74" s="196"/>
-      <c r="AB74" s="196"/>
+      <c r="Q74" s="234"/>
+      <c r="R74" s="234"/>
+      <c r="S74" s="234"/>
+      <c r="T74" s="234"/>
+      <c r="U74" s="234"/>
+      <c r="V74" s="234"/>
+      <c r="W74" s="234"/>
+      <c r="X74" s="234"/>
+      <c r="Y74" s="234"/>
+      <c r="Z74" s="234"/>
+      <c r="AA74" s="234"/>
+      <c r="AB74" s="234"/>
       <c r="AL74" s="122"/>
       <c r="AM74" s="122"/>
       <c r="AN74" s="122"/>
@@ -19479,18 +17819,18 @@
       <c r="BI74" s="122"/>
     </row>
     <row r="75" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q75" s="196"/>
-      <c r="R75" s="196"/>
-      <c r="S75" s="196"/>
-      <c r="T75" s="196"/>
-      <c r="U75" s="196"/>
-      <c r="V75" s="196"/>
-      <c r="W75" s="196"/>
-      <c r="X75" s="196"/>
-      <c r="Y75" s="196"/>
-      <c r="Z75" s="196"/>
-      <c r="AA75" s="196"/>
-      <c r="AB75" s="196"/>
+      <c r="Q75" s="234"/>
+      <c r="R75" s="234"/>
+      <c r="S75" s="234"/>
+      <c r="T75" s="234"/>
+      <c r="U75" s="234"/>
+      <c r="V75" s="234"/>
+      <c r="W75" s="234"/>
+      <c r="X75" s="234"/>
+      <c r="Y75" s="234"/>
+      <c r="Z75" s="234"/>
+      <c r="AA75" s="234"/>
+      <c r="AB75" s="234"/>
       <c r="AL75" s="118" t="s">
         <v>0</v>
       </c>
@@ -19565,18 +17905,18 @@
       </c>
     </row>
     <row r="76" spans="13:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="Q76" s="196"/>
-      <c r="R76" s="196"/>
-      <c r="S76" s="196"/>
-      <c r="T76" s="196"/>
-      <c r="U76" s="196"/>
-      <c r="V76" s="196"/>
-      <c r="W76" s="196"/>
-      <c r="X76" s="196"/>
-      <c r="Y76" s="196"/>
-      <c r="Z76" s="196"/>
-      <c r="AA76" s="196"/>
-      <c r="AB76" s="196"/>
+      <c r="Q76" s="234"/>
+      <c r="R76" s="234"/>
+      <c r="S76" s="234"/>
+      <c r="T76" s="234"/>
+      <c r="U76" s="234"/>
+      <c r="V76" s="234"/>
+      <c r="W76" s="234"/>
+      <c r="X76" s="234"/>
+      <c r="Y76" s="234"/>
+      <c r="Z76" s="234"/>
+      <c r="AA76" s="234"/>
+      <c r="AB76" s="234"/>
       <c r="AL76" s="126"/>
       <c r="AM76" s="126"/>
       <c r="AN76" s="126"/>
@@ -22251,26 +20591,26 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="193" t="s">
+      <c r="Q21" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="193"/>
-      <c r="S21" s="193"/>
-      <c r="T21" s="193"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
-      <c r="Y21" s="193"/>
-      <c r="Z21" s="193"/>
-      <c r="AF21" s="193" t="s">
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="235"/>
+      <c r="W21" s="235"/>
+      <c r="X21" s="235"/>
+      <c r="Y21" s="235"/>
+      <c r="Z21" s="235"/>
+      <c r="AF21" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="AG21" s="193"/>
-      <c r="AH21" s="193"/>
-      <c r="AI21" s="193"/>
-      <c r="AJ21" s="193"/>
-      <c r="AK21" s="193"/>
+      <c r="AG21" s="235"/>
+      <c r="AH21" s="235"/>
+      <c r="AI21" s="235"/>
+      <c r="AJ21" s="235"/>
+      <c r="AK21" s="235"/>
     </row>
     <row r="22" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -22987,14 +21327,14 @@
       <c r="Z37" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="193" t="s">
+      <c r="AE37" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="AF37" s="193"/>
-      <c r="AG37" s="193"/>
-      <c r="AH37" s="193"/>
-      <c r="AI37" s="193"/>
-      <c r="AJ37" s="193"/>
+      <c r="AF37" s="235"/>
+      <c r="AG37" s="235"/>
+      <c r="AH37" s="235"/>
+      <c r="AI37" s="235"/>
+      <c r="AJ37" s="235"/>
     </row>
     <row r="38" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>

--- a/Flare Notes.xlsx
+++ b/Flare Notes.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E165526-2A31-DB48-B19F-75DFEC65FFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94895F91-C222-C84B-97F8-B6C32CBB5E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Board" sheetId="11" r:id="rId1"/>
-    <sheet name="Control Board" sheetId="9" r:id="rId2"/>
-    <sheet name="Common Items" sheetId="8" r:id="rId3"/>
+    <sheet name="Torch" sheetId="12" r:id="rId1"/>
+    <sheet name="New Board" sheetId="11" r:id="rId2"/>
+    <sheet name="Control Board" sheetId="9" r:id="rId3"/>
+    <sheet name="Common Items" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="107">
   <si>
     <t>o</t>
   </si>
@@ -298,6 +299,63 @@
   <si>
     <t>LEDs</t>
   </si>
+  <si>
+    <t>Sticking up bit on the right</t>
+  </si>
+  <si>
+    <t>Three pots</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L is a pin for a wire to connect to</t>
+  </si>
+  <si>
+    <t>Cant forget about the resistors</t>
+  </si>
+  <si>
+    <t>Two Buttons</t>
+  </si>
+  <si>
+    <t>Red Pot</t>
+  </si>
+  <si>
+    <t>Green Pot</t>
+  </si>
+  <si>
+    <t>Blue Pot</t>
+  </si>
+  <si>
+    <t>Pot +ve</t>
+  </si>
+  <si>
+    <t>Button &amp; Pot ground</t>
+  </si>
+  <si>
+    <t>Screen SDA</t>
+  </si>
+  <si>
+    <t>Screen SCL</t>
+  </si>
+  <si>
+    <t>Button One</t>
+  </si>
+  <si>
+    <t>Button Two</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>Green LED</t>
+  </si>
+  <si>
+    <t>Blue LED</t>
+  </si>
+  <si>
+    <t>text is 7 x 5 so can fit 10 chars on screen</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +472,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -926,7 +990,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,10 +1652,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,9 +1714,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1615,7 +1722,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="413">
+  <dxfs count="425">
     <dxf>
       <font>
         <color rgb="FF808080"/>
@@ -3629,6 +3736,81 @@
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -3730,6 +3912,745 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EA895A-5CED-5A43-A47F-48D99075B54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11328400" y="1358900"/>
+          <a:ext cx="2400300" cy="2536825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97690</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97690</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216E18EF-003A-2048-A515-A3C6EB03516E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042378" y="976313"/>
+          <a:ext cx="0" cy="3008312"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88166</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88166</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F7B78E-ED2D-C149-B9A9-03F08545A4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2223354" y="3270251"/>
+          <a:ext cx="0" cy="936624"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99279</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99279</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28136029-B58B-BA4A-9EFC-BEAA4D95A1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2615467" y="746125"/>
+          <a:ext cx="0" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100867</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100867</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E4914F-DE43-8440-AFEF-217A85A73DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3188555" y="2587625"/>
+          <a:ext cx="0" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144992</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144993</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEBAA84-83B8-E54A-8C01-4529198FE243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6328305" y="3061609"/>
+          <a:ext cx="1" cy="676955"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>113241</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>113242</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38700BC9-FB85-3245-B01B-8A5196F3C23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6487054" y="3077483"/>
+          <a:ext cx="1" cy="676955"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106893</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106894</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4829F81B-FA03-704C-BB8C-099258426394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2051581" y="4222071"/>
+          <a:ext cx="1" cy="461054"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92605</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92606</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443D4D47-733F-EC44-9C94-1DFFEF99C99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2608793" y="4223659"/>
+          <a:ext cx="1" cy="461054"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94192</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94193</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7919565-94EA-BB41-BCD6-7CB7FCFD7019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3181880" y="4225247"/>
+          <a:ext cx="1" cy="461054"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97691</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97691</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE29C55F-7B49-9B4A-9D8B-44A7F87D46F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2804379" y="4452938"/>
+          <a:ext cx="0" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98954</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98955</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED09CD9F-A7DA-B445-AB2E-0E0815F9FA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3377142" y="2825071"/>
+          <a:ext cx="1" cy="2088242"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94517</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94517</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C207C43B-0C74-CD45-B348-9494347A690A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801205" y="523875"/>
+          <a:ext cx="0" cy="2073275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4867,7 +5788,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7024,7 +7945,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7520,13 +8441,3123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7612EF33-E27F-DE4E-ACDB-367A85655506}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:AZ59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y19" sqref="Y19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3" style="230" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="230"/>
+    <col min="3" max="13" width="2.5" style="231"/>
+    <col min="14" max="14" width="3.1640625" style="231" bestFit="1" customWidth="1"/>
+    <col min="15" max="33" width="2.5" style="231"/>
+    <col min="34" max="34" width="3.1640625" style="231" bestFit="1" customWidth="1"/>
+    <col min="35" max="42" width="2.5" style="231"/>
+    <col min="43" max="16384" width="2.5" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:52" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A3" s="230">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="243" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="77"/>
+      <c r="I3" s="242" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="193" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="235"/>
+      <c r="AG3" s="235"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="235"/>
+      <c r="AJ3" s="235"/>
+      <c r="AK3" s="235"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AZ3" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="235"/>
+      <c r="AD4" s="235"/>
+      <c r="AE4" s="235"/>
+      <c r="AF4" s="235"/>
+      <c r="AG4" s="235"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="235"/>
+      <c r="AK4" s="235"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+    </row>
+    <row r="5" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="230">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="193" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="235"/>
+      <c r="AE5" s="235"/>
+      <c r="AF5" s="235"/>
+      <c r="AG5" s="235"/>
+      <c r="AH5" s="235"/>
+      <c r="AI5" s="235"/>
+      <c r="AJ5" s="235"/>
+      <c r="AK5" s="235"/>
+      <c r="AL5" s="235"/>
+      <c r="AM5" s="235"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AZ5" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="186"/>
+      <c r="Y6" s="186"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="235"/>
+      <c r="AE6" s="235"/>
+      <c r="AF6" s="235"/>
+      <c r="AG6" s="235"/>
+      <c r="AH6" s="235"/>
+      <c r="AI6" s="235"/>
+      <c r="AJ6" s="235"/>
+      <c r="AK6" s="235"/>
+      <c r="AL6" s="235"/>
+      <c r="AM6" s="235"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+    </row>
+    <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="230">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="193" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="186"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="235"/>
+      <c r="AF7" s="235"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="235"/>
+      <c r="AI7" s="235"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="235"/>
+      <c r="AL7" s="235"/>
+      <c r="AM7" s="235"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AZ7" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="186"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="235"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+      <c r="AI8" s="235"/>
+      <c r="AJ8" s="235"/>
+      <c r="AK8" s="235"/>
+      <c r="AL8" s="235"/>
+      <c r="AM8" s="235"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A9" s="230">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="193" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="235"/>
+      <c r="AF9" s="235"/>
+      <c r="AG9" s="235"/>
+      <c r="AH9" s="235"/>
+      <c r="AI9" s="235"/>
+      <c r="AJ9" s="235"/>
+      <c r="AK9" s="235"/>
+      <c r="AL9" s="235"/>
+      <c r="AM9" s="235"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+    </row>
+    <row r="10" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="235"/>
+      <c r="AD10" s="235"/>
+      <c r="AE10" s="235"/>
+      <c r="AF10" s="235"/>
+      <c r="AG10" s="235"/>
+      <c r="AH10" s="235"/>
+      <c r="AI10" s="235"/>
+      <c r="AJ10" s="235"/>
+      <c r="AK10" s="235"/>
+      <c r="AL10" s="235"/>
+      <c r="AM10" s="235"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A11" s="230">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="238" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="239" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="235"/>
+      <c r="AD11" s="235"/>
+      <c r="AE11" s="235"/>
+      <c r="AF11" s="235"/>
+      <c r="AG11" s="235"/>
+      <c r="AH11" s="235"/>
+      <c r="AI11" s="235"/>
+      <c r="AJ11" s="235"/>
+      <c r="AK11" s="235"/>
+      <c r="AL11" s="235"/>
+      <c r="AM11" s="235"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+    </row>
+    <row r="12" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="235"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="235"/>
+      <c r="AF12" s="235"/>
+      <c r="AG12" s="235"/>
+      <c r="AH12" s="235"/>
+      <c r="AI12" s="235"/>
+      <c r="AJ12" s="235"/>
+      <c r="AK12" s="235"/>
+      <c r="AL12" s="235"/>
+      <c r="AM12" s="235"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="230">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="238" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="235"/>
+      <c r="AD13" s="235"/>
+      <c r="AE13" s="235"/>
+      <c r="AF13" s="235"/>
+      <c r="AG13" s="235"/>
+      <c r="AH13" s="235"/>
+      <c r="AI13" s="235"/>
+      <c r="AJ13" s="235"/>
+      <c r="AK13" s="235"/>
+      <c r="AL13" s="235"/>
+      <c r="AM13" s="235"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+    </row>
+    <row r="14" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="186"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="235"/>
+      <c r="AF14" s="235"/>
+      <c r="AG14" s="235"/>
+      <c r="AH14" s="235"/>
+      <c r="AI14" s="235"/>
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="235"/>
+      <c r="AL14" s="235"/>
+      <c r="AM14" s="235"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A15" s="230">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="230"/>
+      <c r="AD15" s="230"/>
+      <c r="AE15" s="230"/>
+      <c r="AF15" s="230"/>
+      <c r="AG15" s="230" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH15" s="230"/>
+      <c r="AI15" s="230"/>
+      <c r="AJ15" s="230"/>
+      <c r="AK15" s="230"/>
+      <c r="AL15" s="230"/>
+      <c r="AM15" s="230"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+    </row>
+    <row r="16" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="230"/>
+      <c r="AD16" s="230"/>
+      <c r="AE16" s="230"/>
+      <c r="AF16" s="230"/>
+      <c r="AG16" s="230"/>
+      <c r="AH16" s="230"/>
+      <c r="AI16" s="230"/>
+      <c r="AJ16" s="230"/>
+      <c r="AK16" s="230"/>
+      <c r="AL16" s="230"/>
+      <c r="AM16" s="230"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A17" s="230">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="238" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="193" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="186"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="230"/>
+      <c r="AD17" s="230"/>
+      <c r="AE17" s="230"/>
+      <c r="AF17" s="230"/>
+      <c r="AG17" s="230"/>
+      <c r="AH17" s="230"/>
+      <c r="AI17" s="230"/>
+      <c r="AJ17" s="230"/>
+      <c r="AK17" s="230"/>
+      <c r="AL17" s="230"/>
+      <c r="AM17" s="230"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+    </row>
+    <row r="18" spans="1:44" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="186"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A19" s="230">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="193" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+    </row>
+    <row r="20" spans="1:44" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="230"/>
+      <c r="AD20" s="230"/>
+      <c r="AE20" s="230"/>
+      <c r="AF20" s="230"/>
+      <c r="AG20" s="230"/>
+      <c r="AH20" s="230"/>
+      <c r="AI20" s="230"/>
+      <c r="AJ20" s="230"/>
+      <c r="AK20" s="230"/>
+      <c r="AL20" s="230"/>
+      <c r="AM20" s="230"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A21" s="230">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="193" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="187"/>
+      <c r="Y21" s="187"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="245">
+        <f>8.1*5</f>
+        <v>40.5</v>
+      </c>
+      <c r="AD21" s="245"/>
+      <c r="AE21" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF21" s="230"/>
+      <c r="AG21" s="230"/>
+      <c r="AH21" s="230"/>
+      <c r="AI21" s="230"/>
+      <c r="AJ21" s="230"/>
+      <c r="AK21" s="230"/>
+      <c r="AL21" s="230"/>
+      <c r="AM21" s="230"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+    </row>
+    <row r="22" spans="1:44" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="187"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="230"/>
+      <c r="AE22" s="209"/>
+      <c r="AF22" s="230"/>
+      <c r="AG22" s="230"/>
+      <c r="AH22" s="230"/>
+      <c r="AI22" s="230"/>
+      <c r="AJ22" s="230"/>
+      <c r="AK22" s="230"/>
+      <c r="AL22" s="230"/>
+      <c r="AM22" s="230"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A23" s="230">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="238" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="245">
+        <f>25</f>
+        <v>25</v>
+      </c>
+      <c r="AD23" s="245"/>
+      <c r="AE23" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF23" s="230"/>
+      <c r="AG23" s="230"/>
+      <c r="AH23" s="230"/>
+      <c r="AI23" s="230"/>
+      <c r="AJ23" s="230"/>
+      <c r="AK23" s="230"/>
+      <c r="AL23" s="230"/>
+      <c r="AM23" s="230"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+    </row>
+    <row r="24" spans="1:44" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="230"/>
+      <c r="AD24" s="230"/>
+      <c r="AE24" s="230"/>
+      <c r="AF24" s="230"/>
+      <c r="AG24" s="230"/>
+      <c r="AH24" s="230"/>
+      <c r="AI24" s="230"/>
+      <c r="AJ24" s="230"/>
+      <c r="AK24" s="230"/>
+      <c r="AL24" s="230"/>
+      <c r="AM24" s="230"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A25" s="230">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="225"/>
+      <c r="I25" s="226" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+    </row>
+    <row r="26" spans="1:44" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="187"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="187"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A27" s="230">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="79"/>
+      <c r="I27" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="227" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AR27" s="4"/>
+    </row>
+    <row r="28" spans="1:44" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="94"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AR28" s="4"/>
+    </row>
+    <row r="29" spans="1:44" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="230">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="222" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="58"/>
+      <c r="N29" s="193"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="186"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+    </row>
+    <row r="30" spans="1:44" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+    </row>
+    <row r="31" spans="1:44" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="230">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="223"/>
+      <c r="I31" s="224" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="47"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="251" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+    </row>
+    <row r="32" spans="1:44" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="230"/>
+      <c r="R32" s="230"/>
+      <c r="S32" s="230"/>
+      <c r="T32" s="230"/>
+      <c r="U32" s="230"/>
+      <c r="V32" s="230"/>
+      <c r="W32" s="230"/>
+      <c r="X32" s="230"/>
+      <c r="Y32" s="230"/>
+      <c r="Z32" s="230"/>
+      <c r="AA32" s="230"/>
+      <c r="AB32" s="230"/>
+      <c r="AC32" s="230"/>
+      <c r="AD32" s="230"/>
+      <c r="AE32" s="230"/>
+      <c r="AF32" s="230"/>
+      <c r="AG32" s="230"/>
+      <c r="AH32" s="230"/>
+      <c r="AI32" s="230"/>
+      <c r="AJ32" s="230"/>
+      <c r="AK32" s="230"/>
+      <c r="AL32" s="230"/>
+      <c r="AM32" s="230"/>
+      <c r="AN32" s="230"/>
+      <c r="AO32" s="230"/>
+      <c r="AP32" s="230"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A33" s="230">
+        <v>16</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="210"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="210"/>
+      <c r="R33" s="230"/>
+      <c r="S33" s="230"/>
+      <c r="T33" s="230"/>
+      <c r="U33" s="230"/>
+      <c r="V33" s="230"/>
+      <c r="W33" s="230"/>
+      <c r="X33" s="230"/>
+      <c r="Y33" s="230"/>
+      <c r="Z33" s="230"/>
+      <c r="AA33" s="230"/>
+      <c r="AB33" s="230"/>
+      <c r="AC33" s="230"/>
+      <c r="AD33" s="230"/>
+      <c r="AE33" s="230"/>
+      <c r="AF33" s="230"/>
+      <c r="AG33" s="230"/>
+      <c r="AH33" s="230"/>
+      <c r="AI33" s="230"/>
+      <c r="AJ33" s="230"/>
+      <c r="AK33" s="230"/>
+      <c r="AL33" s="230"/>
+      <c r="AM33" s="230"/>
+      <c r="AN33" s="230"/>
+      <c r="AO33" s="230"/>
+      <c r="AP33" s="230"/>
+    </row>
+    <row r="34" spans="1:42" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A35" s="230">
+        <v>17</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="188"/>
+      <c r="O35" s="188"/>
+      <c r="P35" s="188"/>
+      <c r="Q35" s="188"/>
+      <c r="R35" s="237" t="s">
+        <v>91</v>
+      </c>
+      <c r="S35" s="188"/>
+      <c r="T35" s="188"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+    </row>
+    <row r="36" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="27"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A37" s="230">
+        <v>18</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="240" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="240" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="240" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="188"/>
+      <c r="O37" s="188"/>
+      <c r="P37" s="188"/>
+      <c r="Q37" s="188"/>
+      <c r="R37" s="237" t="s">
+        <v>92</v>
+      </c>
+      <c r="S37" s="188"/>
+      <c r="T37" s="188"/>
+      <c r="U37" s="188"/>
+      <c r="V37" s="188"/>
+      <c r="W37" s="188"/>
+      <c r="X37" s="188"/>
+      <c r="Y37" s="188"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3">
+        <f>32/2</f>
+        <v>16</v>
+      </c>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+    </row>
+    <row r="38" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="152"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="230"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+    </row>
+    <row r="39" spans="1:42" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="230">
+        <v>19</v>
+      </c>
+      <c r="C39" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="188"/>
+      <c r="S39" s="188"/>
+      <c r="T39" s="188"/>
+      <c r="U39" s="188"/>
+      <c r="V39" s="188"/>
+      <c r="W39" s="188"/>
+      <c r="X39" s="188"/>
+      <c r="Y39" s="188"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+    </row>
+    <row r="40" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="233"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="188"/>
+      <c r="T40" s="188"/>
+      <c r="U40" s="188"/>
+      <c r="V40" s="188"/>
+      <c r="W40" s="188"/>
+      <c r="X40" s="188"/>
+      <c r="Y40" s="188"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A41" s="233">
+        <v>20</v>
+      </c>
+      <c r="B41" s="233"/>
+      <c r="C41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="234"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="188"/>
+      <c r="S41" s="188"/>
+      <c r="T41" s="188"/>
+      <c r="U41" s="188"/>
+      <c r="V41" s="188"/>
+      <c r="W41" s="188"/>
+      <c r="X41" s="188"/>
+      <c r="Y41" s="188"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="13"/>
+    </row>
+    <row r="42" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="13"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A43" s="230">
+        <v>21</v>
+      </c>
+      <c r="C43" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="188"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="188"/>
+      <c r="R43" s="188"/>
+      <c r="S43" s="188"/>
+      <c r="T43" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="U43" s="188"/>
+      <c r="V43" s="188"/>
+      <c r="W43" s="188"/>
+      <c r="X43" s="188"/>
+      <c r="Y43" s="188"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+    </row>
+    <row r="44" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A45" s="230">
+        <v>22</v>
+      </c>
+      <c r="C45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="230"/>
+      <c r="O45" s="209" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="230"/>
+      <c r="Q45" s="230"/>
+      <c r="R45" s="230"/>
+      <c r="S45" s="230"/>
+      <c r="T45" s="230"/>
+      <c r="U45" s="230"/>
+      <c r="V45" s="230"/>
+      <c r="W45" s="230"/>
+      <c r="X45" s="230"/>
+      <c r="Y45" s="230"/>
+      <c r="Z45" s="230"/>
+      <c r="AA45" s="230"/>
+      <c r="AB45" s="230"/>
+      <c r="AC45" s="230"/>
+      <c r="AD45" s="230"/>
+      <c r="AE45" s="230"/>
+      <c r="AF45" s="230"/>
+      <c r="AG45" s="230"/>
+      <c r="AH45" s="230"/>
+      <c r="AI45" s="230"/>
+      <c r="AJ45" s="230"/>
+      <c r="AK45" s="230"/>
+      <c r="AL45" s="230"/>
+      <c r="AM45" s="230"/>
+      <c r="AN45" s="230"/>
+      <c r="AO45" s="230"/>
+      <c r="AP45" s="230"/>
+    </row>
+    <row r="46" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="230"/>
+      <c r="D46" s="230"/>
+      <c r="E46" s="230"/>
+      <c r="F46" s="230"/>
+      <c r="G46" s="230"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="230"/>
+      <c r="J46" s="230"/>
+      <c r="K46" s="230"/>
+      <c r="L46" s="230"/>
+      <c r="N46" s="230"/>
+      <c r="O46" s="230"/>
+      <c r="P46" s="230"/>
+      <c r="Q46" s="230"/>
+      <c r="R46" s="230"/>
+      <c r="S46" s="230"/>
+      <c r="T46" s="230"/>
+      <c r="U46" s="230"/>
+      <c r="V46" s="230"/>
+      <c r="W46" s="230"/>
+      <c r="X46" s="230"/>
+      <c r="Y46" s="230"/>
+      <c r="Z46" s="230"/>
+      <c r="AA46" s="230"/>
+      <c r="AB46" s="230"/>
+      <c r="AC46" s="230"/>
+      <c r="AD46" s="230"/>
+      <c r="AE46" s="230"/>
+      <c r="AF46" s="230"/>
+      <c r="AG46" s="230"/>
+      <c r="AH46" s="230"/>
+      <c r="AI46" s="230"/>
+      <c r="AJ46" s="230"/>
+      <c r="AK46" s="230"/>
+      <c r="AL46" s="230"/>
+      <c r="AM46" s="230"/>
+      <c r="AN46" s="230"/>
+      <c r="AO46" s="230"/>
+      <c r="AP46" s="230"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A47" s="230">
+        <v>23</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="241" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="241" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="230"/>
+      <c r="O47" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="230"/>
+      <c r="Q47" s="230"/>
+      <c r="R47" s="230"/>
+      <c r="S47" s="230"/>
+      <c r="T47" s="230"/>
+      <c r="U47" s="230"/>
+      <c r="V47" s="230"/>
+      <c r="W47" s="230"/>
+      <c r="X47" s="230"/>
+      <c r="Y47" s="230"/>
+      <c r="Z47" s="230"/>
+      <c r="AA47" s="230"/>
+      <c r="AB47" s="230"/>
+      <c r="AC47" s="230"/>
+      <c r="AD47" s="230"/>
+      <c r="AE47" s="230"/>
+      <c r="AF47" s="230"/>
+      <c r="AG47" s="230"/>
+      <c r="AH47" s="230"/>
+      <c r="AI47" s="230"/>
+      <c r="AJ47" s="230"/>
+      <c r="AK47" s="230"/>
+      <c r="AL47" s="230"/>
+      <c r="AM47" s="230"/>
+      <c r="AN47" s="230"/>
+      <c r="AO47" s="230"/>
+      <c r="AP47" s="230"/>
+    </row>
+    <row r="48" spans="1:42" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="230"/>
+      <c r="E48" s="230"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="230"/>
+      <c r="O48" s="230"/>
+      <c r="P48" s="230"/>
+      <c r="Q48" s="230"/>
+      <c r="R48" s="230"/>
+      <c r="S48" s="230"/>
+      <c r="T48" s="230"/>
+      <c r="U48" s="230"/>
+      <c r="V48" s="230"/>
+      <c r="W48" s="230"/>
+      <c r="X48" s="230"/>
+      <c r="Y48" s="230"/>
+      <c r="Z48" s="230"/>
+      <c r="AA48" s="230"/>
+      <c r="AB48" s="230"/>
+      <c r="AC48" s="230"/>
+      <c r="AD48" s="230"/>
+      <c r="AE48" s="230"/>
+      <c r="AF48" s="230"/>
+      <c r="AG48" s="230"/>
+      <c r="AH48" s="230"/>
+      <c r="AI48" s="230"/>
+      <c r="AJ48" s="230"/>
+      <c r="AK48" s="230"/>
+      <c r="AL48" s="230"/>
+      <c r="AM48" s="230"/>
+      <c r="AN48" s="230"/>
+      <c r="AO48" s="230"/>
+      <c r="AP48" s="230"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="C49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="210"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="210"/>
+      <c r="R49" s="230"/>
+      <c r="S49" s="230"/>
+      <c r="T49" s="230"/>
+      <c r="U49" s="230"/>
+      <c r="V49" s="230"/>
+      <c r="W49" s="230"/>
+      <c r="X49" s="230"/>
+      <c r="Y49" s="230"/>
+      <c r="Z49" s="230"/>
+      <c r="AA49" s="230"/>
+      <c r="AB49" s="230"/>
+      <c r="AC49" s="230"/>
+      <c r="AD49" s="230"/>
+      <c r="AE49" s="230"/>
+      <c r="AF49" s="230"/>
+      <c r="AG49" s="230"/>
+      <c r="AH49" s="230"/>
+      <c r="AI49" s="230"/>
+      <c r="AJ49" s="230"/>
+      <c r="AK49" s="230"/>
+      <c r="AL49" s="230"/>
+      <c r="AM49" s="230"/>
+      <c r="AN49" s="230"/>
+      <c r="AO49" s="230"/>
+      <c r="AP49" s="230"/>
+    </row>
+    <row r="50" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="13"/>
+      <c r="D50" s="230"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="210"/>
+      <c r="N50" s="210"/>
+      <c r="O50" s="210"/>
+      <c r="P50" s="210"/>
+      <c r="Q50" s="210"/>
+      <c r="R50" s="230"/>
+      <c r="S50" s="230"/>
+      <c r="T50" s="230"/>
+      <c r="U50" s="230"/>
+      <c r="V50" s="230"/>
+      <c r="W50" s="230"/>
+      <c r="X50" s="230"/>
+      <c r="Y50" s="230"/>
+      <c r="Z50" s="230"/>
+      <c r="AA50" s="230"/>
+      <c r="AB50" s="230"/>
+      <c r="AC50" s="230"/>
+      <c r="AD50" s="230"/>
+      <c r="AE50" s="230"/>
+      <c r="AF50" s="230"/>
+      <c r="AG50" s="230"/>
+      <c r="AH50" s="230"/>
+      <c r="AI50" s="230"/>
+      <c r="AJ50" s="230"/>
+      <c r="AK50" s="230"/>
+      <c r="AL50" s="230"/>
+      <c r="AM50" s="230"/>
+      <c r="AN50" s="230"/>
+      <c r="AO50" s="230"/>
+      <c r="AP50" s="230"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="C51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="210"/>
+      <c r="N51" s="210"/>
+      <c r="O51" s="210"/>
+      <c r="P51" s="210"/>
+      <c r="Q51" s="210"/>
+    </row>
+    <row r="52" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="210"/>
+      <c r="N52" s="210"/>
+      <c r="O52" s="210"/>
+      <c r="P52" s="210"/>
+      <c r="Q52" s="210"/>
+    </row>
+    <row r="53" spans="1:52" s="231" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="230"/>
+      <c r="B53" s="230"/>
+      <c r="C53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="210"/>
+      <c r="N53" s="210"/>
+      <c r="O53" s="210"/>
+      <c r="P53" s="210"/>
+      <c r="Q53" s="210"/>
+      <c r="AQ53" s="13"/>
+      <c r="AR53" s="13"/>
+      <c r="AS53" s="13"/>
+      <c r="AT53" s="13"/>
+      <c r="AU53" s="13"/>
+      <c r="AV53" s="13"/>
+      <c r="AW53" s="13"/>
+      <c r="AX53" s="13"/>
+      <c r="AY53" s="13"/>
+      <c r="AZ53" s="13"/>
+    </row>
+    <row r="54" spans="1:52" s="231" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="230"/>
+      <c r="B54" s="230"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="210"/>
+      <c r="N54" s="210"/>
+      <c r="O54" s="210"/>
+      <c r="P54" s="210"/>
+      <c r="Q54" s="210"/>
+      <c r="AQ54" s="13"/>
+      <c r="AR54" s="13"/>
+      <c r="AS54" s="13"/>
+      <c r="AT54" s="13"/>
+      <c r="AU54" s="13"/>
+      <c r="AV54" s="13"/>
+      <c r="AW54" s="13"/>
+      <c r="AX54" s="13"/>
+      <c r="AY54" s="13"/>
+      <c r="AZ54" s="13"/>
+    </row>
+    <row r="55" spans="1:52" s="231" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="230"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="210"/>
+      <c r="N55" s="210"/>
+      <c r="O55" s="210"/>
+      <c r="P55" s="210"/>
+      <c r="Q55" s="210"/>
+      <c r="AQ55" s="13"/>
+      <c r="AR55" s="13"/>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="13"/>
+      <c r="AU55" s="13"/>
+      <c r="AV55" s="13"/>
+      <c r="AW55" s="13"/>
+      <c r="AX55" s="13"/>
+      <c r="AY55" s="13"/>
+      <c r="AZ55" s="13"/>
+    </row>
+    <row r="56" spans="1:52" s="231" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="230"/>
+      <c r="B56" s="230"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="210"/>
+      <c r="N56" s="210"/>
+      <c r="O56" s="210"/>
+      <c r="P56" s="210"/>
+      <c r="Q56" s="210"/>
+      <c r="AQ56" s="13"/>
+      <c r="AR56" s="13"/>
+      <c r="AS56" s="13"/>
+      <c r="AT56" s="13"/>
+      <c r="AU56" s="13"/>
+      <c r="AV56" s="13"/>
+      <c r="AW56" s="13"/>
+      <c r="AX56" s="13"/>
+      <c r="AY56" s="13"/>
+      <c r="AZ56" s="13"/>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="C57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="13"/>
+      <c r="D58" s="230"/>
+      <c r="E58" s="230"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="C59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC23:AD23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C35:C39">
+    <cfRule type="cellIs" dxfId="424" priority="9" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C39">
+    <cfRule type="cellIs" dxfId="423" priority="12" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="422" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="421" priority="10" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="cellIs" dxfId="420" priority="5" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F39">
+    <cfRule type="cellIs" dxfId="419" priority="8" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="418" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="417" priority="6" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I39">
+    <cfRule type="cellIs" dxfId="416" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I39">
+    <cfRule type="cellIs" dxfId="415" priority="4" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="cellIs" dxfId="414" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="cellIs" dxfId="413" priority="2" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E5C462-0CF0-2544-B100-ACD1C1A4DEC7}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:BH52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7752,19 +11783,19 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="230" t="s">
+      <c r="AK3" s="246" t="s">
         <v>79</v>
       </c>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="230"/>
-      <c r="AO3" s="230"/>
-      <c r="AP3" s="230"/>
-      <c r="AQ3" s="230"/>
-      <c r="AR3" s="230"/>
-      <c r="AS3" s="230"/>
-      <c r="AT3" s="230"/>
-      <c r="AU3" s="230"/>
+      <c r="AL3" s="246"/>
+      <c r="AM3" s="246"/>
+      <c r="AN3" s="246"/>
+      <c r="AO3" s="246"/>
+      <c r="AP3" s="246"/>
+      <c r="AQ3" s="246"/>
+      <c r="AR3" s="246"/>
+      <c r="AS3" s="246"/>
+      <c r="AT3" s="246"/>
+      <c r="AU3" s="246"/>
       <c r="AV3" s="13"/>
       <c r="AW3" s="13"/>
       <c r="AX3" s="13"/>
@@ -7808,17 +11839,17 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
-      <c r="AK4" s="230"/>
-      <c r="AL4" s="230"/>
-      <c r="AM4" s="230"/>
-      <c r="AN4" s="230"/>
-      <c r="AO4" s="230"/>
-      <c r="AP4" s="230"/>
-      <c r="AQ4" s="230"/>
-      <c r="AR4" s="230"/>
-      <c r="AS4" s="230"/>
-      <c r="AT4" s="230"/>
-      <c r="AU4" s="230"/>
+      <c r="AK4" s="246"/>
+      <c r="AL4" s="246"/>
+      <c r="AM4" s="246"/>
+      <c r="AN4" s="246"/>
+      <c r="AO4" s="246"/>
+      <c r="AP4" s="246"/>
+      <c r="AQ4" s="246"/>
+      <c r="AR4" s="246"/>
+      <c r="AS4" s="246"/>
+      <c r="AT4" s="246"/>
+      <c r="AU4" s="246"/>
       <c r="AV4" s="13"/>
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
@@ -7891,17 +11922,17 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
-      <c r="AK5" s="230"/>
-      <c r="AL5" s="230"/>
-      <c r="AM5" s="230"/>
-      <c r="AN5" s="230"/>
-      <c r="AO5" s="230"/>
-      <c r="AP5" s="230"/>
-      <c r="AQ5" s="230"/>
-      <c r="AR5" s="230"/>
-      <c r="AS5" s="230"/>
-      <c r="AT5" s="230"/>
-      <c r="AU5" s="230"/>
+      <c r="AK5" s="246"/>
+      <c r="AL5" s="246"/>
+      <c r="AM5" s="246"/>
+      <c r="AN5" s="246"/>
+      <c r="AO5" s="246"/>
+      <c r="AP5" s="246"/>
+      <c r="AQ5" s="246"/>
+      <c r="AR5" s="246"/>
+      <c r="AS5" s="246"/>
+      <c r="AT5" s="246"/>
+      <c r="AU5" s="246"/>
       <c r="AV5" s="13"/>
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
@@ -7944,17 +11975,17 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
-      <c r="AK6" s="230"/>
-      <c r="AL6" s="230"/>
-      <c r="AM6" s="230"/>
-      <c r="AN6" s="230"/>
-      <c r="AO6" s="230"/>
-      <c r="AP6" s="230"/>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
-      <c r="AT6" s="230"/>
-      <c r="AU6" s="230"/>
+      <c r="AK6" s="246"/>
+      <c r="AL6" s="246"/>
+      <c r="AM6" s="246"/>
+      <c r="AN6" s="246"/>
+      <c r="AO6" s="246"/>
+      <c r="AP6" s="246"/>
+      <c r="AQ6" s="246"/>
+      <c r="AR6" s="246"/>
+      <c r="AS6" s="246"/>
+      <c r="AT6" s="246"/>
+      <c r="AU6" s="246"/>
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
       <c r="AX6" s="13"/>
@@ -8001,7 +12032,7 @@
       <c r="P7" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="236" t="s">
+      <c r="Q7" s="232" t="s">
         <v>47</v>
       </c>
       <c r="R7" s="15" t="s">
@@ -8029,17 +12060,17 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
-      <c r="AK7" s="230"/>
-      <c r="AL7" s="230"/>
-      <c r="AM7" s="230"/>
-      <c r="AN7" s="230"/>
-      <c r="AO7" s="230"/>
-      <c r="AP7" s="230"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="230"/>
-      <c r="AS7" s="230"/>
-      <c r="AT7" s="230"/>
-      <c r="AU7" s="230"/>
+      <c r="AK7" s="246"/>
+      <c r="AL7" s="246"/>
+      <c r="AM7" s="246"/>
+      <c r="AN7" s="246"/>
+      <c r="AO7" s="246"/>
+      <c r="AP7" s="246"/>
+      <c r="AQ7" s="246"/>
+      <c r="AR7" s="246"/>
+      <c r="AS7" s="246"/>
+      <c r="AT7" s="246"/>
+      <c r="AU7" s="246"/>
       <c r="AV7" s="13"/>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
@@ -8082,17 +12113,17 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
-      <c r="AK8" s="230"/>
-      <c r="AL8" s="230"/>
-      <c r="AM8" s="230"/>
-      <c r="AN8" s="230"/>
-      <c r="AO8" s="230"/>
-      <c r="AP8" s="230"/>
-      <c r="AQ8" s="230"/>
-      <c r="AR8" s="230"/>
-      <c r="AS8" s="230"/>
-      <c r="AT8" s="230"/>
-      <c r="AU8" s="230"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
+      <c r="AR8" s="246"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="246"/>
+      <c r="AU8" s="246"/>
       <c r="AV8" s="13"/>
       <c r="AW8" s="13"/>
       <c r="AX8" s="13"/>
@@ -8165,17 +12196,17 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="230"/>
-      <c r="AL9" s="230"/>
-      <c r="AM9" s="230"/>
-      <c r="AN9" s="230"/>
-      <c r="AO9" s="230"/>
-      <c r="AP9" s="230"/>
-      <c r="AQ9" s="230"/>
-      <c r="AR9" s="230"/>
-      <c r="AS9" s="230"/>
-      <c r="AT9" s="230"/>
-      <c r="AU9" s="230"/>
+      <c r="AK9" s="246"/>
+      <c r="AL9" s="246"/>
+      <c r="AM9" s="246"/>
+      <c r="AN9" s="246"/>
+      <c r="AO9" s="246"/>
+      <c r="AP9" s="246"/>
+      <c r="AQ9" s="246"/>
+      <c r="AR9" s="246"/>
+      <c r="AS9" s="246"/>
+      <c r="AT9" s="246"/>
+      <c r="AU9" s="246"/>
       <c r="AV9" s="13"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
@@ -8210,17 +12241,17 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="230"/>
-      <c r="AL10" s="230"/>
-      <c r="AM10" s="230"/>
-      <c r="AN10" s="230"/>
-      <c r="AO10" s="230"/>
-      <c r="AP10" s="230"/>
-      <c r="AQ10" s="230"/>
-      <c r="AR10" s="230"/>
-      <c r="AS10" s="230"/>
-      <c r="AT10" s="230"/>
-      <c r="AU10" s="230"/>
+      <c r="AK10" s="246"/>
+      <c r="AL10" s="246"/>
+      <c r="AM10" s="246"/>
+      <c r="AN10" s="246"/>
+      <c r="AO10" s="246"/>
+      <c r="AP10" s="246"/>
+      <c r="AQ10" s="246"/>
+      <c r="AR10" s="246"/>
+      <c r="AS10" s="246"/>
+      <c r="AT10" s="246"/>
+      <c r="AU10" s="246"/>
       <c r="AV10" s="13"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
@@ -8296,17 +12327,17 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="230"/>
-      <c r="AL11" s="230"/>
-      <c r="AM11" s="230"/>
-      <c r="AN11" s="230"/>
-      <c r="AO11" s="230"/>
-      <c r="AP11" s="230"/>
-      <c r="AQ11" s="230"/>
-      <c r="AR11" s="230"/>
-      <c r="AS11" s="230"/>
-      <c r="AT11" s="230"/>
-      <c r="AU11" s="230"/>
+      <c r="AK11" s="246"/>
+      <c r="AL11" s="246"/>
+      <c r="AM11" s="246"/>
+      <c r="AN11" s="246"/>
+      <c r="AO11" s="246"/>
+      <c r="AP11" s="246"/>
+      <c r="AQ11" s="246"/>
+      <c r="AR11" s="246"/>
+      <c r="AS11" s="246"/>
+      <c r="AT11" s="246"/>
+      <c r="AU11" s="246"/>
       <c r="AV11" s="13"/>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
@@ -8347,17 +12378,17 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="230"/>
-      <c r="AL12" s="230"/>
-      <c r="AM12" s="230"/>
-      <c r="AN12" s="230"/>
-      <c r="AO12" s="230"/>
-      <c r="AP12" s="230"/>
-      <c r="AQ12" s="230"/>
-      <c r="AR12" s="230"/>
-      <c r="AS12" s="230"/>
-      <c r="AT12" s="230"/>
-      <c r="AU12" s="230"/>
+      <c r="AK12" s="246"/>
+      <c r="AL12" s="246"/>
+      <c r="AM12" s="246"/>
+      <c r="AN12" s="246"/>
+      <c r="AO12" s="246"/>
+      <c r="AP12" s="246"/>
+      <c r="AQ12" s="246"/>
+      <c r="AR12" s="246"/>
+      <c r="AS12" s="246"/>
+      <c r="AT12" s="246"/>
+      <c r="AU12" s="246"/>
       <c r="AV12" s="13"/>
       <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
@@ -8433,17 +12464,17 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="230"/>
-      <c r="AL13" s="230"/>
-      <c r="AM13" s="230"/>
-      <c r="AN13" s="230"/>
-      <c r="AO13" s="230"/>
-      <c r="AP13" s="230"/>
-      <c r="AQ13" s="230"/>
-      <c r="AR13" s="230"/>
-      <c r="AS13" s="230"/>
-      <c r="AT13" s="230"/>
-      <c r="AU13" s="230"/>
+      <c r="AK13" s="246"/>
+      <c r="AL13" s="246"/>
+      <c r="AM13" s="246"/>
+      <c r="AN13" s="246"/>
+      <c r="AO13" s="246"/>
+      <c r="AP13" s="246"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="246"/>
+      <c r="AS13" s="246"/>
+      <c r="AT13" s="246"/>
+      <c r="AU13" s="246"/>
       <c r="AV13" s="13"/>
       <c r="AW13" s="13"/>
       <c r="AX13" s="13"/>
@@ -8484,17 +12515,17 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="230"/>
-      <c r="AL14" s="230"/>
-      <c r="AM14" s="230"/>
-      <c r="AN14" s="230"/>
-      <c r="AO14" s="230"/>
-      <c r="AP14" s="230"/>
-      <c r="AQ14" s="230"/>
-      <c r="AR14" s="230"/>
-      <c r="AS14" s="230"/>
-      <c r="AT14" s="230"/>
-      <c r="AU14" s="230"/>
+      <c r="AK14" s="246"/>
+      <c r="AL14" s="246"/>
+      <c r="AM14" s="246"/>
+      <c r="AN14" s="246"/>
+      <c r="AO14" s="246"/>
+      <c r="AP14" s="246"/>
+      <c r="AQ14" s="246"/>
+      <c r="AR14" s="246"/>
+      <c r="AS14" s="246"/>
+      <c r="AT14" s="246"/>
+      <c r="AU14" s="246"/>
       <c r="AV14" s="13"/>
       <c r="AW14" s="13"/>
       <c r="AX14" s="13"/>
@@ -8987,11 +13018,11 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="13"/>
-      <c r="AK21" s="231">
+      <c r="AK21" s="245">
         <f>8.1*5</f>
         <v>40.5</v>
       </c>
-      <c r="AL21" s="231"/>
+      <c r="AL21" s="245"/>
       <c r="AM21" s="209" t="s">
         <v>83</v>
       </c>
@@ -9128,11 +13159,11 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
-      <c r="AK23" s="231">
+      <c r="AK23" s="245">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="AL23" s="231"/>
+      <c r="AL23" s="245"/>
       <c r="AM23" s="209" t="s">
         <v>84</v>
       </c>
@@ -10782,7 +14813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -10790,10 +14821,10 @@
   <dimension ref="A1:CI77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC53" sqref="AC53"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12176,11 +16207,11 @@
       <c r="AT15" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="AU15" s="232" t="s">
+      <c r="AU15" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="AV15" s="232"/>
-      <c r="AW15" s="232"/>
+      <c r="AV15" s="247"/>
+      <c r="AW15" s="247"/>
       <c r="AX15" s="128" t="s">
         <v>0</v>
       </c>
@@ -16281,20 +20312,20 @@
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="233" t="s">
+      <c r="Q54" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="R54" s="234"/>
-      <c r="S54" s="234"/>
-      <c r="T54" s="234"/>
-      <c r="U54" s="234"/>
-      <c r="V54" s="234"/>
-      <c r="W54" s="234"/>
-      <c r="X54" s="234"/>
-      <c r="Y54" s="234"/>
-      <c r="Z54" s="234"/>
-      <c r="AA54" s="234"/>
-      <c r="AB54" s="234"/>
+      <c r="R54" s="249"/>
+      <c r="S54" s="249"/>
+      <c r="T54" s="249"/>
+      <c r="U54" s="249"/>
+      <c r="V54" s="249"/>
+      <c r="W54" s="249"/>
+      <c r="X54" s="249"/>
+      <c r="Y54" s="249"/>
+      <c r="Z54" s="249"/>
+      <c r="AA54" s="249"/>
+      <c r="AB54" s="249"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
@@ -16334,18 +20365,18 @@
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="234"/>
-      <c r="R55" s="234"/>
-      <c r="S55" s="234"/>
-      <c r="T55" s="234"/>
-      <c r="U55" s="234"/>
-      <c r="V55" s="234"/>
-      <c r="W55" s="234"/>
-      <c r="X55" s="234"/>
-      <c r="Y55" s="234"/>
-      <c r="Z55" s="234"/>
-      <c r="AA55" s="234"/>
-      <c r="AB55" s="234"/>
+      <c r="Q55" s="249"/>
+      <c r="R55" s="249"/>
+      <c r="S55" s="249"/>
+      <c r="T55" s="249"/>
+      <c r="U55" s="249"/>
+      <c r="V55" s="249"/>
+      <c r="W55" s="249"/>
+      <c r="X55" s="249"/>
+      <c r="Y55" s="249"/>
+      <c r="Z55" s="249"/>
+      <c r="AA55" s="249"/>
+      <c r="AB55" s="249"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
@@ -16445,18 +20476,18 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="234"/>
-      <c r="R56" s="234"/>
-      <c r="S56" s="234"/>
-      <c r="T56" s="234"/>
-      <c r="U56" s="234"/>
-      <c r="V56" s="234"/>
-      <c r="W56" s="234"/>
-      <c r="X56" s="234"/>
-      <c r="Y56" s="234"/>
-      <c r="Z56" s="234"/>
-      <c r="AA56" s="234"/>
-      <c r="AB56" s="234"/>
+      <c r="Q56" s="249"/>
+      <c r="R56" s="249"/>
+      <c r="S56" s="249"/>
+      <c r="T56" s="249"/>
+      <c r="U56" s="249"/>
+      <c r="V56" s="249"/>
+      <c r="W56" s="249"/>
+      <c r="X56" s="249"/>
+      <c r="Y56" s="249"/>
+      <c r="Z56" s="249"/>
+      <c r="AA56" s="249"/>
+      <c r="AB56" s="249"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -16512,18 +20543,18 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="234"/>
-      <c r="R57" s="234"/>
-      <c r="S57" s="234"/>
-      <c r="T57" s="234"/>
-      <c r="U57" s="234"/>
-      <c r="V57" s="234"/>
-      <c r="W57" s="234"/>
-      <c r="X57" s="234"/>
-      <c r="Y57" s="234"/>
-      <c r="Z57" s="234"/>
-      <c r="AA57" s="234"/>
-      <c r="AB57" s="234"/>
+      <c r="Q57" s="249"/>
+      <c r="R57" s="249"/>
+      <c r="S57" s="249"/>
+      <c r="T57" s="249"/>
+      <c r="U57" s="249"/>
+      <c r="V57" s="249"/>
+      <c r="W57" s="249"/>
+      <c r="X57" s="249"/>
+      <c r="Y57" s="249"/>
+      <c r="Z57" s="249"/>
+      <c r="AA57" s="249"/>
+      <c r="AB57" s="249"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -16611,18 +20642,18 @@
       <c r="N58" s="30"/>
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
-      <c r="Q58" s="234"/>
-      <c r="R58" s="234"/>
-      <c r="S58" s="234"/>
-      <c r="T58" s="234"/>
-      <c r="U58" s="234"/>
-      <c r="V58" s="234"/>
-      <c r="W58" s="234"/>
-      <c r="X58" s="234"/>
-      <c r="Y58" s="234"/>
-      <c r="Z58" s="234"/>
-      <c r="AA58" s="234"/>
-      <c r="AB58" s="234"/>
+      <c r="Q58" s="249"/>
+      <c r="R58" s="249"/>
+      <c r="S58" s="249"/>
+      <c r="T58" s="249"/>
+      <c r="U58" s="249"/>
+      <c r="V58" s="249"/>
+      <c r="W58" s="249"/>
+      <c r="X58" s="249"/>
+      <c r="Y58" s="249"/>
+      <c r="Z58" s="249"/>
+      <c r="AA58" s="249"/>
+      <c r="AB58" s="249"/>
       <c r="AC58" s="30"/>
       <c r="AD58" s="30"/>
       <c r="AE58" s="30"/>
@@ -16669,18 +20700,18 @@
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="234"/>
-      <c r="R59" s="234"/>
-      <c r="S59" s="234"/>
-      <c r="T59" s="234"/>
-      <c r="U59" s="234"/>
-      <c r="V59" s="234"/>
-      <c r="W59" s="234"/>
-      <c r="X59" s="234"/>
-      <c r="Y59" s="234"/>
-      <c r="Z59" s="234"/>
-      <c r="AA59" s="234"/>
-      <c r="AB59" s="234"/>
+      <c r="Q59" s="249"/>
+      <c r="R59" s="249"/>
+      <c r="S59" s="249"/>
+      <c r="T59" s="249"/>
+      <c r="U59" s="249"/>
+      <c r="V59" s="249"/>
+      <c r="W59" s="249"/>
+      <c r="X59" s="249"/>
+      <c r="Y59" s="249"/>
+      <c r="Z59" s="249"/>
+      <c r="AA59" s="249"/>
+      <c r="AB59" s="249"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="30"/>
       <c r="AE59" s="30"/>
@@ -16769,18 +20800,18 @@
       <c r="N60" s="30"/>
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
-      <c r="Q60" s="234"/>
-      <c r="R60" s="234"/>
-      <c r="S60" s="234"/>
-      <c r="T60" s="234"/>
-      <c r="U60" s="234"/>
-      <c r="V60" s="234"/>
-      <c r="W60" s="234"/>
-      <c r="X60" s="234"/>
-      <c r="Y60" s="234"/>
-      <c r="Z60" s="234"/>
-      <c r="AA60" s="234"/>
-      <c r="AB60" s="234"/>
+      <c r="Q60" s="249"/>
+      <c r="R60" s="249"/>
+      <c r="S60" s="249"/>
+      <c r="T60" s="249"/>
+      <c r="U60" s="249"/>
+      <c r="V60" s="249"/>
+      <c r="W60" s="249"/>
+      <c r="X60" s="249"/>
+      <c r="Y60" s="249"/>
+      <c r="Z60" s="249"/>
+      <c r="AA60" s="249"/>
+      <c r="AB60" s="249"/>
       <c r="AC60" s="30"/>
       <c r="AD60" s="30"/>
       <c r="AE60" s="30"/>
@@ -16827,18 +20858,18 @@
       <c r="N61" s="30"/>
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
-      <c r="Q61" s="234"/>
-      <c r="R61" s="234"/>
-      <c r="S61" s="234"/>
-      <c r="T61" s="234"/>
-      <c r="U61" s="234"/>
-      <c r="V61" s="234"/>
-      <c r="W61" s="234"/>
-      <c r="X61" s="234"/>
-      <c r="Y61" s="234"/>
-      <c r="Z61" s="234"/>
-      <c r="AA61" s="234"/>
-      <c r="AB61" s="234"/>
+      <c r="Q61" s="249"/>
+      <c r="R61" s="249"/>
+      <c r="S61" s="249"/>
+      <c r="T61" s="249"/>
+      <c r="U61" s="249"/>
+      <c r="V61" s="249"/>
+      <c r="W61" s="249"/>
+      <c r="X61" s="249"/>
+      <c r="Y61" s="249"/>
+      <c r="Z61" s="249"/>
+      <c r="AA61" s="249"/>
+      <c r="AB61" s="249"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="30"/>
       <c r="AE61" s="30"/>
@@ -16926,18 +20957,18 @@
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
       <c r="P62" s="30"/>
-      <c r="Q62" s="234"/>
-      <c r="R62" s="234"/>
-      <c r="S62" s="234"/>
-      <c r="T62" s="234"/>
-      <c r="U62" s="234"/>
-      <c r="V62" s="234"/>
-      <c r="W62" s="234"/>
-      <c r="X62" s="234"/>
-      <c r="Y62" s="234"/>
-      <c r="Z62" s="234"/>
-      <c r="AA62" s="234"/>
-      <c r="AB62" s="234"/>
+      <c r="Q62" s="249"/>
+      <c r="R62" s="249"/>
+      <c r="S62" s="249"/>
+      <c r="T62" s="249"/>
+      <c r="U62" s="249"/>
+      <c r="V62" s="249"/>
+      <c r="W62" s="249"/>
+      <c r="X62" s="249"/>
+      <c r="Y62" s="249"/>
+      <c r="Z62" s="249"/>
+      <c r="AA62" s="249"/>
+      <c r="AB62" s="249"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30"/>
@@ -16977,18 +21008,18 @@
       <c r="N63" s="30"/>
       <c r="O63" s="30"/>
       <c r="P63" s="30"/>
-      <c r="Q63" s="234"/>
-      <c r="R63" s="234"/>
-      <c r="S63" s="234"/>
-      <c r="T63" s="234"/>
-      <c r="U63" s="234"/>
-      <c r="V63" s="234"/>
-      <c r="W63" s="234"/>
-      <c r="X63" s="234"/>
-      <c r="Y63" s="234"/>
-      <c r="Z63" s="234"/>
-      <c r="AA63" s="234"/>
-      <c r="AB63" s="234"/>
+      <c r="Q63" s="249"/>
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="249"/>
+      <c r="U63" s="249"/>
+      <c r="V63" s="249"/>
+      <c r="W63" s="249"/>
+      <c r="X63" s="249"/>
+      <c r="Y63" s="249"/>
+      <c r="Z63" s="249"/>
+      <c r="AA63" s="249"/>
+      <c r="AB63" s="249"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="30"/>
       <c r="AE63" s="30"/>
@@ -17076,18 +21107,18 @@
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
-      <c r="Q64" s="234"/>
-      <c r="R64" s="234"/>
-      <c r="S64" s="234"/>
-      <c r="T64" s="234"/>
-      <c r="U64" s="234"/>
-      <c r="V64" s="234"/>
-      <c r="W64" s="234"/>
-      <c r="X64" s="234"/>
-      <c r="Y64" s="234"/>
-      <c r="Z64" s="234"/>
-      <c r="AA64" s="234"/>
-      <c r="AB64" s="234"/>
+      <c r="Q64" s="249"/>
+      <c r="R64" s="249"/>
+      <c r="S64" s="249"/>
+      <c r="T64" s="249"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="249"/>
+      <c r="Z64" s="249"/>
+      <c r="AA64" s="249"/>
+      <c r="AB64" s="249"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
@@ -17127,18 +21158,18 @@
       <c r="N65" s="30"/>
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
-      <c r="Q65" s="234"/>
-      <c r="R65" s="234"/>
-      <c r="S65" s="234"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="234"/>
-      <c r="V65" s="234"/>
-      <c r="W65" s="234"/>
-      <c r="X65" s="234"/>
-      <c r="Y65" s="234"/>
-      <c r="Z65" s="234"/>
-      <c r="AA65" s="234"/>
-      <c r="AB65" s="234"/>
+      <c r="Q65" s="249"/>
+      <c r="R65" s="249"/>
+      <c r="S65" s="249"/>
+      <c r="T65" s="249"/>
+      <c r="U65" s="249"/>
+      <c r="V65" s="249"/>
+      <c r="W65" s="249"/>
+      <c r="X65" s="249"/>
+      <c r="Y65" s="249"/>
+      <c r="Z65" s="249"/>
+      <c r="AA65" s="249"/>
+      <c r="AB65" s="249"/>
       <c r="AC65" s="30"/>
       <c r="AD65" s="30"/>
       <c r="AE65" s="30"/>
@@ -17224,18 +21255,18 @@
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
-      <c r="Q66" s="234"/>
-      <c r="R66" s="234"/>
-      <c r="S66" s="234"/>
-      <c r="T66" s="234"/>
-      <c r="U66" s="234"/>
-      <c r="V66" s="234"/>
-      <c r="W66" s="234"/>
-      <c r="X66" s="234"/>
-      <c r="Y66" s="234"/>
-      <c r="Z66" s="234"/>
-      <c r="AA66" s="234"/>
-      <c r="AB66" s="234"/>
+      <c r="Q66" s="249"/>
+      <c r="R66" s="249"/>
+      <c r="S66" s="249"/>
+      <c r="T66" s="249"/>
+      <c r="U66" s="249"/>
+      <c r="V66" s="249"/>
+      <c r="W66" s="249"/>
+      <c r="X66" s="249"/>
+      <c r="Y66" s="249"/>
+      <c r="Z66" s="249"/>
+      <c r="AA66" s="249"/>
+      <c r="AB66" s="249"/>
       <c r="AC66" s="30"/>
       <c r="AD66" s="30"/>
       <c r="AE66" s="30"/>
@@ -17275,18 +21306,18 @@
       <c r="N67" s="30"/>
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="234"/>
-      <c r="R67" s="234"/>
-      <c r="S67" s="234"/>
-      <c r="T67" s="234"/>
-      <c r="U67" s="234"/>
-      <c r="V67" s="234"/>
-      <c r="W67" s="234"/>
-      <c r="X67" s="234"/>
-      <c r="Y67" s="234"/>
-      <c r="Z67" s="234"/>
-      <c r="AA67" s="234"/>
-      <c r="AB67" s="234"/>
+      <c r="Q67" s="249"/>
+      <c r="R67" s="249"/>
+      <c r="S67" s="249"/>
+      <c r="T67" s="249"/>
+      <c r="U67" s="249"/>
+      <c r="V67" s="249"/>
+      <c r="W67" s="249"/>
+      <c r="X67" s="249"/>
+      <c r="Y67" s="249"/>
+      <c r="Z67" s="249"/>
+      <c r="AA67" s="249"/>
+      <c r="AB67" s="249"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
@@ -17374,18 +21405,18 @@
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
-      <c r="Q68" s="234"/>
-      <c r="R68" s="234"/>
-      <c r="S68" s="234"/>
-      <c r="T68" s="234"/>
-      <c r="U68" s="234"/>
-      <c r="V68" s="234"/>
-      <c r="W68" s="234"/>
-      <c r="X68" s="234"/>
-      <c r="Y68" s="234"/>
-      <c r="Z68" s="234"/>
-      <c r="AA68" s="234"/>
-      <c r="AB68" s="234"/>
+      <c r="Q68" s="249"/>
+      <c r="R68" s="249"/>
+      <c r="S68" s="249"/>
+      <c r="T68" s="249"/>
+      <c r="U68" s="249"/>
+      <c r="V68" s="249"/>
+      <c r="W68" s="249"/>
+      <c r="X68" s="249"/>
+      <c r="Y68" s="249"/>
+      <c r="Z68" s="249"/>
+      <c r="AA68" s="249"/>
+      <c r="AB68" s="249"/>
       <c r="AC68" s="30"/>
       <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
@@ -17425,18 +21456,18 @@
       <c r="N69" s="30"/>
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
-      <c r="W69" s="234"/>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="234"/>
-      <c r="Z69" s="234"/>
-      <c r="AA69" s="234"/>
-      <c r="AB69" s="234"/>
+      <c r="Q69" s="249"/>
+      <c r="R69" s="249"/>
+      <c r="S69" s="249"/>
+      <c r="T69" s="249"/>
+      <c r="U69" s="249"/>
+      <c r="V69" s="249"/>
+      <c r="W69" s="249"/>
+      <c r="X69" s="249"/>
+      <c r="Y69" s="249"/>
+      <c r="Z69" s="249"/>
+      <c r="AA69" s="249"/>
+      <c r="AB69" s="249"/>
       <c r="AC69" s="30"/>
       <c r="AD69" s="30"/>
       <c r="AE69" s="30"/>
@@ -17524,18 +21555,18 @@
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="234"/>
-      <c r="R70" s="234"/>
-      <c r="S70" s="234"/>
-      <c r="T70" s="234"/>
-      <c r="U70" s="234"/>
-      <c r="V70" s="234"/>
-      <c r="W70" s="234"/>
-      <c r="X70" s="234"/>
-      <c r="Y70" s="234"/>
-      <c r="Z70" s="234"/>
-      <c r="AA70" s="234"/>
-      <c r="AB70" s="234"/>
+      <c r="Q70" s="249"/>
+      <c r="R70" s="249"/>
+      <c r="S70" s="249"/>
+      <c r="T70" s="249"/>
+      <c r="U70" s="249"/>
+      <c r="V70" s="249"/>
+      <c r="W70" s="249"/>
+      <c r="X70" s="249"/>
+      <c r="Y70" s="249"/>
+      <c r="Z70" s="249"/>
+      <c r="AA70" s="249"/>
+      <c r="AB70" s="249"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="30"/>
       <c r="AE70" s="30"/>
@@ -17571,18 +21602,18 @@
       <c r="BI70" s="122"/>
     </row>
     <row r="71" spans="13:61" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="Q71" s="234"/>
-      <c r="R71" s="234"/>
-      <c r="S71" s="234"/>
-      <c r="T71" s="234"/>
-      <c r="U71" s="234"/>
-      <c r="V71" s="234"/>
-      <c r="W71" s="234"/>
-      <c r="X71" s="234"/>
-      <c r="Y71" s="234"/>
-      <c r="Z71" s="234"/>
-      <c r="AA71" s="234"/>
-      <c r="AB71" s="234"/>
+      <c r="Q71" s="249"/>
+      <c r="R71" s="249"/>
+      <c r="S71" s="249"/>
+      <c r="T71" s="249"/>
+      <c r="U71" s="249"/>
+      <c r="V71" s="249"/>
+      <c r="W71" s="249"/>
+      <c r="X71" s="249"/>
+      <c r="Y71" s="249"/>
+      <c r="Z71" s="249"/>
+      <c r="AA71" s="249"/>
+      <c r="AB71" s="249"/>
       <c r="AL71" s="118" t="s">
         <v>0</v>
       </c>
@@ -17657,18 +21688,18 @@
       </c>
     </row>
     <row r="72" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q72" s="234"/>
-      <c r="R72" s="234"/>
-      <c r="S72" s="234"/>
-      <c r="T72" s="234"/>
-      <c r="U72" s="234"/>
-      <c r="V72" s="234"/>
-      <c r="W72" s="234"/>
-      <c r="X72" s="234"/>
-      <c r="Y72" s="234"/>
-      <c r="Z72" s="234"/>
-      <c r="AA72" s="234"/>
-      <c r="AB72" s="234"/>
+      <c r="Q72" s="249"/>
+      <c r="R72" s="249"/>
+      <c r="S72" s="249"/>
+      <c r="T72" s="249"/>
+      <c r="U72" s="249"/>
+      <c r="V72" s="249"/>
+      <c r="W72" s="249"/>
+      <c r="X72" s="249"/>
+      <c r="Y72" s="249"/>
+      <c r="Z72" s="249"/>
+      <c r="AA72" s="249"/>
+      <c r="AB72" s="249"/>
       <c r="AL72" s="122"/>
       <c r="AM72" s="122"/>
       <c r="AN72" s="122"/>
@@ -17695,18 +21726,18 @@
       <c r="BI72" s="122"/>
     </row>
     <row r="73" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q73" s="234"/>
-      <c r="R73" s="234"/>
-      <c r="S73" s="234"/>
-      <c r="T73" s="234"/>
-      <c r="U73" s="234"/>
-      <c r="V73" s="234"/>
-      <c r="W73" s="234"/>
-      <c r="X73" s="234"/>
-      <c r="Y73" s="234"/>
-      <c r="Z73" s="234"/>
-      <c r="AA73" s="234"/>
-      <c r="AB73" s="234"/>
+      <c r="Q73" s="249"/>
+      <c r="R73" s="249"/>
+      <c r="S73" s="249"/>
+      <c r="T73" s="249"/>
+      <c r="U73" s="249"/>
+      <c r="V73" s="249"/>
+      <c r="W73" s="249"/>
+      <c r="X73" s="249"/>
+      <c r="Y73" s="249"/>
+      <c r="Z73" s="249"/>
+      <c r="AA73" s="249"/>
+      <c r="AB73" s="249"/>
       <c r="AL73" s="118" t="s">
         <v>0</v>
       </c>
@@ -17781,18 +21812,18 @@
       </c>
     </row>
     <row r="74" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q74" s="234"/>
-      <c r="R74" s="234"/>
-      <c r="S74" s="234"/>
-      <c r="T74" s="234"/>
-      <c r="U74" s="234"/>
-      <c r="V74" s="234"/>
-      <c r="W74" s="234"/>
-      <c r="X74" s="234"/>
-      <c r="Y74" s="234"/>
-      <c r="Z74" s="234"/>
-      <c r="AA74" s="234"/>
-      <c r="AB74" s="234"/>
+      <c r="Q74" s="249"/>
+      <c r="R74" s="249"/>
+      <c r="S74" s="249"/>
+      <c r="T74" s="249"/>
+      <c r="U74" s="249"/>
+      <c r="V74" s="249"/>
+      <c r="W74" s="249"/>
+      <c r="X74" s="249"/>
+      <c r="Y74" s="249"/>
+      <c r="Z74" s="249"/>
+      <c r="AA74" s="249"/>
+      <c r="AB74" s="249"/>
       <c r="AL74" s="122"/>
       <c r="AM74" s="122"/>
       <c r="AN74" s="122"/>
@@ -17819,18 +21850,18 @@
       <c r="BI74" s="122"/>
     </row>
     <row r="75" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q75" s="234"/>
-      <c r="R75" s="234"/>
-      <c r="S75" s="234"/>
-      <c r="T75" s="234"/>
-      <c r="U75" s="234"/>
-      <c r="V75" s="234"/>
-      <c r="W75" s="234"/>
-      <c r="X75" s="234"/>
-      <c r="Y75" s="234"/>
-      <c r="Z75" s="234"/>
-      <c r="AA75" s="234"/>
-      <c r="AB75" s="234"/>
+      <c r="Q75" s="249"/>
+      <c r="R75" s="249"/>
+      <c r="S75" s="249"/>
+      <c r="T75" s="249"/>
+      <c r="U75" s="249"/>
+      <c r="V75" s="249"/>
+      <c r="W75" s="249"/>
+      <c r="X75" s="249"/>
+      <c r="Y75" s="249"/>
+      <c r="Z75" s="249"/>
+      <c r="AA75" s="249"/>
+      <c r="AB75" s="249"/>
       <c r="AL75" s="118" t="s">
         <v>0</v>
       </c>
@@ -17905,18 +21936,18 @@
       </c>
     </row>
     <row r="76" spans="13:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="Q76" s="234"/>
-      <c r="R76" s="234"/>
-      <c r="S76" s="234"/>
-      <c r="T76" s="234"/>
-      <c r="U76" s="234"/>
-      <c r="V76" s="234"/>
-      <c r="W76" s="234"/>
-      <c r="X76" s="234"/>
-      <c r="Y76" s="234"/>
-      <c r="Z76" s="234"/>
-      <c r="AA76" s="234"/>
-      <c r="AB76" s="234"/>
+      <c r="Q76" s="249"/>
+      <c r="R76" s="249"/>
+      <c r="S76" s="249"/>
+      <c r="T76" s="249"/>
+      <c r="U76" s="249"/>
+      <c r="V76" s="249"/>
+      <c r="W76" s="249"/>
+      <c r="X76" s="249"/>
+      <c r="Y76" s="249"/>
+      <c r="Z76" s="249"/>
+      <c r="AA76" s="249"/>
+      <c r="AB76" s="249"/>
       <c r="AL76" s="126"/>
       <c r="AM76" s="126"/>
       <c r="AN76" s="126"/>
@@ -20032,7 +24063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AY77"/>
   <sheetViews>
@@ -20591,26 +24622,26 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="235" t="s">
+      <c r="Q21" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="235"/>
-      <c r="U21" s="235"/>
-      <c r="V21" s="235"/>
-      <c r="W21" s="235"/>
-      <c r="X21" s="235"/>
-      <c r="Y21" s="235"/>
-      <c r="Z21" s="235"/>
-      <c r="AF21" s="235" t="s">
+      <c r="R21" s="250"/>
+      <c r="S21" s="250"/>
+      <c r="T21" s="250"/>
+      <c r="U21" s="250"/>
+      <c r="V21" s="250"/>
+      <c r="W21" s="250"/>
+      <c r="X21" s="250"/>
+      <c r="Y21" s="250"/>
+      <c r="Z21" s="250"/>
+      <c r="AF21" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="AG21" s="235"/>
-      <c r="AH21" s="235"/>
-      <c r="AI21" s="235"/>
-      <c r="AJ21" s="235"/>
-      <c r="AK21" s="235"/>
+      <c r="AG21" s="250"/>
+      <c r="AH21" s="250"/>
+      <c r="AI21" s="250"/>
+      <c r="AJ21" s="250"/>
+      <c r="AK21" s="250"/>
     </row>
     <row r="22" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -21327,14 +25358,14 @@
       <c r="Z37" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="235" t="s">
+      <c r="AE37" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="AF37" s="235"/>
-      <c r="AG37" s="235"/>
-      <c r="AH37" s="235"/>
-      <c r="AI37" s="235"/>
-      <c r="AJ37" s="235"/>
+      <c r="AF37" s="250"/>
+      <c r="AG37" s="250"/>
+      <c r="AH37" s="250"/>
+      <c r="AI37" s="250"/>
+      <c r="AJ37" s="250"/>
     </row>
     <row r="38" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>

--- a/Flare Notes.xlsx
+++ b/Flare Notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E165526-2A31-DB48-B19F-75DFEC65FFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A4D9D-0894-3C42-BDB8-6D5A69F4F325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Board" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="89">
   <si>
     <t>o</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>LEDs</t>
+  </si>
+  <si>
+    <t>maybe this line is intact</t>
   </si>
 </sst>
 </file>
@@ -1587,6 +1590,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1604,9 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7530,7 +7533,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA27" sqref="AA27"/>
+      <selection pane="bottomRight" activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7752,19 +7755,19 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="230" t="s">
+      <c r="AK3" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="230"/>
-      <c r="AO3" s="230"/>
-      <c r="AP3" s="230"/>
-      <c r="AQ3" s="230"/>
-      <c r="AR3" s="230"/>
-      <c r="AS3" s="230"/>
-      <c r="AT3" s="230"/>
-      <c r="AU3" s="230"/>
+      <c r="AL3" s="231"/>
+      <c r="AM3" s="231"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="231"/>
+      <c r="AP3" s="231"/>
+      <c r="AQ3" s="231"/>
+      <c r="AR3" s="231"/>
+      <c r="AS3" s="231"/>
+      <c r="AT3" s="231"/>
+      <c r="AU3" s="231"/>
       <c r="AV3" s="13"/>
       <c r="AW3" s="13"/>
       <c r="AX3" s="13"/>
@@ -7808,17 +7811,17 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
-      <c r="AK4" s="230"/>
-      <c r="AL4" s="230"/>
-      <c r="AM4" s="230"/>
-      <c r="AN4" s="230"/>
-      <c r="AO4" s="230"/>
-      <c r="AP4" s="230"/>
-      <c r="AQ4" s="230"/>
-      <c r="AR4" s="230"/>
-      <c r="AS4" s="230"/>
-      <c r="AT4" s="230"/>
-      <c r="AU4" s="230"/>
+      <c r="AK4" s="231"/>
+      <c r="AL4" s="231"/>
+      <c r="AM4" s="231"/>
+      <c r="AN4" s="231"/>
+      <c r="AO4" s="231"/>
+      <c r="AP4" s="231"/>
+      <c r="AQ4" s="231"/>
+      <c r="AR4" s="231"/>
+      <c r="AS4" s="231"/>
+      <c r="AT4" s="231"/>
+      <c r="AU4" s="231"/>
       <c r="AV4" s="13"/>
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
@@ -7891,17 +7894,17 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
-      <c r="AK5" s="230"/>
-      <c r="AL5" s="230"/>
-      <c r="AM5" s="230"/>
-      <c r="AN5" s="230"/>
-      <c r="AO5" s="230"/>
-      <c r="AP5" s="230"/>
-      <c r="AQ5" s="230"/>
-      <c r="AR5" s="230"/>
-      <c r="AS5" s="230"/>
-      <c r="AT5" s="230"/>
-      <c r="AU5" s="230"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="231"/>
+      <c r="AM5" s="231"/>
+      <c r="AN5" s="231"/>
+      <c r="AO5" s="231"/>
+      <c r="AP5" s="231"/>
+      <c r="AQ5" s="231"/>
+      <c r="AR5" s="231"/>
+      <c r="AS5" s="231"/>
+      <c r="AT5" s="231"/>
+      <c r="AU5" s="231"/>
       <c r="AV5" s="13"/>
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
@@ -7944,17 +7947,17 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
-      <c r="AK6" s="230"/>
-      <c r="AL6" s="230"/>
-      <c r="AM6" s="230"/>
-      <c r="AN6" s="230"/>
-      <c r="AO6" s="230"/>
-      <c r="AP6" s="230"/>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
-      <c r="AT6" s="230"/>
-      <c r="AU6" s="230"/>
+      <c r="AK6" s="231"/>
+      <c r="AL6" s="231"/>
+      <c r="AM6" s="231"/>
+      <c r="AN6" s="231"/>
+      <c r="AO6" s="231"/>
+      <c r="AP6" s="231"/>
+      <c r="AQ6" s="231"/>
+      <c r="AR6" s="231"/>
+      <c r="AS6" s="231"/>
+      <c r="AT6" s="231"/>
+      <c r="AU6" s="231"/>
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
       <c r="AX6" s="13"/>
@@ -8001,7 +8004,7 @@
       <c r="P7" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="236" t="s">
+      <c r="Q7" s="230" t="s">
         <v>47</v>
       </c>
       <c r="R7" s="15" t="s">
@@ -8029,17 +8032,17 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
-      <c r="AK7" s="230"/>
-      <c r="AL7" s="230"/>
-      <c r="AM7" s="230"/>
-      <c r="AN7" s="230"/>
-      <c r="AO7" s="230"/>
-      <c r="AP7" s="230"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="230"/>
-      <c r="AS7" s="230"/>
-      <c r="AT7" s="230"/>
-      <c r="AU7" s="230"/>
+      <c r="AK7" s="231"/>
+      <c r="AL7" s="231"/>
+      <c r="AM7" s="231"/>
+      <c r="AN7" s="231"/>
+      <c r="AO7" s="231"/>
+      <c r="AP7" s="231"/>
+      <c r="AQ7" s="231"/>
+      <c r="AR7" s="231"/>
+      <c r="AS7" s="231"/>
+      <c r="AT7" s="231"/>
+      <c r="AU7" s="231"/>
       <c r="AV7" s="13"/>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
@@ -8082,17 +8085,17 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
-      <c r="AK8" s="230"/>
-      <c r="AL8" s="230"/>
-      <c r="AM8" s="230"/>
-      <c r="AN8" s="230"/>
-      <c r="AO8" s="230"/>
-      <c r="AP8" s="230"/>
-      <c r="AQ8" s="230"/>
-      <c r="AR8" s="230"/>
-      <c r="AS8" s="230"/>
-      <c r="AT8" s="230"/>
-      <c r="AU8" s="230"/>
+      <c r="AK8" s="231"/>
+      <c r="AL8" s="231"/>
+      <c r="AM8" s="231"/>
+      <c r="AN8" s="231"/>
+      <c r="AO8" s="231"/>
+      <c r="AP8" s="231"/>
+      <c r="AQ8" s="231"/>
+      <c r="AR8" s="231"/>
+      <c r="AS8" s="231"/>
+      <c r="AT8" s="231"/>
+      <c r="AU8" s="231"/>
       <c r="AV8" s="13"/>
       <c r="AW8" s="13"/>
       <c r="AX8" s="13"/>
@@ -8165,17 +8168,17 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="230"/>
-      <c r="AL9" s="230"/>
-      <c r="AM9" s="230"/>
-      <c r="AN9" s="230"/>
-      <c r="AO9" s="230"/>
-      <c r="AP9" s="230"/>
-      <c r="AQ9" s="230"/>
-      <c r="AR9" s="230"/>
-      <c r="AS9" s="230"/>
-      <c r="AT9" s="230"/>
-      <c r="AU9" s="230"/>
+      <c r="AK9" s="231"/>
+      <c r="AL9" s="231"/>
+      <c r="AM9" s="231"/>
+      <c r="AN9" s="231"/>
+      <c r="AO9" s="231"/>
+      <c r="AP9" s="231"/>
+      <c r="AQ9" s="231"/>
+      <c r="AR9" s="231"/>
+      <c r="AS9" s="231"/>
+      <c r="AT9" s="231"/>
+      <c r="AU9" s="231"/>
       <c r="AV9" s="13"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
@@ -8210,17 +8213,17 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="230"/>
-      <c r="AL10" s="230"/>
-      <c r="AM10" s="230"/>
-      <c r="AN10" s="230"/>
-      <c r="AO10" s="230"/>
-      <c r="AP10" s="230"/>
-      <c r="AQ10" s="230"/>
-      <c r="AR10" s="230"/>
-      <c r="AS10" s="230"/>
-      <c r="AT10" s="230"/>
-      <c r="AU10" s="230"/>
+      <c r="AK10" s="231"/>
+      <c r="AL10" s="231"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="231"/>
+      <c r="AO10" s="231"/>
+      <c r="AP10" s="231"/>
+      <c r="AQ10" s="231"/>
+      <c r="AR10" s="231"/>
+      <c r="AS10" s="231"/>
+      <c r="AT10" s="231"/>
+      <c r="AU10" s="231"/>
       <c r="AV10" s="13"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
@@ -8296,17 +8299,17 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="230"/>
-      <c r="AL11" s="230"/>
-      <c r="AM11" s="230"/>
-      <c r="AN11" s="230"/>
-      <c r="AO11" s="230"/>
-      <c r="AP11" s="230"/>
-      <c r="AQ11" s="230"/>
-      <c r="AR11" s="230"/>
-      <c r="AS11" s="230"/>
-      <c r="AT11" s="230"/>
-      <c r="AU11" s="230"/>
+      <c r="AK11" s="231"/>
+      <c r="AL11" s="231"/>
+      <c r="AM11" s="231"/>
+      <c r="AN11" s="231"/>
+      <c r="AO11" s="231"/>
+      <c r="AP11" s="231"/>
+      <c r="AQ11" s="231"/>
+      <c r="AR11" s="231"/>
+      <c r="AS11" s="231"/>
+      <c r="AT11" s="231"/>
+      <c r="AU11" s="231"/>
       <c r="AV11" s="13"/>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
@@ -8347,17 +8350,17 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="230"/>
-      <c r="AL12" s="230"/>
-      <c r="AM12" s="230"/>
-      <c r="AN12" s="230"/>
-      <c r="AO12" s="230"/>
-      <c r="AP12" s="230"/>
-      <c r="AQ12" s="230"/>
-      <c r="AR12" s="230"/>
-      <c r="AS12" s="230"/>
-      <c r="AT12" s="230"/>
-      <c r="AU12" s="230"/>
+      <c r="AK12" s="231"/>
+      <c r="AL12" s="231"/>
+      <c r="AM12" s="231"/>
+      <c r="AN12" s="231"/>
+      <c r="AO12" s="231"/>
+      <c r="AP12" s="231"/>
+      <c r="AQ12" s="231"/>
+      <c r="AR12" s="231"/>
+      <c r="AS12" s="231"/>
+      <c r="AT12" s="231"/>
+      <c r="AU12" s="231"/>
       <c r="AV12" s="13"/>
       <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
@@ -8433,17 +8436,17 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="230"/>
-      <c r="AL13" s="230"/>
-      <c r="AM13" s="230"/>
-      <c r="AN13" s="230"/>
-      <c r="AO13" s="230"/>
-      <c r="AP13" s="230"/>
-      <c r="AQ13" s="230"/>
-      <c r="AR13" s="230"/>
-      <c r="AS13" s="230"/>
-      <c r="AT13" s="230"/>
-      <c r="AU13" s="230"/>
+      <c r="AK13" s="231"/>
+      <c r="AL13" s="231"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="231"/>
+      <c r="AO13" s="231"/>
+      <c r="AP13" s="231"/>
+      <c r="AQ13" s="231"/>
+      <c r="AR13" s="231"/>
+      <c r="AS13" s="231"/>
+      <c r="AT13" s="231"/>
+      <c r="AU13" s="231"/>
       <c r="AV13" s="13"/>
       <c r="AW13" s="13"/>
       <c r="AX13" s="13"/>
@@ -8484,17 +8487,17 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="230"/>
-      <c r="AL14" s="230"/>
-      <c r="AM14" s="230"/>
-      <c r="AN14" s="230"/>
-      <c r="AO14" s="230"/>
-      <c r="AP14" s="230"/>
-      <c r="AQ14" s="230"/>
-      <c r="AR14" s="230"/>
-      <c r="AS14" s="230"/>
-      <c r="AT14" s="230"/>
-      <c r="AU14" s="230"/>
+      <c r="AK14" s="231"/>
+      <c r="AL14" s="231"/>
+      <c r="AM14" s="231"/>
+      <c r="AN14" s="231"/>
+      <c r="AO14" s="231"/>
+      <c r="AP14" s="231"/>
+      <c r="AQ14" s="231"/>
+      <c r="AR14" s="231"/>
+      <c r="AS14" s="231"/>
+      <c r="AT14" s="231"/>
+      <c r="AU14" s="231"/>
       <c r="AV14" s="13"/>
       <c r="AW14" s="13"/>
       <c r="AX14" s="13"/>
@@ -8695,7 +8698,9 @@
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="186"/>
-      <c r="W17" s="186"/>
+      <c r="W17" s="193" t="s">
+        <v>88</v>
+      </c>
       <c r="X17" s="186"/>
       <c r="Y17" s="186"/>
       <c r="Z17" s="186"/>
@@ -8987,11 +8992,11 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="13"/>
-      <c r="AK21" s="231">
+      <c r="AK21" s="232">
         <f>8.1*5</f>
         <v>40.5</v>
       </c>
-      <c r="AL21" s="231"/>
+      <c r="AL21" s="232"/>
       <c r="AM21" s="209" t="s">
         <v>83</v>
       </c>
@@ -9128,11 +9133,11 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
-      <c r="AK23" s="231">
+      <c r="AK23" s="232">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="AL23" s="231"/>
+      <c r="AL23" s="232"/>
       <c r="AM23" s="209" t="s">
         <v>84</v>
       </c>
@@ -12176,11 +12181,11 @@
       <c r="AT15" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="AU15" s="232" t="s">
+      <c r="AU15" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="AV15" s="232"/>
-      <c r="AW15" s="232"/>
+      <c r="AV15" s="233"/>
+      <c r="AW15" s="233"/>
       <c r="AX15" s="128" t="s">
         <v>0</v>
       </c>
@@ -16281,20 +16286,20 @@
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="233" t="s">
+      <c r="Q54" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="R54" s="234"/>
-      <c r="S54" s="234"/>
-      <c r="T54" s="234"/>
-      <c r="U54" s="234"/>
-      <c r="V54" s="234"/>
-      <c r="W54" s="234"/>
-      <c r="X54" s="234"/>
-      <c r="Y54" s="234"/>
-      <c r="Z54" s="234"/>
-      <c r="AA54" s="234"/>
-      <c r="AB54" s="234"/>
+      <c r="R54" s="235"/>
+      <c r="S54" s="235"/>
+      <c r="T54" s="235"/>
+      <c r="U54" s="235"/>
+      <c r="V54" s="235"/>
+      <c r="W54" s="235"/>
+      <c r="X54" s="235"/>
+      <c r="Y54" s="235"/>
+      <c r="Z54" s="235"/>
+      <c r="AA54" s="235"/>
+      <c r="AB54" s="235"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
@@ -16334,18 +16339,18 @@
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="234"/>
-      <c r="R55" s="234"/>
-      <c r="S55" s="234"/>
-      <c r="T55" s="234"/>
-      <c r="U55" s="234"/>
-      <c r="V55" s="234"/>
-      <c r="W55" s="234"/>
-      <c r="X55" s="234"/>
-      <c r="Y55" s="234"/>
-      <c r="Z55" s="234"/>
-      <c r="AA55" s="234"/>
-      <c r="AB55" s="234"/>
+      <c r="Q55" s="235"/>
+      <c r="R55" s="235"/>
+      <c r="S55" s="235"/>
+      <c r="T55" s="235"/>
+      <c r="U55" s="235"/>
+      <c r="V55" s="235"/>
+      <c r="W55" s="235"/>
+      <c r="X55" s="235"/>
+      <c r="Y55" s="235"/>
+      <c r="Z55" s="235"/>
+      <c r="AA55" s="235"/>
+      <c r="AB55" s="235"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
@@ -16445,18 +16450,18 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="234"/>
-      <c r="R56" s="234"/>
-      <c r="S56" s="234"/>
-      <c r="T56" s="234"/>
-      <c r="U56" s="234"/>
-      <c r="V56" s="234"/>
-      <c r="W56" s="234"/>
-      <c r="X56" s="234"/>
-      <c r="Y56" s="234"/>
-      <c r="Z56" s="234"/>
-      <c r="AA56" s="234"/>
-      <c r="AB56" s="234"/>
+      <c r="Q56" s="235"/>
+      <c r="R56" s="235"/>
+      <c r="S56" s="235"/>
+      <c r="T56" s="235"/>
+      <c r="U56" s="235"/>
+      <c r="V56" s="235"/>
+      <c r="W56" s="235"/>
+      <c r="X56" s="235"/>
+      <c r="Y56" s="235"/>
+      <c r="Z56" s="235"/>
+      <c r="AA56" s="235"/>
+      <c r="AB56" s="235"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -16512,18 +16517,18 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="234"/>
-      <c r="R57" s="234"/>
-      <c r="S57" s="234"/>
-      <c r="T57" s="234"/>
-      <c r="U57" s="234"/>
-      <c r="V57" s="234"/>
-      <c r="W57" s="234"/>
-      <c r="X57" s="234"/>
-      <c r="Y57" s="234"/>
-      <c r="Z57" s="234"/>
-      <c r="AA57" s="234"/>
-      <c r="AB57" s="234"/>
+      <c r="Q57" s="235"/>
+      <c r="R57" s="235"/>
+      <c r="S57" s="235"/>
+      <c r="T57" s="235"/>
+      <c r="U57" s="235"/>
+      <c r="V57" s="235"/>
+      <c r="W57" s="235"/>
+      <c r="X57" s="235"/>
+      <c r="Y57" s="235"/>
+      <c r="Z57" s="235"/>
+      <c r="AA57" s="235"/>
+      <c r="AB57" s="235"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -16611,18 +16616,18 @@
       <c r="N58" s="30"/>
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
-      <c r="Q58" s="234"/>
-      <c r="R58" s="234"/>
-      <c r="S58" s="234"/>
-      <c r="T58" s="234"/>
-      <c r="U58" s="234"/>
-      <c r="V58" s="234"/>
-      <c r="W58" s="234"/>
-      <c r="X58" s="234"/>
-      <c r="Y58" s="234"/>
-      <c r="Z58" s="234"/>
-      <c r="AA58" s="234"/>
-      <c r="AB58" s="234"/>
+      <c r="Q58" s="235"/>
+      <c r="R58" s="235"/>
+      <c r="S58" s="235"/>
+      <c r="T58" s="235"/>
+      <c r="U58" s="235"/>
+      <c r="V58" s="235"/>
+      <c r="W58" s="235"/>
+      <c r="X58" s="235"/>
+      <c r="Y58" s="235"/>
+      <c r="Z58" s="235"/>
+      <c r="AA58" s="235"/>
+      <c r="AB58" s="235"/>
       <c r="AC58" s="30"/>
       <c r="AD58" s="30"/>
       <c r="AE58" s="30"/>
@@ -16669,18 +16674,18 @@
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="234"/>
-      <c r="R59" s="234"/>
-      <c r="S59" s="234"/>
-      <c r="T59" s="234"/>
-      <c r="U59" s="234"/>
-      <c r="V59" s="234"/>
-      <c r="W59" s="234"/>
-      <c r="X59" s="234"/>
-      <c r="Y59" s="234"/>
-      <c r="Z59" s="234"/>
-      <c r="AA59" s="234"/>
-      <c r="AB59" s="234"/>
+      <c r="Q59" s="235"/>
+      <c r="R59" s="235"/>
+      <c r="S59" s="235"/>
+      <c r="T59" s="235"/>
+      <c r="U59" s="235"/>
+      <c r="V59" s="235"/>
+      <c r="W59" s="235"/>
+      <c r="X59" s="235"/>
+      <c r="Y59" s="235"/>
+      <c r="Z59" s="235"/>
+      <c r="AA59" s="235"/>
+      <c r="AB59" s="235"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="30"/>
       <c r="AE59" s="30"/>
@@ -16769,18 +16774,18 @@
       <c r="N60" s="30"/>
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
-      <c r="Q60" s="234"/>
-      <c r="R60" s="234"/>
-      <c r="S60" s="234"/>
-      <c r="T60" s="234"/>
-      <c r="U60" s="234"/>
-      <c r="V60" s="234"/>
-      <c r="W60" s="234"/>
-      <c r="X60" s="234"/>
-      <c r="Y60" s="234"/>
-      <c r="Z60" s="234"/>
-      <c r="AA60" s="234"/>
-      <c r="AB60" s="234"/>
+      <c r="Q60" s="235"/>
+      <c r="R60" s="235"/>
+      <c r="S60" s="235"/>
+      <c r="T60" s="235"/>
+      <c r="U60" s="235"/>
+      <c r="V60" s="235"/>
+      <c r="W60" s="235"/>
+      <c r="X60" s="235"/>
+      <c r="Y60" s="235"/>
+      <c r="Z60" s="235"/>
+      <c r="AA60" s="235"/>
+      <c r="AB60" s="235"/>
       <c r="AC60" s="30"/>
       <c r="AD60" s="30"/>
       <c r="AE60" s="30"/>
@@ -16827,18 +16832,18 @@
       <c r="N61" s="30"/>
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
-      <c r="Q61" s="234"/>
-      <c r="R61" s="234"/>
-      <c r="S61" s="234"/>
-      <c r="T61" s="234"/>
-      <c r="U61" s="234"/>
-      <c r="V61" s="234"/>
-      <c r="W61" s="234"/>
-      <c r="X61" s="234"/>
-      <c r="Y61" s="234"/>
-      <c r="Z61" s="234"/>
-      <c r="AA61" s="234"/>
-      <c r="AB61" s="234"/>
+      <c r="Q61" s="235"/>
+      <c r="R61" s="235"/>
+      <c r="S61" s="235"/>
+      <c r="T61" s="235"/>
+      <c r="U61" s="235"/>
+      <c r="V61" s="235"/>
+      <c r="W61" s="235"/>
+      <c r="X61" s="235"/>
+      <c r="Y61" s="235"/>
+      <c r="Z61" s="235"/>
+      <c r="AA61" s="235"/>
+      <c r="AB61" s="235"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="30"/>
       <c r="AE61" s="30"/>
@@ -16926,18 +16931,18 @@
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
       <c r="P62" s="30"/>
-      <c r="Q62" s="234"/>
-      <c r="R62" s="234"/>
-      <c r="S62" s="234"/>
-      <c r="T62" s="234"/>
-      <c r="U62" s="234"/>
-      <c r="V62" s="234"/>
-      <c r="W62" s="234"/>
-      <c r="X62" s="234"/>
-      <c r="Y62" s="234"/>
-      <c r="Z62" s="234"/>
-      <c r="AA62" s="234"/>
-      <c r="AB62" s="234"/>
+      <c r="Q62" s="235"/>
+      <c r="R62" s="235"/>
+      <c r="S62" s="235"/>
+      <c r="T62" s="235"/>
+      <c r="U62" s="235"/>
+      <c r="V62" s="235"/>
+      <c r="W62" s="235"/>
+      <c r="X62" s="235"/>
+      <c r="Y62" s="235"/>
+      <c r="Z62" s="235"/>
+      <c r="AA62" s="235"/>
+      <c r="AB62" s="235"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30"/>
@@ -16977,18 +16982,18 @@
       <c r="N63" s="30"/>
       <c r="O63" s="30"/>
       <c r="P63" s="30"/>
-      <c r="Q63" s="234"/>
-      <c r="R63" s="234"/>
-      <c r="S63" s="234"/>
-      <c r="T63" s="234"/>
-      <c r="U63" s="234"/>
-      <c r="V63" s="234"/>
-      <c r="W63" s="234"/>
-      <c r="X63" s="234"/>
-      <c r="Y63" s="234"/>
-      <c r="Z63" s="234"/>
-      <c r="AA63" s="234"/>
-      <c r="AB63" s="234"/>
+      <c r="Q63" s="235"/>
+      <c r="R63" s="235"/>
+      <c r="S63" s="235"/>
+      <c r="T63" s="235"/>
+      <c r="U63" s="235"/>
+      <c r="V63" s="235"/>
+      <c r="W63" s="235"/>
+      <c r="X63" s="235"/>
+      <c r="Y63" s="235"/>
+      <c r="Z63" s="235"/>
+      <c r="AA63" s="235"/>
+      <c r="AB63" s="235"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="30"/>
       <c r="AE63" s="30"/>
@@ -17076,18 +17081,18 @@
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
-      <c r="Q64" s="234"/>
-      <c r="R64" s="234"/>
-      <c r="S64" s="234"/>
-      <c r="T64" s="234"/>
-      <c r="U64" s="234"/>
-      <c r="V64" s="234"/>
-      <c r="W64" s="234"/>
-      <c r="X64" s="234"/>
-      <c r="Y64" s="234"/>
-      <c r="Z64" s="234"/>
-      <c r="AA64" s="234"/>
-      <c r="AB64" s="234"/>
+      <c r="Q64" s="235"/>
+      <c r="R64" s="235"/>
+      <c r="S64" s="235"/>
+      <c r="T64" s="235"/>
+      <c r="U64" s="235"/>
+      <c r="V64" s="235"/>
+      <c r="W64" s="235"/>
+      <c r="X64" s="235"/>
+      <c r="Y64" s="235"/>
+      <c r="Z64" s="235"/>
+      <c r="AA64" s="235"/>
+      <c r="AB64" s="235"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
@@ -17127,18 +17132,18 @@
       <c r="N65" s="30"/>
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
-      <c r="Q65" s="234"/>
-      <c r="R65" s="234"/>
-      <c r="S65" s="234"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="234"/>
-      <c r="V65" s="234"/>
-      <c r="W65" s="234"/>
-      <c r="X65" s="234"/>
-      <c r="Y65" s="234"/>
-      <c r="Z65" s="234"/>
-      <c r="AA65" s="234"/>
-      <c r="AB65" s="234"/>
+      <c r="Q65" s="235"/>
+      <c r="R65" s="235"/>
+      <c r="S65" s="235"/>
+      <c r="T65" s="235"/>
+      <c r="U65" s="235"/>
+      <c r="V65" s="235"/>
+      <c r="W65" s="235"/>
+      <c r="X65" s="235"/>
+      <c r="Y65" s="235"/>
+      <c r="Z65" s="235"/>
+      <c r="AA65" s="235"/>
+      <c r="AB65" s="235"/>
       <c r="AC65" s="30"/>
       <c r="AD65" s="30"/>
       <c r="AE65" s="30"/>
@@ -17224,18 +17229,18 @@
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
-      <c r="Q66" s="234"/>
-      <c r="R66" s="234"/>
-      <c r="S66" s="234"/>
-      <c r="T66" s="234"/>
-      <c r="U66" s="234"/>
-      <c r="V66" s="234"/>
-      <c r="W66" s="234"/>
-      <c r="X66" s="234"/>
-      <c r="Y66" s="234"/>
-      <c r="Z66" s="234"/>
-      <c r="AA66" s="234"/>
-      <c r="AB66" s="234"/>
+      <c r="Q66" s="235"/>
+      <c r="R66" s="235"/>
+      <c r="S66" s="235"/>
+      <c r="T66" s="235"/>
+      <c r="U66" s="235"/>
+      <c r="V66" s="235"/>
+      <c r="W66" s="235"/>
+      <c r="X66" s="235"/>
+      <c r="Y66" s="235"/>
+      <c r="Z66" s="235"/>
+      <c r="AA66" s="235"/>
+      <c r="AB66" s="235"/>
       <c r="AC66" s="30"/>
       <c r="AD66" s="30"/>
       <c r="AE66" s="30"/>
@@ -17275,18 +17280,18 @@
       <c r="N67" s="30"/>
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="234"/>
-      <c r="R67" s="234"/>
-      <c r="S67" s="234"/>
-      <c r="T67" s="234"/>
-      <c r="U67" s="234"/>
-      <c r="V67" s="234"/>
-      <c r="W67" s="234"/>
-      <c r="X67" s="234"/>
-      <c r="Y67" s="234"/>
-      <c r="Z67" s="234"/>
-      <c r="AA67" s="234"/>
-      <c r="AB67" s="234"/>
+      <c r="Q67" s="235"/>
+      <c r="R67" s="235"/>
+      <c r="S67" s="235"/>
+      <c r="T67" s="235"/>
+      <c r="U67" s="235"/>
+      <c r="V67" s="235"/>
+      <c r="W67" s="235"/>
+      <c r="X67" s="235"/>
+      <c r="Y67" s="235"/>
+      <c r="Z67" s="235"/>
+      <c r="AA67" s="235"/>
+      <c r="AB67" s="235"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
@@ -17374,18 +17379,18 @@
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
-      <c r="Q68" s="234"/>
-      <c r="R68" s="234"/>
-      <c r="S68" s="234"/>
-      <c r="T68" s="234"/>
-      <c r="U68" s="234"/>
-      <c r="V68" s="234"/>
-      <c r="W68" s="234"/>
-      <c r="X68" s="234"/>
-      <c r="Y68" s="234"/>
-      <c r="Z68" s="234"/>
-      <c r="AA68" s="234"/>
-      <c r="AB68" s="234"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="235"/>
+      <c r="S68" s="235"/>
+      <c r="T68" s="235"/>
+      <c r="U68" s="235"/>
+      <c r="V68" s="235"/>
+      <c r="W68" s="235"/>
+      <c r="X68" s="235"/>
+      <c r="Y68" s="235"/>
+      <c r="Z68" s="235"/>
+      <c r="AA68" s="235"/>
+      <c r="AB68" s="235"/>
       <c r="AC68" s="30"/>
       <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
@@ -17425,18 +17430,18 @@
       <c r="N69" s="30"/>
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
-      <c r="W69" s="234"/>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="234"/>
-      <c r="Z69" s="234"/>
-      <c r="AA69" s="234"/>
-      <c r="AB69" s="234"/>
+      <c r="Q69" s="235"/>
+      <c r="R69" s="235"/>
+      <c r="S69" s="235"/>
+      <c r="T69" s="235"/>
+      <c r="U69" s="235"/>
+      <c r="V69" s="235"/>
+      <c r="W69" s="235"/>
+      <c r="X69" s="235"/>
+      <c r="Y69" s="235"/>
+      <c r="Z69" s="235"/>
+      <c r="AA69" s="235"/>
+      <c r="AB69" s="235"/>
       <c r="AC69" s="30"/>
       <c r="AD69" s="30"/>
       <c r="AE69" s="30"/>
@@ -17524,18 +17529,18 @@
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="234"/>
-      <c r="R70" s="234"/>
-      <c r="S70" s="234"/>
-      <c r="T70" s="234"/>
-      <c r="U70" s="234"/>
-      <c r="V70" s="234"/>
-      <c r="W70" s="234"/>
-      <c r="X70" s="234"/>
-      <c r="Y70" s="234"/>
-      <c r="Z70" s="234"/>
-      <c r="AA70" s="234"/>
-      <c r="AB70" s="234"/>
+      <c r="Q70" s="235"/>
+      <c r="R70" s="235"/>
+      <c r="S70" s="235"/>
+      <c r="T70" s="235"/>
+      <c r="U70" s="235"/>
+      <c r="V70" s="235"/>
+      <c r="W70" s="235"/>
+      <c r="X70" s="235"/>
+      <c r="Y70" s="235"/>
+      <c r="Z70" s="235"/>
+      <c r="AA70" s="235"/>
+      <c r="AB70" s="235"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="30"/>
       <c r="AE70" s="30"/>
@@ -17571,18 +17576,18 @@
       <c r="BI70" s="122"/>
     </row>
     <row r="71" spans="13:61" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="Q71" s="234"/>
-      <c r="R71" s="234"/>
-      <c r="S71" s="234"/>
-      <c r="T71" s="234"/>
-      <c r="U71" s="234"/>
-      <c r="V71" s="234"/>
-      <c r="W71" s="234"/>
-      <c r="X71" s="234"/>
-      <c r="Y71" s="234"/>
-      <c r="Z71" s="234"/>
-      <c r="AA71" s="234"/>
-      <c r="AB71" s="234"/>
+      <c r="Q71" s="235"/>
+      <c r="R71" s="235"/>
+      <c r="S71" s="235"/>
+      <c r="T71" s="235"/>
+      <c r="U71" s="235"/>
+      <c r="V71" s="235"/>
+      <c r="W71" s="235"/>
+      <c r="X71" s="235"/>
+      <c r="Y71" s="235"/>
+      <c r="Z71" s="235"/>
+      <c r="AA71" s="235"/>
+      <c r="AB71" s="235"/>
       <c r="AL71" s="118" t="s">
         <v>0</v>
       </c>
@@ -17657,18 +17662,18 @@
       </c>
     </row>
     <row r="72" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q72" s="234"/>
-      <c r="R72" s="234"/>
-      <c r="S72" s="234"/>
-      <c r="T72" s="234"/>
-      <c r="U72" s="234"/>
-      <c r="V72" s="234"/>
-      <c r="W72" s="234"/>
-      <c r="X72" s="234"/>
-      <c r="Y72" s="234"/>
-      <c r="Z72" s="234"/>
-      <c r="AA72" s="234"/>
-      <c r="AB72" s="234"/>
+      <c r="Q72" s="235"/>
+      <c r="R72" s="235"/>
+      <c r="S72" s="235"/>
+      <c r="T72" s="235"/>
+      <c r="U72" s="235"/>
+      <c r="V72" s="235"/>
+      <c r="W72" s="235"/>
+      <c r="X72" s="235"/>
+      <c r="Y72" s="235"/>
+      <c r="Z72" s="235"/>
+      <c r="AA72" s="235"/>
+      <c r="AB72" s="235"/>
       <c r="AL72" s="122"/>
       <c r="AM72" s="122"/>
       <c r="AN72" s="122"/>
@@ -17695,18 +17700,18 @@
       <c r="BI72" s="122"/>
     </row>
     <row r="73" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q73" s="234"/>
-      <c r="R73" s="234"/>
-      <c r="S73" s="234"/>
-      <c r="T73" s="234"/>
-      <c r="U73" s="234"/>
-      <c r="V73" s="234"/>
-      <c r="W73" s="234"/>
-      <c r="X73" s="234"/>
-      <c r="Y73" s="234"/>
-      <c r="Z73" s="234"/>
-      <c r="AA73" s="234"/>
-      <c r="AB73" s="234"/>
+      <c r="Q73" s="235"/>
+      <c r="R73" s="235"/>
+      <c r="S73" s="235"/>
+      <c r="T73" s="235"/>
+      <c r="U73" s="235"/>
+      <c r="V73" s="235"/>
+      <c r="W73" s="235"/>
+      <c r="X73" s="235"/>
+      <c r="Y73" s="235"/>
+      <c r="Z73" s="235"/>
+      <c r="AA73" s="235"/>
+      <c r="AB73" s="235"/>
       <c r="AL73" s="118" t="s">
         <v>0</v>
       </c>
@@ -17781,18 +17786,18 @@
       </c>
     </row>
     <row r="74" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q74" s="234"/>
-      <c r="R74" s="234"/>
-      <c r="S74" s="234"/>
-      <c r="T74" s="234"/>
-      <c r="U74" s="234"/>
-      <c r="V74" s="234"/>
-      <c r="W74" s="234"/>
-      <c r="X74" s="234"/>
-      <c r="Y74" s="234"/>
-      <c r="Z74" s="234"/>
-      <c r="AA74" s="234"/>
-      <c r="AB74" s="234"/>
+      <c r="Q74" s="235"/>
+      <c r="R74" s="235"/>
+      <c r="S74" s="235"/>
+      <c r="T74" s="235"/>
+      <c r="U74" s="235"/>
+      <c r="V74" s="235"/>
+      <c r="W74" s="235"/>
+      <c r="X74" s="235"/>
+      <c r="Y74" s="235"/>
+      <c r="Z74" s="235"/>
+      <c r="AA74" s="235"/>
+      <c r="AB74" s="235"/>
       <c r="AL74" s="122"/>
       <c r="AM74" s="122"/>
       <c r="AN74" s="122"/>
@@ -17819,18 +17824,18 @@
       <c r="BI74" s="122"/>
     </row>
     <row r="75" spans="13:61" x14ac:dyDescent="0.15">
-      <c r="Q75" s="234"/>
-      <c r="R75" s="234"/>
-      <c r="S75" s="234"/>
-      <c r="T75" s="234"/>
-      <c r="U75" s="234"/>
-      <c r="V75" s="234"/>
-      <c r="W75" s="234"/>
-      <c r="X75" s="234"/>
-      <c r="Y75" s="234"/>
-      <c r="Z75" s="234"/>
-      <c r="AA75" s="234"/>
-      <c r="AB75" s="234"/>
+      <c r="Q75" s="235"/>
+      <c r="R75" s="235"/>
+      <c r="S75" s="235"/>
+      <c r="T75" s="235"/>
+      <c r="U75" s="235"/>
+      <c r="V75" s="235"/>
+      <c r="W75" s="235"/>
+      <c r="X75" s="235"/>
+      <c r="Y75" s="235"/>
+      <c r="Z75" s="235"/>
+      <c r="AA75" s="235"/>
+      <c r="AB75" s="235"/>
       <c r="AL75" s="118" t="s">
         <v>0</v>
       </c>
@@ -17905,18 +17910,18 @@
       </c>
     </row>
     <row r="76" spans="13:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="Q76" s="234"/>
-      <c r="R76" s="234"/>
-      <c r="S76" s="234"/>
-      <c r="T76" s="234"/>
-      <c r="U76" s="234"/>
-      <c r="V76" s="234"/>
-      <c r="W76" s="234"/>
-      <c r="X76" s="234"/>
-      <c r="Y76" s="234"/>
-      <c r="Z76" s="234"/>
-      <c r="AA76" s="234"/>
-      <c r="AB76" s="234"/>
+      <c r="Q76" s="235"/>
+      <c r="R76" s="235"/>
+      <c r="S76" s="235"/>
+      <c r="T76" s="235"/>
+      <c r="U76" s="235"/>
+      <c r="V76" s="235"/>
+      <c r="W76" s="235"/>
+      <c r="X76" s="235"/>
+      <c r="Y76" s="235"/>
+      <c r="Z76" s="235"/>
+      <c r="AA76" s="235"/>
+      <c r="AB76" s="235"/>
       <c r="AL76" s="126"/>
       <c r="AM76" s="126"/>
       <c r="AN76" s="126"/>
@@ -20591,26 +20596,26 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="235" t="s">
+      <c r="Q21" s="236" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="235"/>
-      <c r="U21" s="235"/>
-      <c r="V21" s="235"/>
-      <c r="W21" s="235"/>
-      <c r="X21" s="235"/>
-      <c r="Y21" s="235"/>
-      <c r="Z21" s="235"/>
-      <c r="AF21" s="235" t="s">
+      <c r="R21" s="236"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="236"/>
+      <c r="W21" s="236"/>
+      <c r="X21" s="236"/>
+      <c r="Y21" s="236"/>
+      <c r="Z21" s="236"/>
+      <c r="AF21" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="AG21" s="235"/>
-      <c r="AH21" s="235"/>
-      <c r="AI21" s="235"/>
-      <c r="AJ21" s="235"/>
-      <c r="AK21" s="235"/>
+      <c r="AG21" s="236"/>
+      <c r="AH21" s="236"/>
+      <c r="AI21" s="236"/>
+      <c r="AJ21" s="236"/>
+      <c r="AK21" s="236"/>
     </row>
     <row r="22" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -21327,14 +21332,14 @@
       <c r="Z37" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="235" t="s">
+      <c r="AE37" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="AF37" s="235"/>
-      <c r="AG37" s="235"/>
-      <c r="AH37" s="235"/>
-      <c r="AI37" s="235"/>
-      <c r="AJ37" s="235"/>
+      <c r="AF37" s="236"/>
+      <c r="AG37" s="236"/>
+      <c r="AH37" s="236"/>
+      <c r="AI37" s="236"/>
+      <c r="AJ37" s="236"/>
     </row>
     <row r="38" spans="1:37" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
